--- a/Diagrama de Gantt IAVE.xlsx
+++ b/Diagrama de Gantt IAVE.xlsx
@@ -2814,6 +2814,12 @@
     <xf numFmtId="172" fontId="0" fillId="46" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="46" borderId="2" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="41" fillId="47" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2832,6 +2838,9 @@
     <xf numFmtId="171" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2846,15 +2855,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="46" borderId="2" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="41" fillId="47" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2913,7 +2913,7 @@
     <cellStyle name="Warning Text" xfId="26" builtinId="11" customBuiltin="1"/>
     <cellStyle name="zTextoOculto" xfId="3"/>
   </cellStyles>
-  <dxfs count="790">
+  <dxfs count="654">
     <dxf>
       <fill>
         <patternFill>
@@ -3278,13 +3278,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -3681,1530 +3674,9 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -11110,15 +9582,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ListaTareasPendientes" pivot="0" count="9">
-      <tableStyleElement type="wholeTable" dxfId="789"/>
-      <tableStyleElement type="headerRow" dxfId="788"/>
-      <tableStyleElement type="totalRow" dxfId="787"/>
-      <tableStyleElement type="firstColumn" dxfId="786"/>
-      <tableStyleElement type="lastColumn" dxfId="785"/>
-      <tableStyleElement type="firstRowStripe" dxfId="784"/>
-      <tableStyleElement type="secondRowStripe" dxfId="783"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="782"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="781"/>
+      <tableStyleElement type="wholeTable" dxfId="653"/>
+      <tableStyleElement type="headerRow" dxfId="652"/>
+      <tableStyleElement type="totalRow" dxfId="651"/>
+      <tableStyleElement type="firstColumn" dxfId="650"/>
+      <tableStyleElement type="lastColumn" dxfId="649"/>
+      <tableStyleElement type="firstRowStripe" dxfId="648"/>
+      <tableStyleElement type="secondRowStripe" dxfId="647"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="646"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="645"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -11748,7 +10220,7 @@
       </c>
     </row>
     <row r="3" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="227" t="s">
+      <c r="B3" s="229" t="s">
         <v>150</v>
       </c>
       <c r="C3" s="171" t="s">
@@ -11759,7 +10231,7 @@
       </c>
     </row>
     <row r="4" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="228"/>
+      <c r="B4" s="230"/>
       <c r="C4" s="163" t="s">
         <v>152</v>
       </c>
@@ -11768,7 +10240,7 @@
       </c>
     </row>
     <row r="5" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="229"/>
+      <c r="B5" s="231"/>
       <c r="C5" s="164" t="s">
         <v>153</v>
       </c>
@@ -11777,7 +10249,7 @@
       </c>
     </row>
     <row r="6" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="227" t="s">
+      <c r="B6" s="229" t="s">
         <v>157</v>
       </c>
       <c r="C6" s="171" t="s">
@@ -11788,7 +10260,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="228"/>
+      <c r="B7" s="230"/>
       <c r="C7" s="163" t="s">
         <v>159</v>
       </c>
@@ -11797,7 +10269,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="229"/>
+      <c r="B8" s="231"/>
       <c r="C8" s="164" t="s">
         <v>160</v>
       </c>
@@ -11811,7 +10283,7 @@
       <c r="D9" s="175"/>
     </row>
     <row r="10" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="227" t="s">
+      <c r="B10" s="229" t="s">
         <v>164</v>
       </c>
       <c r="C10" s="171" t="s">
@@ -11822,7 +10294,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="228"/>
+      <c r="B11" s="230"/>
       <c r="C11" s="163" t="s">
         <v>166</v>
       </c>
@@ -11831,7 +10303,7 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="228"/>
+      <c r="B12" s="230"/>
       <c r="C12" s="163" t="s">
         <v>167</v>
       </c>
@@ -11840,7 +10312,7 @@
       </c>
     </row>
     <row r="13" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="229"/>
+      <c r="B13" s="231"/>
       <c r="C13" s="164" t="s">
         <v>168</v>
       </c>
@@ -11852,7 +10324,7 @@
       <c r="D14" s="176"/>
     </row>
     <row r="15" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="227" t="s">
+      <c r="B15" s="229" t="s">
         <v>172</v>
       </c>
       <c r="C15" s="171" t="s">
@@ -11863,7 +10335,7 @@
       </c>
     </row>
     <row r="16" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="229"/>
+      <c r="B16" s="231"/>
       <c r="C16" s="164" t="s">
         <v>174</v>
       </c>
@@ -11877,7 +10349,7 @@
       <c r="D17" s="175"/>
     </row>
     <row r="18" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="227" t="s">
+      <c r="B18" s="229" t="s">
         <v>177</v>
       </c>
       <c r="C18" s="171" t="s">
@@ -11888,7 +10360,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="229"/>
+      <c r="B19" s="231"/>
       <c r="C19" s="164" t="s">
         <v>179</v>
       </c>
@@ -11928,10 +10400,10 @@
   <dimension ref="A1:MW115"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="7" topLeftCell="I96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="7" topLeftCell="I87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="H103" sqref="H103"/>
+      <selection pane="bottomRight" activeCell="F91" sqref="F91:G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11977,10 +10449,10 @@
   <sheetData>
     <row r="1" spans="1:361" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1"/>
-      <c r="B1" s="233" t="s">
+      <c r="B1" s="236" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="233"/>
+      <c r="C1" s="236"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
       <c r="F1" s="4"/>
@@ -11994,541 +10466,541 @@
       <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="234" t="s">
+      <c r="B2" s="237" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="234"/>
+      <c r="C2" s="237"/>
       <c r="L2" s="39"/>
     </row>
     <row r="3" spans="1:361" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="235" t="s">
+      <c r="B3" s="238" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="235"/>
-      <c r="D3" s="236" t="s">
+      <c r="C3" s="238"/>
+      <c r="D3" s="239" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="237"/>
-      <c r="F3" s="238">
+      <c r="E3" s="240"/>
+      <c r="F3" s="235">
         <v>45714</v>
       </c>
-      <c r="G3" s="238"/>
+      <c r="G3" s="235"/>
     </row>
     <row r="4" spans="1:361" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="53"/>
-      <c r="D4" s="236" t="s">
+      <c r="D4" s="239" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="237"/>
+      <c r="E4" s="240"/>
       <c r="F4" s="6">
         <v>49</v>
       </c>
-      <c r="L4" s="230">
+      <c r="L4" s="232">
         <f>L5</f>
         <v>46048</v>
       </c>
-      <c r="M4" s="231"/>
-      <c r="N4" s="231"/>
-      <c r="O4" s="231"/>
-      <c r="P4" s="231"/>
-      <c r="Q4" s="231"/>
-      <c r="R4" s="232"/>
-      <c r="S4" s="230">
+      <c r="M4" s="233"/>
+      <c r="N4" s="233"/>
+      <c r="O4" s="233"/>
+      <c r="P4" s="233"/>
+      <c r="Q4" s="233"/>
+      <c r="R4" s="234"/>
+      <c r="S4" s="232">
         <f>S5</f>
         <v>46055</v>
       </c>
-      <c r="T4" s="231"/>
-      <c r="U4" s="231"/>
-      <c r="V4" s="231"/>
-      <c r="W4" s="231"/>
-      <c r="X4" s="231"/>
-      <c r="Y4" s="232"/>
-      <c r="Z4" s="230">
+      <c r="T4" s="233"/>
+      <c r="U4" s="233"/>
+      <c r="V4" s="233"/>
+      <c r="W4" s="233"/>
+      <c r="X4" s="233"/>
+      <c r="Y4" s="234"/>
+      <c r="Z4" s="232">
         <f>Z5</f>
         <v>46062</v>
       </c>
-      <c r="AA4" s="231"/>
-      <c r="AB4" s="231"/>
-      <c r="AC4" s="231"/>
-      <c r="AD4" s="231"/>
-      <c r="AE4" s="231"/>
-      <c r="AF4" s="232"/>
-      <c r="AG4" s="230">
+      <c r="AA4" s="233"/>
+      <c r="AB4" s="233"/>
+      <c r="AC4" s="233"/>
+      <c r="AD4" s="233"/>
+      <c r="AE4" s="233"/>
+      <c r="AF4" s="234"/>
+      <c r="AG4" s="232">
         <f>AG5</f>
         <v>46069</v>
       </c>
-      <c r="AH4" s="231"/>
-      <c r="AI4" s="231"/>
-      <c r="AJ4" s="231"/>
-      <c r="AK4" s="231"/>
-      <c r="AL4" s="231"/>
-      <c r="AM4" s="232"/>
-      <c r="AN4" s="230">
+      <c r="AH4" s="233"/>
+      <c r="AI4" s="233"/>
+      <c r="AJ4" s="233"/>
+      <c r="AK4" s="233"/>
+      <c r="AL4" s="233"/>
+      <c r="AM4" s="234"/>
+      <c r="AN4" s="232">
         <f>AN5</f>
         <v>46076</v>
       </c>
-      <c r="AO4" s="231"/>
-      <c r="AP4" s="231"/>
-      <c r="AQ4" s="231"/>
-      <c r="AR4" s="231"/>
-      <c r="AS4" s="231"/>
-      <c r="AT4" s="232"/>
-      <c r="AU4" s="230">
+      <c r="AO4" s="233"/>
+      <c r="AP4" s="233"/>
+      <c r="AQ4" s="233"/>
+      <c r="AR4" s="233"/>
+      <c r="AS4" s="233"/>
+      <c r="AT4" s="234"/>
+      <c r="AU4" s="232">
         <f>AU5</f>
         <v>46083</v>
       </c>
-      <c r="AV4" s="231"/>
-      <c r="AW4" s="231"/>
-      <c r="AX4" s="231"/>
-      <c r="AY4" s="231"/>
-      <c r="AZ4" s="231"/>
-      <c r="BA4" s="232"/>
-      <c r="BB4" s="230">
+      <c r="AV4" s="233"/>
+      <c r="AW4" s="233"/>
+      <c r="AX4" s="233"/>
+      <c r="AY4" s="233"/>
+      <c r="AZ4" s="233"/>
+      <c r="BA4" s="234"/>
+      <c r="BB4" s="232">
         <f>BB5</f>
         <v>46090</v>
       </c>
-      <c r="BC4" s="231"/>
-      <c r="BD4" s="231"/>
-      <c r="BE4" s="231"/>
-      <c r="BF4" s="231"/>
-      <c r="BG4" s="231"/>
-      <c r="BH4" s="232"/>
-      <c r="BI4" s="230">
+      <c r="BC4" s="233"/>
+      <c r="BD4" s="233"/>
+      <c r="BE4" s="233"/>
+      <c r="BF4" s="233"/>
+      <c r="BG4" s="233"/>
+      <c r="BH4" s="234"/>
+      <c r="BI4" s="232">
         <f>BI5</f>
         <v>46097</v>
       </c>
-      <c r="BJ4" s="231"/>
-      <c r="BK4" s="231"/>
-      <c r="BL4" s="231"/>
-      <c r="BM4" s="231"/>
-      <c r="BN4" s="231"/>
-      <c r="BO4" s="232"/>
-      <c r="BP4" s="230">
+      <c r="BJ4" s="233"/>
+      <c r="BK4" s="233"/>
+      <c r="BL4" s="233"/>
+      <c r="BM4" s="233"/>
+      <c r="BN4" s="233"/>
+      <c r="BO4" s="234"/>
+      <c r="BP4" s="232">
         <f>BP5</f>
         <v>46104</v>
       </c>
-      <c r="BQ4" s="231"/>
-      <c r="BR4" s="231"/>
-      <c r="BS4" s="231"/>
-      <c r="BT4" s="231"/>
-      <c r="BU4" s="231"/>
-      <c r="BV4" s="232"/>
-      <c r="BW4" s="230">
+      <c r="BQ4" s="233"/>
+      <c r="BR4" s="233"/>
+      <c r="BS4" s="233"/>
+      <c r="BT4" s="233"/>
+      <c r="BU4" s="233"/>
+      <c r="BV4" s="234"/>
+      <c r="BW4" s="232">
         <f>BW5</f>
         <v>46111</v>
       </c>
-      <c r="BX4" s="231"/>
-      <c r="BY4" s="231"/>
-      <c r="BZ4" s="231"/>
-      <c r="CA4" s="231"/>
-      <c r="CB4" s="231"/>
-      <c r="CC4" s="232"/>
-      <c r="CD4" s="230">
+      <c r="BX4" s="233"/>
+      <c r="BY4" s="233"/>
+      <c r="BZ4" s="233"/>
+      <c r="CA4" s="233"/>
+      <c r="CB4" s="233"/>
+      <c r="CC4" s="234"/>
+      <c r="CD4" s="232">
         <f>CD5</f>
         <v>46118</v>
       </c>
-      <c r="CE4" s="231"/>
-      <c r="CF4" s="231"/>
-      <c r="CG4" s="231"/>
-      <c r="CH4" s="231"/>
-      <c r="CI4" s="231"/>
-      <c r="CJ4" s="232"/>
-      <c r="CK4" s="230">
+      <c r="CE4" s="233"/>
+      <c r="CF4" s="233"/>
+      <c r="CG4" s="233"/>
+      <c r="CH4" s="233"/>
+      <c r="CI4" s="233"/>
+      <c r="CJ4" s="234"/>
+      <c r="CK4" s="232">
         <f>CK5</f>
         <v>46125</v>
       </c>
-      <c r="CL4" s="231"/>
-      <c r="CM4" s="231"/>
-      <c r="CN4" s="231"/>
-      <c r="CO4" s="231"/>
-      <c r="CP4" s="231"/>
-      <c r="CQ4" s="232"/>
-      <c r="CR4" s="230">
+      <c r="CL4" s="233"/>
+      <c r="CM4" s="233"/>
+      <c r="CN4" s="233"/>
+      <c r="CO4" s="233"/>
+      <c r="CP4" s="233"/>
+      <c r="CQ4" s="234"/>
+      <c r="CR4" s="232">
         <f>CR5</f>
         <v>46132</v>
       </c>
-      <c r="CS4" s="231"/>
-      <c r="CT4" s="231"/>
-      <c r="CU4" s="231"/>
-      <c r="CV4" s="231"/>
-      <c r="CW4" s="231"/>
-      <c r="CX4" s="232"/>
-      <c r="CY4" s="230">
+      <c r="CS4" s="233"/>
+      <c r="CT4" s="233"/>
+      <c r="CU4" s="233"/>
+      <c r="CV4" s="233"/>
+      <c r="CW4" s="233"/>
+      <c r="CX4" s="234"/>
+      <c r="CY4" s="232">
         <f>CY5</f>
         <v>46139</v>
       </c>
-      <c r="CZ4" s="231"/>
-      <c r="DA4" s="231"/>
-      <c r="DB4" s="231"/>
-      <c r="DC4" s="231"/>
-      <c r="DD4" s="231"/>
-      <c r="DE4" s="232"/>
-      <c r="DF4" s="230">
+      <c r="CZ4" s="233"/>
+      <c r="DA4" s="233"/>
+      <c r="DB4" s="233"/>
+      <c r="DC4" s="233"/>
+      <c r="DD4" s="233"/>
+      <c r="DE4" s="234"/>
+      <c r="DF4" s="232">
         <f>DF5</f>
         <v>46146</v>
       </c>
-      <c r="DG4" s="231"/>
-      <c r="DH4" s="231"/>
-      <c r="DI4" s="231"/>
-      <c r="DJ4" s="231"/>
-      <c r="DK4" s="231"/>
-      <c r="DL4" s="232"/>
-      <c r="DM4" s="230">
+      <c r="DG4" s="233"/>
+      <c r="DH4" s="233"/>
+      <c r="DI4" s="233"/>
+      <c r="DJ4" s="233"/>
+      <c r="DK4" s="233"/>
+      <c r="DL4" s="234"/>
+      <c r="DM4" s="232">
         <f>DM5</f>
         <v>46153</v>
       </c>
-      <c r="DN4" s="231"/>
-      <c r="DO4" s="231"/>
-      <c r="DP4" s="231"/>
-      <c r="DQ4" s="231"/>
-      <c r="DR4" s="231"/>
-      <c r="DS4" s="232"/>
-      <c r="DT4" s="230">
+      <c r="DN4" s="233"/>
+      <c r="DO4" s="233"/>
+      <c r="DP4" s="233"/>
+      <c r="DQ4" s="233"/>
+      <c r="DR4" s="233"/>
+      <c r="DS4" s="234"/>
+      <c r="DT4" s="232">
         <f>DT5</f>
         <v>46160</v>
       </c>
-      <c r="DU4" s="231"/>
-      <c r="DV4" s="231"/>
-      <c r="DW4" s="231"/>
-      <c r="DX4" s="231"/>
-      <c r="DY4" s="231"/>
-      <c r="DZ4" s="232"/>
-      <c r="EA4" s="230">
+      <c r="DU4" s="233"/>
+      <c r="DV4" s="233"/>
+      <c r="DW4" s="233"/>
+      <c r="DX4" s="233"/>
+      <c r="DY4" s="233"/>
+      <c r="DZ4" s="234"/>
+      <c r="EA4" s="232">
         <f>EA5</f>
         <v>46167</v>
       </c>
-      <c r="EB4" s="231"/>
-      <c r="EC4" s="231"/>
-      <c r="ED4" s="231"/>
-      <c r="EE4" s="231"/>
-      <c r="EF4" s="231"/>
-      <c r="EG4" s="232"/>
-      <c r="EH4" s="230">
+      <c r="EB4" s="233"/>
+      <c r="EC4" s="233"/>
+      <c r="ED4" s="233"/>
+      <c r="EE4" s="233"/>
+      <c r="EF4" s="233"/>
+      <c r="EG4" s="234"/>
+      <c r="EH4" s="232">
         <f>EH5</f>
         <v>46174</v>
       </c>
-      <c r="EI4" s="231"/>
-      <c r="EJ4" s="231"/>
-      <c r="EK4" s="231"/>
-      <c r="EL4" s="231"/>
-      <c r="EM4" s="231"/>
-      <c r="EN4" s="232"/>
-      <c r="EO4" s="230">
+      <c r="EI4" s="233"/>
+      <c r="EJ4" s="233"/>
+      <c r="EK4" s="233"/>
+      <c r="EL4" s="233"/>
+      <c r="EM4" s="233"/>
+      <c r="EN4" s="234"/>
+      <c r="EO4" s="232">
         <f>EO5</f>
         <v>46181</v>
       </c>
-      <c r="EP4" s="231"/>
-      <c r="EQ4" s="231"/>
-      <c r="ER4" s="231"/>
-      <c r="ES4" s="231"/>
-      <c r="ET4" s="231"/>
-      <c r="EU4" s="232"/>
-      <c r="EV4" s="230">
+      <c r="EP4" s="233"/>
+      <c r="EQ4" s="233"/>
+      <c r="ER4" s="233"/>
+      <c r="ES4" s="233"/>
+      <c r="ET4" s="233"/>
+      <c r="EU4" s="234"/>
+      <c r="EV4" s="232">
         <f>EV5</f>
         <v>46188</v>
       </c>
-      <c r="EW4" s="231"/>
-      <c r="EX4" s="231"/>
-      <c r="EY4" s="231"/>
-      <c r="EZ4" s="231"/>
-      <c r="FA4" s="231"/>
-      <c r="FB4" s="232"/>
-      <c r="FC4" s="230">
+      <c r="EW4" s="233"/>
+      <c r="EX4" s="233"/>
+      <c r="EY4" s="233"/>
+      <c r="EZ4" s="233"/>
+      <c r="FA4" s="233"/>
+      <c r="FB4" s="234"/>
+      <c r="FC4" s="232">
         <f>FC5</f>
         <v>46195</v>
       </c>
-      <c r="FD4" s="231"/>
-      <c r="FE4" s="231"/>
-      <c r="FF4" s="231"/>
-      <c r="FG4" s="231"/>
-      <c r="FH4" s="231"/>
-      <c r="FI4" s="232"/>
-      <c r="FJ4" s="230">
+      <c r="FD4" s="233"/>
+      <c r="FE4" s="233"/>
+      <c r="FF4" s="233"/>
+      <c r="FG4" s="233"/>
+      <c r="FH4" s="233"/>
+      <c r="FI4" s="234"/>
+      <c r="FJ4" s="232">
         <f>FJ5</f>
         <v>46202</v>
       </c>
-      <c r="FK4" s="231"/>
-      <c r="FL4" s="231"/>
-      <c r="FM4" s="231"/>
-      <c r="FN4" s="231"/>
-      <c r="FO4" s="231"/>
-      <c r="FP4" s="232"/>
-      <c r="FQ4" s="230">
+      <c r="FK4" s="233"/>
+      <c r="FL4" s="233"/>
+      <c r="FM4" s="233"/>
+      <c r="FN4" s="233"/>
+      <c r="FO4" s="233"/>
+      <c r="FP4" s="234"/>
+      <c r="FQ4" s="232">
         <f>FQ5</f>
         <v>46209</v>
       </c>
-      <c r="FR4" s="231"/>
-      <c r="FS4" s="231"/>
-      <c r="FT4" s="231"/>
-      <c r="FU4" s="231"/>
-      <c r="FV4" s="231"/>
-      <c r="FW4" s="232"/>
-      <c r="FX4" s="230">
+      <c r="FR4" s="233"/>
+      <c r="FS4" s="233"/>
+      <c r="FT4" s="233"/>
+      <c r="FU4" s="233"/>
+      <c r="FV4" s="233"/>
+      <c r="FW4" s="234"/>
+      <c r="FX4" s="232">
         <f>FX5</f>
         <v>46216</v>
       </c>
-      <c r="FY4" s="231"/>
-      <c r="FZ4" s="231"/>
-      <c r="GA4" s="231"/>
-      <c r="GB4" s="231"/>
-      <c r="GC4" s="231"/>
-      <c r="GD4" s="232"/>
-      <c r="GE4" s="230">
+      <c r="FY4" s="233"/>
+      <c r="FZ4" s="233"/>
+      <c r="GA4" s="233"/>
+      <c r="GB4" s="233"/>
+      <c r="GC4" s="233"/>
+      <c r="GD4" s="234"/>
+      <c r="GE4" s="232">
         <f>GE5</f>
         <v>46223</v>
       </c>
-      <c r="GF4" s="231"/>
-      <c r="GG4" s="231"/>
-      <c r="GH4" s="231"/>
-      <c r="GI4" s="231"/>
-      <c r="GJ4" s="231"/>
-      <c r="GK4" s="232"/>
-      <c r="GL4" s="230">
+      <c r="GF4" s="233"/>
+      <c r="GG4" s="233"/>
+      <c r="GH4" s="233"/>
+      <c r="GI4" s="233"/>
+      <c r="GJ4" s="233"/>
+      <c r="GK4" s="234"/>
+      <c r="GL4" s="232">
         <f>GL5</f>
         <v>46230</v>
       </c>
-      <c r="GM4" s="231"/>
-      <c r="GN4" s="231"/>
-      <c r="GO4" s="231"/>
-      <c r="GP4" s="231"/>
-      <c r="GQ4" s="231"/>
-      <c r="GR4" s="232"/>
-      <c r="GS4" s="230">
+      <c r="GM4" s="233"/>
+      <c r="GN4" s="233"/>
+      <c r="GO4" s="233"/>
+      <c r="GP4" s="233"/>
+      <c r="GQ4" s="233"/>
+      <c r="GR4" s="234"/>
+      <c r="GS4" s="232">
         <f>GS5</f>
         <v>46237</v>
       </c>
-      <c r="GT4" s="231"/>
-      <c r="GU4" s="231"/>
-      <c r="GV4" s="231"/>
-      <c r="GW4" s="231"/>
-      <c r="GX4" s="231"/>
-      <c r="GY4" s="232"/>
-      <c r="GZ4" s="230">
+      <c r="GT4" s="233"/>
+      <c r="GU4" s="233"/>
+      <c r="GV4" s="233"/>
+      <c r="GW4" s="233"/>
+      <c r="GX4" s="233"/>
+      <c r="GY4" s="234"/>
+      <c r="GZ4" s="232">
         <f>GZ5</f>
         <v>46244</v>
       </c>
-      <c r="HA4" s="231"/>
-      <c r="HB4" s="231"/>
-      <c r="HC4" s="231"/>
-      <c r="HD4" s="231"/>
-      <c r="HE4" s="231"/>
-      <c r="HF4" s="232"/>
-      <c r="HG4" s="230">
+      <c r="HA4" s="233"/>
+      <c r="HB4" s="233"/>
+      <c r="HC4" s="233"/>
+      <c r="HD4" s="233"/>
+      <c r="HE4" s="233"/>
+      <c r="HF4" s="234"/>
+      <c r="HG4" s="232">
         <f>HG5</f>
         <v>46251</v>
       </c>
-      <c r="HH4" s="231"/>
-      <c r="HI4" s="231"/>
-      <c r="HJ4" s="231"/>
-      <c r="HK4" s="231"/>
-      <c r="HL4" s="231"/>
-      <c r="HM4" s="232"/>
-      <c r="HN4" s="230">
+      <c r="HH4" s="233"/>
+      <c r="HI4" s="233"/>
+      <c r="HJ4" s="233"/>
+      <c r="HK4" s="233"/>
+      <c r="HL4" s="233"/>
+      <c r="HM4" s="234"/>
+      <c r="HN4" s="232">
         <f>HN5</f>
         <v>46258</v>
       </c>
-      <c r="HO4" s="231"/>
-      <c r="HP4" s="231"/>
-      <c r="HQ4" s="231"/>
-      <c r="HR4" s="231"/>
-      <c r="HS4" s="231"/>
-      <c r="HT4" s="232"/>
-      <c r="HU4" s="230">
+      <c r="HO4" s="233"/>
+      <c r="HP4" s="233"/>
+      <c r="HQ4" s="233"/>
+      <c r="HR4" s="233"/>
+      <c r="HS4" s="233"/>
+      <c r="HT4" s="234"/>
+      <c r="HU4" s="232">
         <f>HU5</f>
         <v>46265</v>
       </c>
-      <c r="HV4" s="231"/>
-      <c r="HW4" s="231"/>
-      <c r="HX4" s="231"/>
-      <c r="HY4" s="231"/>
-      <c r="HZ4" s="231"/>
-      <c r="IA4" s="232"/>
-      <c r="IB4" s="230">
+      <c r="HV4" s="233"/>
+      <c r="HW4" s="233"/>
+      <c r="HX4" s="233"/>
+      <c r="HY4" s="233"/>
+      <c r="HZ4" s="233"/>
+      <c r="IA4" s="234"/>
+      <c r="IB4" s="232">
         <f>IB5</f>
         <v>46272</v>
       </c>
-      <c r="IC4" s="231"/>
-      <c r="ID4" s="231"/>
-      <c r="IE4" s="231"/>
-      <c r="IF4" s="231"/>
-      <c r="IG4" s="231"/>
-      <c r="IH4" s="232"/>
-      <c r="II4" s="230">
+      <c r="IC4" s="233"/>
+      <c r="ID4" s="233"/>
+      <c r="IE4" s="233"/>
+      <c r="IF4" s="233"/>
+      <c r="IG4" s="233"/>
+      <c r="IH4" s="234"/>
+      <c r="II4" s="232">
         <f>II5</f>
         <v>46279</v>
       </c>
-      <c r="IJ4" s="231"/>
-      <c r="IK4" s="231"/>
-      <c r="IL4" s="231"/>
-      <c r="IM4" s="231"/>
-      <c r="IN4" s="231"/>
-      <c r="IO4" s="232"/>
-      <c r="IP4" s="230">
+      <c r="IJ4" s="233"/>
+      <c r="IK4" s="233"/>
+      <c r="IL4" s="233"/>
+      <c r="IM4" s="233"/>
+      <c r="IN4" s="233"/>
+      <c r="IO4" s="234"/>
+      <c r="IP4" s="232">
         <f>IP5</f>
         <v>46286</v>
       </c>
-      <c r="IQ4" s="231"/>
-      <c r="IR4" s="231"/>
-      <c r="IS4" s="231"/>
-      <c r="IT4" s="231"/>
-      <c r="IU4" s="231"/>
-      <c r="IV4" s="232"/>
-      <c r="IW4" s="230">
+      <c r="IQ4" s="233"/>
+      <c r="IR4" s="233"/>
+      <c r="IS4" s="233"/>
+      <c r="IT4" s="233"/>
+      <c r="IU4" s="233"/>
+      <c r="IV4" s="234"/>
+      <c r="IW4" s="232">
         <f>IW5</f>
         <v>46293</v>
       </c>
-      <c r="IX4" s="231"/>
-      <c r="IY4" s="231"/>
-      <c r="IZ4" s="231"/>
-      <c r="JA4" s="231"/>
-      <c r="JB4" s="231"/>
-      <c r="JC4" s="232"/>
-      <c r="JD4" s="230">
+      <c r="IX4" s="233"/>
+      <c r="IY4" s="233"/>
+      <c r="IZ4" s="233"/>
+      <c r="JA4" s="233"/>
+      <c r="JB4" s="233"/>
+      <c r="JC4" s="234"/>
+      <c r="JD4" s="232">
         <f>JD5</f>
         <v>46300</v>
       </c>
-      <c r="JE4" s="231"/>
-      <c r="JF4" s="231"/>
-      <c r="JG4" s="231"/>
-      <c r="JH4" s="231"/>
-      <c r="JI4" s="231"/>
-      <c r="JJ4" s="232"/>
-      <c r="JK4" s="230">
+      <c r="JE4" s="233"/>
+      <c r="JF4" s="233"/>
+      <c r="JG4" s="233"/>
+      <c r="JH4" s="233"/>
+      <c r="JI4" s="233"/>
+      <c r="JJ4" s="234"/>
+      <c r="JK4" s="232">
         <f>JK5</f>
         <v>46307</v>
       </c>
-      <c r="JL4" s="231"/>
-      <c r="JM4" s="231"/>
-      <c r="JN4" s="231"/>
-      <c r="JO4" s="231"/>
-      <c r="JP4" s="231"/>
-      <c r="JQ4" s="232"/>
-      <c r="JR4" s="230">
+      <c r="JL4" s="233"/>
+      <c r="JM4" s="233"/>
+      <c r="JN4" s="233"/>
+      <c r="JO4" s="233"/>
+      <c r="JP4" s="233"/>
+      <c r="JQ4" s="234"/>
+      <c r="JR4" s="232">
         <f>JR5</f>
         <v>46314</v>
       </c>
-      <c r="JS4" s="231"/>
-      <c r="JT4" s="231"/>
-      <c r="JU4" s="231"/>
-      <c r="JV4" s="231"/>
-      <c r="JW4" s="231"/>
-      <c r="JX4" s="232"/>
-      <c r="JY4" s="230">
+      <c r="JS4" s="233"/>
+      <c r="JT4" s="233"/>
+      <c r="JU4" s="233"/>
+      <c r="JV4" s="233"/>
+      <c r="JW4" s="233"/>
+      <c r="JX4" s="234"/>
+      <c r="JY4" s="232">
         <f>JY5</f>
         <v>46321</v>
       </c>
-      <c r="JZ4" s="231"/>
-      <c r="KA4" s="231"/>
-      <c r="KB4" s="231"/>
-      <c r="KC4" s="231"/>
-      <c r="KD4" s="231"/>
-      <c r="KE4" s="232"/>
-      <c r="KF4" s="230">
+      <c r="JZ4" s="233"/>
+      <c r="KA4" s="233"/>
+      <c r="KB4" s="233"/>
+      <c r="KC4" s="233"/>
+      <c r="KD4" s="233"/>
+      <c r="KE4" s="234"/>
+      <c r="KF4" s="232">
         <f>KF5</f>
         <v>46328</v>
       </c>
-      <c r="KG4" s="231"/>
-      <c r="KH4" s="231"/>
-      <c r="KI4" s="231"/>
-      <c r="KJ4" s="231"/>
-      <c r="KK4" s="231"/>
-      <c r="KL4" s="232"/>
-      <c r="KM4" s="230">
+      <c r="KG4" s="233"/>
+      <c r="KH4" s="233"/>
+      <c r="KI4" s="233"/>
+      <c r="KJ4" s="233"/>
+      <c r="KK4" s="233"/>
+      <c r="KL4" s="234"/>
+      <c r="KM4" s="232">
         <f>KM5</f>
         <v>46335</v>
       </c>
-      <c r="KN4" s="231"/>
-      <c r="KO4" s="231"/>
-      <c r="KP4" s="231"/>
-      <c r="KQ4" s="231"/>
-      <c r="KR4" s="231"/>
-      <c r="KS4" s="232"/>
-      <c r="KT4" s="230">
+      <c r="KN4" s="233"/>
+      <c r="KO4" s="233"/>
+      <c r="KP4" s="233"/>
+      <c r="KQ4" s="233"/>
+      <c r="KR4" s="233"/>
+      <c r="KS4" s="234"/>
+      <c r="KT4" s="232">
         <f>KT5</f>
         <v>46342</v>
       </c>
-      <c r="KU4" s="231"/>
-      <c r="KV4" s="231"/>
-      <c r="KW4" s="231"/>
-      <c r="KX4" s="231"/>
-      <c r="KY4" s="231"/>
-      <c r="KZ4" s="232"/>
-      <c r="LA4" s="230">
+      <c r="KU4" s="233"/>
+      <c r="KV4" s="233"/>
+      <c r="KW4" s="233"/>
+      <c r="KX4" s="233"/>
+      <c r="KY4" s="233"/>
+      <c r="KZ4" s="234"/>
+      <c r="LA4" s="232">
         <f>LA5</f>
         <v>46349</v>
       </c>
-      <c r="LB4" s="231"/>
-      <c r="LC4" s="231"/>
-      <c r="LD4" s="231"/>
-      <c r="LE4" s="231"/>
-      <c r="LF4" s="231"/>
-      <c r="LG4" s="232"/>
-      <c r="LH4" s="230">
+      <c r="LB4" s="233"/>
+      <c r="LC4" s="233"/>
+      <c r="LD4" s="233"/>
+      <c r="LE4" s="233"/>
+      <c r="LF4" s="233"/>
+      <c r="LG4" s="234"/>
+      <c r="LH4" s="232">
         <f>LH5</f>
         <v>46356</v>
       </c>
-      <c r="LI4" s="231"/>
-      <c r="LJ4" s="231"/>
-      <c r="LK4" s="231"/>
-      <c r="LL4" s="231"/>
-      <c r="LM4" s="231"/>
-      <c r="LN4" s="232"/>
-      <c r="LO4" s="230">
+      <c r="LI4" s="233"/>
+      <c r="LJ4" s="233"/>
+      <c r="LK4" s="233"/>
+      <c r="LL4" s="233"/>
+      <c r="LM4" s="233"/>
+      <c r="LN4" s="234"/>
+      <c r="LO4" s="232">
         <f>LO5</f>
         <v>46363</v>
       </c>
-      <c r="LP4" s="231"/>
-      <c r="LQ4" s="231"/>
-      <c r="LR4" s="231"/>
-      <c r="LS4" s="231"/>
-      <c r="LT4" s="231"/>
-      <c r="LU4" s="232"/>
-      <c r="LV4" s="230">
+      <c r="LP4" s="233"/>
+      <c r="LQ4" s="233"/>
+      <c r="LR4" s="233"/>
+      <c r="LS4" s="233"/>
+      <c r="LT4" s="233"/>
+      <c r="LU4" s="234"/>
+      <c r="LV4" s="232">
         <f>LV5</f>
         <v>46370</v>
       </c>
-      <c r="LW4" s="231"/>
-      <c r="LX4" s="231"/>
-      <c r="LY4" s="231"/>
-      <c r="LZ4" s="231"/>
-      <c r="MA4" s="231"/>
-      <c r="MB4" s="232"/>
-      <c r="MC4" s="230">
+      <c r="LW4" s="233"/>
+      <c r="LX4" s="233"/>
+      <c r="LY4" s="233"/>
+      <c r="LZ4" s="233"/>
+      <c r="MA4" s="233"/>
+      <c r="MB4" s="234"/>
+      <c r="MC4" s="232">
         <f>MC5</f>
         <v>46377</v>
       </c>
-      <c r="MD4" s="231"/>
-      <c r="ME4" s="231"/>
-      <c r="MF4" s="231"/>
-      <c r="MG4" s="231"/>
-      <c r="MH4" s="231"/>
-      <c r="MI4" s="232"/>
-      <c r="MJ4" s="230">
+      <c r="MD4" s="233"/>
+      <c r="ME4" s="233"/>
+      <c r="MF4" s="233"/>
+      <c r="MG4" s="233"/>
+      <c r="MH4" s="233"/>
+      <c r="MI4" s="234"/>
+      <c r="MJ4" s="232">
         <f>MJ5</f>
         <v>46384</v>
       </c>
-      <c r="MK4" s="231"/>
-      <c r="ML4" s="231"/>
-      <c r="MM4" s="231"/>
-      <c r="MN4" s="231"/>
-      <c r="MO4" s="231"/>
-      <c r="MP4" s="232"/>
-      <c r="MQ4" s="230">
+      <c r="MK4" s="233"/>
+      <c r="ML4" s="233"/>
+      <c r="MM4" s="233"/>
+      <c r="MN4" s="233"/>
+      <c r="MO4" s="233"/>
+      <c r="MP4" s="234"/>
+      <c r="MQ4" s="232">
         <f>MQ5</f>
         <v>46391</v>
       </c>
-      <c r="MR4" s="231"/>
-      <c r="MS4" s="231"/>
-      <c r="MT4" s="231"/>
-      <c r="MU4" s="231"/>
-      <c r="MV4" s="231"/>
-      <c r="MW4" s="232"/>
+      <c r="MR4" s="233"/>
+      <c r="MS4" s="233"/>
+      <c r="MT4" s="233"/>
+      <c r="MU4" s="233"/>
+      <c r="MV4" s="233"/>
+      <c r="MW4" s="234"/>
     </row>
     <row r="5" spans="1:361" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
@@ -48516,12 +46988,8 @@
       <c r="E96" s="214">
         <v>0</v>
       </c>
-      <c r="F96" s="215">
-        <v>46049</v>
-      </c>
-      <c r="G96" s="215">
-        <v>46059</v>
-      </c>
+      <c r="F96" s="215"/>
+      <c r="G96" s="215"/>
       <c r="H96" s="216" t="s">
         <v>283</v>
       </c>
@@ -49255,7 +47723,7 @@
       <c r="F98" s="206"/>
       <c r="G98" s="207"/>
       <c r="H98" s="208"/>
-      <c r="I98" s="240" t="s">
+      <c r="I98" s="228" t="s">
         <v>297</v>
       </c>
       <c r="J98" s="11"/>
@@ -53702,7 +52170,7 @@
       <c r="G110" s="226" t="s">
         <v>217</v>
       </c>
-      <c r="H110" s="239" t="s">
+      <c r="H110" s="227" t="s">
         <v>291</v>
       </c>
       <c r="I110" s="216"/>
@@ -55904,6 +54372,50 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="MC4:MI4"/>
+    <mergeCell ref="MJ4:MP4"/>
+    <mergeCell ref="MQ4:MW4"/>
+    <mergeCell ref="KT4:KZ4"/>
+    <mergeCell ref="LA4:LG4"/>
+    <mergeCell ref="LH4:LN4"/>
+    <mergeCell ref="LO4:LU4"/>
+    <mergeCell ref="LV4:MB4"/>
+    <mergeCell ref="JK4:JQ4"/>
+    <mergeCell ref="JR4:JX4"/>
+    <mergeCell ref="JY4:KE4"/>
+    <mergeCell ref="KF4:KL4"/>
+    <mergeCell ref="KM4:KS4"/>
+    <mergeCell ref="IB4:IH4"/>
+    <mergeCell ref="II4:IO4"/>
+    <mergeCell ref="IP4:IV4"/>
+    <mergeCell ref="IW4:JC4"/>
+    <mergeCell ref="JD4:JJ4"/>
+    <mergeCell ref="GS4:GY4"/>
+    <mergeCell ref="GZ4:HF4"/>
+    <mergeCell ref="HG4:HM4"/>
+    <mergeCell ref="HN4:HT4"/>
+    <mergeCell ref="HU4:IA4"/>
+    <mergeCell ref="FJ4:FP4"/>
+    <mergeCell ref="FQ4:FW4"/>
+    <mergeCell ref="FX4:GD4"/>
+    <mergeCell ref="GE4:GK4"/>
+    <mergeCell ref="GL4:GR4"/>
+    <mergeCell ref="EA4:EG4"/>
+    <mergeCell ref="EH4:EN4"/>
+    <mergeCell ref="EO4:EU4"/>
+    <mergeCell ref="EV4:FB4"/>
+    <mergeCell ref="FC4:FI4"/>
+    <mergeCell ref="DT4:DZ4"/>
+    <mergeCell ref="CK4:CQ4"/>
+    <mergeCell ref="CR4:CX4"/>
+    <mergeCell ref="CY4:DE4"/>
+    <mergeCell ref="DF4:DL4"/>
+    <mergeCell ref="DM4:DS4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="CD4:CJ4"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="L4:R4"/>
@@ -55916,50 +54428,6 @@
     <mergeCell ref="BI4:BO4"/>
     <mergeCell ref="BP4:BV4"/>
     <mergeCell ref="BW4:CC4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="DT4:DZ4"/>
-    <mergeCell ref="CK4:CQ4"/>
-    <mergeCell ref="CR4:CX4"/>
-    <mergeCell ref="CY4:DE4"/>
-    <mergeCell ref="DF4:DL4"/>
-    <mergeCell ref="DM4:DS4"/>
-    <mergeCell ref="EA4:EG4"/>
-    <mergeCell ref="EH4:EN4"/>
-    <mergeCell ref="EO4:EU4"/>
-    <mergeCell ref="EV4:FB4"/>
-    <mergeCell ref="FC4:FI4"/>
-    <mergeCell ref="FJ4:FP4"/>
-    <mergeCell ref="FQ4:FW4"/>
-    <mergeCell ref="FX4:GD4"/>
-    <mergeCell ref="GE4:GK4"/>
-    <mergeCell ref="GL4:GR4"/>
-    <mergeCell ref="GS4:GY4"/>
-    <mergeCell ref="GZ4:HF4"/>
-    <mergeCell ref="HG4:HM4"/>
-    <mergeCell ref="HN4:HT4"/>
-    <mergeCell ref="HU4:IA4"/>
-    <mergeCell ref="IB4:IH4"/>
-    <mergeCell ref="II4:IO4"/>
-    <mergeCell ref="IP4:IV4"/>
-    <mergeCell ref="IW4:JC4"/>
-    <mergeCell ref="JD4:JJ4"/>
-    <mergeCell ref="JK4:JQ4"/>
-    <mergeCell ref="JR4:JX4"/>
-    <mergeCell ref="JY4:KE4"/>
-    <mergeCell ref="KF4:KL4"/>
-    <mergeCell ref="KM4:KS4"/>
-    <mergeCell ref="MC4:MI4"/>
-    <mergeCell ref="MJ4:MP4"/>
-    <mergeCell ref="MQ4:MW4"/>
-    <mergeCell ref="KT4:KZ4"/>
-    <mergeCell ref="LA4:LG4"/>
-    <mergeCell ref="LH4:LN4"/>
-    <mergeCell ref="LO4:LU4"/>
-    <mergeCell ref="LV4:MB4"/>
   </mergeCells>
   <conditionalFormatting sqref="E114:E115 E24:E28 E31:E33 E7:E22 E38 E36 E41:E43 E61:E86 E47:E58">
     <cfRule type="dataBar" priority="982">
@@ -55976,218 +54444,218 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA7:CI17 BI5:BV5 CB5:CI6 BU114:BV115 L114:BG115 BI24:BN28 BU24:BV28 L24:BG28 L31:BG33 BU31:BV33 BI31:BN33 L5:BG22 BU6:BV22 BI6:BN22 CA18:DY33 EA18:EF33 EH18:EM33 EO18:ET33 EV18:FA33 FC18:FH33 FJ18:FO33 FQ18:FV33 FX18:GC33 GE18:GJ33 GL18:GQ33 GS18:GX33 GZ18:HE33 HG18:HL33 HN18:HS33 HU18:HZ33 IB18:IG33 II18:IN33 IP18:IU33 IW18:JB33 JD18:JI33 JK18:JP33 JR18:JW33 JY18:KD33 KF18:KK33 KM18:KR33 KT18:KY33 LA18:LF33 LH18:LM33 LO18:LT33 LV18:MA33 MC18:MH33 MJ18:MO33 MQ18:MV33 MQ38:MV38 MQ36:MV36 MJ38:MO38 MJ36:MO36 MC38:MH38 MC36:MH36 LV38:MA38 LV36:MA36 LO38:LT38 LO36:LT36 LH38:LM38 LH36:LM36 LA38:LF38 LA36:LF36 KT38:KY38 KT36:KY36 KM38:KR38 KM36:KR36 KF38:KK38 KF36:KK36 JY38:KD38 JY36:KD36 JR38:JW38 JR36:JW36 JK38:JP38 JK36:JP36 JD38:JI38 JD36:JI36 IW38:JB38 IW36:JB36 IP38:IU38 IP36:IU36 II38:IN38 II36:IN36 IB38:IG38 IB36:IG36 HU38:HZ38 HU36:HZ36 HN38:HS38 HN36:HS36 HG38:HL38 HG36:HL36 GZ38:HE38 GZ36:HE36 GS38:GX38 GS36:GX36 GL38:GQ38 GL36:GQ36 GE38:GJ38 GE36:GJ36 FX38:GC38 FX36:GC36 FQ38:FV38 FQ36:FV36 FJ38:FO38 FJ36:FO36 FC38:FH38 FC36:FH36 EV38:FA38 EV36:FA36 EO38:ET38 EO36:ET36 EH38:EM38 EH36:EM36 EA38:EF38 EA36:EF36 CA38:DY38 CA36:DY36 BI38:BN38 BI36:BN36 BU38:BV38 BU36:BV36 L38:BG38 L36:BG36 L41:BG43 BU41:BV43 BI41:BN43 CA41:DY43 EA41:EF43 EH41:EM43 EO41:ET43 EV41:FA43 FC41:FH43 FJ41:FO43 FQ41:FV43 FX41:GC43 GE41:GJ43 GL41:GQ43 GS41:GX43 GZ41:HE43 HG41:HL43 HN41:HS43 HU41:HZ43 IB41:IG43 II41:IN43 IP41:IU43 IW41:JB43 JD41:JI43 JK41:JP43 JR41:JW43 JY41:KD43 KF41:KK43 KM41:KR43 KT41:KY43 LA41:LF43 LH41:LM43 LO41:LT43 LV41:MA43 MC41:MH43 MJ41:MO43 MQ41:MV43 MQ61:MV88 MJ61:MO88 MC61:MH88 LV61:MA88 LO61:LT88 LH61:LM88 LA61:LF88 KT61:KY88 KM61:KR88 KF61:KK88 JY61:KD88 JR61:JW88 JK61:JP88 JD61:JI88 IW61:JB88 IP61:IU88 II61:IN88 IB61:IG88 HU61:HZ88 HN61:HS88 HG61:HL88 GZ61:HE88 GS61:GX88 GL61:GQ88 GE61:GJ88 FX61:GC88 FQ61:FV88 FJ61:FO88 FC61:FH88 EV61:FA88 EO61:ET88 EH61:EM88 EA61:EF88 CA61:DY88 BI61:BN86 BU61:BV86 L61:BG86 MQ47:MV58 MJ47:MO58 MC47:MH58 LV47:MA58 LO47:LT58 LH47:LM58 LA47:LF58 KT47:KY58 KM47:KR58 KF47:KK58 JY47:KD58 JR47:JW58 JK47:JP58 JD47:JI58 IW47:JB58 IP47:IU58 II47:IN58 IB47:IG58 HU47:HZ58 HN47:HS58 HG47:HL58 GZ47:HE58 GS47:GX58 GL47:GQ58 GE47:GJ58 FX47:GC58 FQ47:FV58 FJ47:FO58 FC47:FH58 EV47:FA58 EO47:ET58 EH47:EM58 EA47:EF58 CA47:DY58 BI47:BN58 BU47:BV58 L47:BG58 CA110:DY110 EA110:EF110 EH110:EM110 EO110:ET110 EV110:FA110 FC110:FH110 FJ110:FO110 FQ110:FV110 FX110:GC110 GE110:GJ110 GL110:GQ110 GS110:GX110 GZ110:HE110 HG110:HL110 HN110:HS110 HU110:HZ110 IB110:IG110 II110:IN110 IP110:IU110 IW110:JB110 JD110:JI110 JK110:JP110 JR110:JW110 JY110:KD110 KF110:KK110 KM110:KR110 KT110:KY110 LA110:LF110 LH110:LM110 LO110:LT110 LV110:MA110 MC110:MH110 MJ110:MO110 MQ110:MV110 MQ113:MV115 MJ113:MO115 MC113:MH115 LV113:MA115 LO113:LT115 LH113:LM115 LA113:LF115 KT113:KY115 KM113:KR115 KF113:KK115 JY113:KD115 JR113:JW115 JK113:JP115 JD113:JI115 IW113:JB115 IP113:IU115 II113:IN115 IB113:IG115 HU113:HZ115 HN113:HS115 HG113:HL115 GZ113:HE115 GS113:GX115 GL113:GQ115 GE113:GJ115 FX113:GC115 FQ113:FV115 FJ113:FO115 FC113:FH115 EV113:FA115 EO113:ET115 EH113:EM115 EA113:EF115 CA113:DY115">
-    <cfRule type="expression" dxfId="780" priority="968">
+    <cfRule type="expression" dxfId="644" priority="968">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7:CX17 L114:DZ115 L24:MW28 L31:MW33 L18:MW22 L38:MW38 L36:MW36 L41:MW43 L61:MW86 L47:MW58">
-    <cfRule type="expression" dxfId="779" priority="957">
+    <cfRule type="expression" dxfId="643" priority="957">
       <formula>AND(task_start&lt;=L$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH114:BH115 BH24:BH28 BH31:BH33 BH5:BH22 BH38 BH36 BH41:BH43 BH61:BH86 BH47:BH58">
-    <cfRule type="expression" dxfId="778" priority="992">
+    <cfRule type="expression" dxfId="642" priority="992">
       <formula>AND(TODAY()&gt;=BH$5,TODAY()&lt;CD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH114:BH115 BH24:BH28 BH31:BH33 BH7:BH22 BH38 BH36 BH41:BH43 BH61:BH86 BH47:BH58">
-    <cfRule type="expression" dxfId="777" priority="995" stopIfTrue="1">
+    <cfRule type="expression" dxfId="641" priority="995" stopIfTrue="1">
       <formula>AND(task_end&gt;=BH$5,task_start&lt;CD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI114:BN115">
-    <cfRule type="expression" dxfId="776" priority="959">
+    <cfRule type="expression" dxfId="640" priority="959">
       <formula>AND(TODAY()&gt;=BI$5,TODAY()&lt;BJ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI114:BN115 BU24:BV28 L24:BG28 BI24:BN28 BI31:BN33 L31:BG33 BU31:BV33 BI7:BN22 L7:BG22 BU7:BV22 CA18:DY33 EA18:EF33 EH18:EM33 EO18:ET33 EV18:FA33 FC18:FH33 FJ18:FO33 FQ18:FV33 FX18:GC33 GE18:GJ33 GL18:GQ33 GS18:GX33 GZ18:HE33 HG18:HL33 HN18:HS33 HU18:HZ33 IB18:IG33 II18:IN33 IP18:IU33 IW18:JB33 JD18:JI33 JK18:JP33 JR18:JW33 JY18:KD33 KF18:KK33 KM18:KR33 KT18:KY33 LA18:LF33 LH18:LM33 LO18:LT33 LV18:MA33 MC18:MH33 MJ18:MO33 MQ18:MV33 MQ38:MV38 MQ36:MV36 MJ38:MO38 MJ36:MO36 MC38:MH38 MC36:MH36 LV38:MA38 LV36:MA36 LO38:LT38 LO36:LT36 LH38:LM38 LH36:LM36 LA38:LF38 LA36:LF36 KT38:KY38 KT36:KY36 KM38:KR38 KM36:KR36 KF38:KK38 KF36:KK36 JY38:KD38 JY36:KD36 JR38:JW38 JR36:JW36 JK38:JP38 JK36:JP36 JD38:JI38 JD36:JI36 IW38:JB38 IW36:JB36 IP38:IU38 IP36:IU36 II38:IN38 II36:IN36 IB38:IG38 IB36:IG36 HU38:HZ38 HU36:HZ36 HN38:HS38 HN36:HS36 HG38:HL38 HG36:HL36 GZ38:HE38 GZ36:HE36 GS38:GX38 GS36:GX36 GL38:GQ38 GL36:GQ36 GE38:GJ38 GE36:GJ36 FX38:GC38 FX36:GC36 FQ38:FV38 FQ36:FV36 FJ38:FO38 FJ36:FO36 FC38:FH38 FC36:FH36 EV38:FA38 EV36:FA36 EO38:ET38 EO36:ET36 EH38:EM38 EH36:EM36 EA38:EF38 EA36:EF36 CA38:DY38 CA36:DY36 BU38:BV38 BU36:BV36 L38:BG38 L36:BG36 BI38:BN38 BI36:BN36 BI41:BN43 L41:BG43 BU41:BV43 CA41:DY43 EA41:EF43 EH41:EM43 EO41:ET43 EV41:FA43 FC41:FH43 FJ41:FO43 FQ41:FV43 FX41:GC43 GE41:GJ43 GL41:GQ43 GS41:GX43 GZ41:HE43 HG41:HL43 HN41:HS43 HU41:HZ43 IB41:IG43 II41:IN43 IP41:IU43 IW41:JB43 JD41:JI43 JK41:JP43 JR41:JW43 JY41:KD43 KF41:KK43 KM41:KR43 KT41:KY43 LA41:LF43 LH41:LM43 LO41:LT43 LV41:MA43 MC41:MH43 MJ41:MO43 MQ41:MV43 MQ61:MV88 MJ61:MO88 MC61:MH88 LV61:MA88 LO61:LT88 LH61:LM88 LA61:LF88 KT61:KY88 KM61:KR88 KF61:KK88 JY61:KD88 JR61:JW88 JK61:JP88 JD61:JI88 IW61:JB88 IP61:IU88 II61:IN88 IB61:IG88 HU61:HZ88 HN61:HS88 HG61:HL88 GZ61:HE88 GS61:GX88 GL61:GQ88 GE61:GJ88 FX61:GC88 FQ61:FV88 FJ61:FO88 FC61:FH88 EV61:FA88 EO61:ET88 EH61:EM88 EA61:EF88 CA61:DY88 BU61:BV86 L61:BG86 BI61:BN86 MQ47:MV58 MJ47:MO58 MC47:MH58 LV47:MA58 LO47:LT58 LH47:LM58 LA47:LF58 KT47:KY58 KM47:KR58 KF47:KK58 JY47:KD58 JR47:JW58 JK47:JP58 JD47:JI58 IW47:JB58 IP47:IU58 II47:IN58 IB47:IG58 HU47:HZ58 HN47:HS58 HG47:HL58 GZ47:HE58 GS47:GX58 GL47:GQ58 GE47:GJ58 FX47:GC58 FQ47:FV58 FJ47:FO58 FC47:FH58 EV47:FA58 EO47:ET58 EH47:EM58 EA47:EF58 CA47:DY58 BU47:BV58 L47:BG58 BI47:BN58 CA110:DY110 EA110:EF110 EH110:EM110 EO110:ET110 EV110:FA110 FC110:FH110 FJ110:FO110 FQ110:FV110 FX110:GC110 GE110:GJ110 GL110:GQ110 GS110:GX110 GZ110:HE110 HG110:HL110 HN110:HS110 HU110:HZ110 IB110:IG110 II110:IN110 IP110:IU110 IW110:JB110 JD110:JI110 JK110:JP110 JR110:JW110 JY110:KD110 KF110:KK110 KM110:KR110 KT110:KY110 LA110:LF110 LH110:LM110 LO110:LT110 LV110:MA110 MC110:MH110 MJ110:MO110 MQ110:MV110 MQ113:MV115 MJ113:MO115 MC113:MH115 LV113:MA115 LO113:LT115 LH113:LM115 LA113:LF115 KT113:KY115 KM113:KR115 KF113:KK115 JY113:KD115 JR113:JW115 JK113:JP115 JD113:JI115 IW113:JB115 IP113:IU115 II113:IN115 IB113:IG115 HU113:HZ115 HN113:HS115 HG113:HL115 GZ113:HE115 GS113:GX115 GL113:GQ115 GE113:GJ115 FX113:GC115 FQ113:FV115 FJ113:FO115 FC113:FH115 EV113:FA115 EO113:ET115 EH113:EM115 EA113:EF115 CA113:DY115">
-    <cfRule type="expression" dxfId="775" priority="958" stopIfTrue="1">
+    <cfRule type="expression" dxfId="639" priority="958" stopIfTrue="1">
       <formula>AND(task_end&gt;=L$5,task_start&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO114:BO115 BO24:BO28 BO31:BO33 BO6:BO22 BO38 BO36 BO41:BO43 BO61:BO86 BO47:BO58">
-    <cfRule type="expression" dxfId="774" priority="960">
+    <cfRule type="expression" dxfId="638" priority="960">
       <formula>AND(TODAY()&gt;=BO$5,TODAY()&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO114:BO115 BO24:BO28 BO31:BO33 BO7:BO22 BO38 BO36 BO41:BO43 BO61:BO86 BO47:BO58">
-    <cfRule type="expression" dxfId="773" priority="962" stopIfTrue="1">
+    <cfRule type="expression" dxfId="637" priority="962" stopIfTrue="1">
       <formula>AND(task_end&gt;=BO$5,task_start&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP114:BT115 BP24:BT28 BP31:BT33 BP6:BT22 BP38:BT38 BP36:BT36 BP41:BT43 BP61:BT86 BP47:BT58">
-    <cfRule type="expression" dxfId="772" priority="1015">
+    <cfRule type="expression" dxfId="636" priority="1015">
       <formula>AND(TODAY()&gt;=BP$5,TODAY()&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP114:BT115 BP24:BT28 BP31:BT33 BP7:BT22 BP38:BT38 BP36:BT36 BP41:BT43 BP61:BT86 BP47:BT58">
-    <cfRule type="expression" dxfId="771" priority="1017" stopIfTrue="1">
+    <cfRule type="expression" dxfId="635" priority="1017" stopIfTrue="1">
       <formula>AND(task_end&gt;=BP$5,task_start&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW114:BX115 BW24:BX28 BW31:BX33 BW7:BX22 BW38:BX38 BW36:BX36 BW41:BX43 BW61:BX86 BW47:BX58">
-    <cfRule type="expression" dxfId="770" priority="1021" stopIfTrue="1">
+    <cfRule type="expression" dxfId="634" priority="1021" stopIfTrue="1">
       <formula>AND(task_end&gt;=BW$5,task_start&lt;CA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW5:CA5 BW114:BX115 BW24:BX28 BW31:BX33 BW7:BX22 BW38:BX38 BW36:BX36 BW41:BX43 BW61:BX86 BW47:BX58">
-    <cfRule type="expression" dxfId="769" priority="1018">
+    <cfRule type="expression" dxfId="633" priority="1018">
       <formula>AND(TODAY()&gt;=BW$5,TODAY()&lt;CA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW6:CA6">
-    <cfRule type="expression" dxfId="768" priority="1031">
+    <cfRule type="expression" dxfId="632" priority="1031">
       <formula>AND(TODAY()&gt;=BW$5,TODAY()&lt;DA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY114:BY115 BY24:BY28 BY31:BY33 BY7:BY22 BY38 BY36 BY41:BY43 BY61:BY86 BY47:BY58">
-    <cfRule type="expression" dxfId="767" priority="1011">
+    <cfRule type="expression" dxfId="631" priority="1011">
       <formula>AND(TODAY()&gt;=BY$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="766" priority="1014" stopIfTrue="1">
+    <cfRule type="expression" dxfId="630" priority="1014" stopIfTrue="1">
       <formula>AND(task_end&gt;=BY$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ114:BZ115 BZ24:BZ28 BZ31:BZ33 BZ7:BZ22 BZ38 BZ36 BZ41:BZ43 BZ61:BZ86 BZ47:BZ58">
-    <cfRule type="expression" dxfId="765" priority="1001">
+    <cfRule type="expression" dxfId="629" priority="1001">
       <formula>AND(TODAY()&gt;=BZ$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="764" priority="1007" stopIfTrue="1">
+    <cfRule type="expression" dxfId="628" priority="1007" stopIfTrue="1">
       <formula>AND(task_end&gt;=BZ$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA7:CI17 BU114:BV115 L114:BG115">
-    <cfRule type="expression" dxfId="763" priority="967" stopIfTrue="1">
+    <cfRule type="expression" dxfId="627" priority="967" stopIfTrue="1">
       <formula>AND(task_end&gt;=L$5,task_start&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ5:CJ17 CQ5:CQ17 CX5:CX17">
-    <cfRule type="expression" dxfId="762" priority="1023">
+    <cfRule type="expression" dxfId="626" priority="1023">
       <formula>AND(TODAY()&gt;=CJ$5,TODAY()&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ7:CJ17 CQ7:CQ17 CX7:CX17">
-    <cfRule type="expression" dxfId="761" priority="1027" stopIfTrue="1">
+    <cfRule type="expression" dxfId="625" priority="1027" stopIfTrue="1">
       <formula>AND(task_end&gt;=CJ$5,task_start&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CK5:CP17">
-    <cfRule type="expression" dxfId="760" priority="955">
+    <cfRule type="expression" dxfId="624" priority="955">
       <formula>AND(TODAY()&gt;=CK$5,TODAY()&lt;CL$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CK7:CP17">
-    <cfRule type="expression" dxfId="759" priority="954" stopIfTrue="1">
+    <cfRule type="expression" dxfId="623" priority="954" stopIfTrue="1">
       <formula>AND(task_end&gt;=CK$5,task_start&lt;CL$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CR5:CW17">
-    <cfRule type="expression" dxfId="758" priority="953">
+    <cfRule type="expression" dxfId="622" priority="953">
       <formula>AND(TODAY()&gt;=CR$5,TODAY()&lt;CS$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CR7:CW17">
-    <cfRule type="expression" dxfId="757" priority="952" stopIfTrue="1">
+    <cfRule type="expression" dxfId="621" priority="952" stopIfTrue="1">
       <formula>AND(task_end&gt;=CR$5,task_start&lt;CS$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CY5:DD17">
-    <cfRule type="expression" dxfId="756" priority="948">
+    <cfRule type="expression" dxfId="620" priority="948">
       <formula>AND(TODAY()&gt;=CY$5,TODAY()&lt;CZ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CY7:DD17">
-    <cfRule type="expression" dxfId="755" priority="947" stopIfTrue="1">
+    <cfRule type="expression" dxfId="619" priority="947" stopIfTrue="1">
       <formula>AND(task_end&gt;=CY$5,task_start&lt;CZ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CY7:DE17">
-    <cfRule type="expression" dxfId="754" priority="949">
+    <cfRule type="expression" dxfId="618" priority="949">
       <formula>AND(task_start&lt;=CY$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DE5:DE17">
-    <cfRule type="expression" dxfId="753" priority="950">
+    <cfRule type="expression" dxfId="617" priority="950">
       <formula>AND(TODAY()&gt;=DE$5,TODAY()&lt;DT$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DE7:DE17">
-    <cfRule type="expression" dxfId="752" priority="951" stopIfTrue="1">
+    <cfRule type="expression" dxfId="616" priority="951" stopIfTrue="1">
       <formula>AND(task_end&gt;=DE$5,task_start&lt;DT$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DF5:DK17">
-    <cfRule type="expression" dxfId="751" priority="943">
+    <cfRule type="expression" dxfId="615" priority="943">
       <formula>AND(TODAY()&gt;=DF$5,TODAY()&lt;DG$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DF7:DK17">
-    <cfRule type="expression" dxfId="750" priority="942" stopIfTrue="1">
+    <cfRule type="expression" dxfId="614" priority="942" stopIfTrue="1">
       <formula>AND(task_end&gt;=DF$5,task_start&lt;DG$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DF7:DL17">
-    <cfRule type="expression" dxfId="749" priority="944">
+    <cfRule type="expression" dxfId="613" priority="944">
       <formula>AND(task_start&lt;=DF$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=DF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DL5:DL17">
-    <cfRule type="expression" dxfId="748" priority="945">
+    <cfRule type="expression" dxfId="612" priority="945">
       <formula>AND(TODAY()&gt;=DL$5,TODAY()&lt;MX$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DL7:DL17">
-    <cfRule type="expression" dxfId="747" priority="946" stopIfTrue="1">
+    <cfRule type="expression" dxfId="611" priority="946" stopIfTrue="1">
       <formula>AND(task_end&gt;=DL$5,task_start&lt;MX$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM5:DR17">
-    <cfRule type="expression" dxfId="746" priority="938">
+    <cfRule type="expression" dxfId="610" priority="938">
       <formula>AND(TODAY()&gt;=DM$5,TODAY()&lt;DN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM7:DR17">
-    <cfRule type="expression" dxfId="745" priority="937" stopIfTrue="1">
+    <cfRule type="expression" dxfId="609" priority="937" stopIfTrue="1">
       <formula>AND(task_end&gt;=DM$5,task_start&lt;DN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM7:DS17">
-    <cfRule type="expression" dxfId="744" priority="939">
+    <cfRule type="expression" dxfId="608" priority="939">
       <formula>AND(task_start&lt;=DM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=DM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DS5:DS17">
-    <cfRule type="expression" dxfId="743" priority="940">
+    <cfRule type="expression" dxfId="607" priority="940">
       <formula>AND(TODAY()&gt;=DS$5,TODAY()&lt;NE$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DS7:DS17">
-    <cfRule type="expression" dxfId="742" priority="941" stopIfTrue="1">
+    <cfRule type="expression" dxfId="606" priority="941" stopIfTrue="1">
       <formula>AND(task_end&gt;=DS$5,task_start&lt;NE$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DT5:DY17">
-    <cfRule type="expression" dxfId="741" priority="933">
+    <cfRule type="expression" dxfId="605" priority="933">
       <formula>AND(TODAY()&gt;=DT$5,TODAY()&lt;DU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DT7:DY17">
-    <cfRule type="expression" dxfId="740" priority="932" stopIfTrue="1">
+    <cfRule type="expression" dxfId="604" priority="932" stopIfTrue="1">
       <formula>AND(task_end&gt;=DT$5,task_start&lt;DU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DT7:DZ17">
-    <cfRule type="expression" dxfId="739" priority="934">
+    <cfRule type="expression" dxfId="603" priority="934">
       <formula>AND(task_start&lt;=DT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=DT$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DZ5:DZ17">
-    <cfRule type="expression" dxfId="738" priority="935">
+    <cfRule type="expression" dxfId="602" priority="935">
       <formula>AND(TODAY()&gt;=DZ$5,TODAY()&lt;NL$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DZ7:DZ17">
-    <cfRule type="expression" dxfId="737" priority="936" stopIfTrue="1">
+    <cfRule type="expression" dxfId="601" priority="936" stopIfTrue="1">
       <formula>AND(task_end&gt;=DZ$5,task_start&lt;NL$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -56206,83 +54674,83 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L87:BG88 BU87:BV88 BU110:BV110 L110:BG110 L113:BG113 BU113:BV113">
-    <cfRule type="expression" dxfId="736" priority="902">
+    <cfRule type="expression" dxfId="600" priority="902">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L87:DZ88 L110:DZ110 L113:DZ113">
-    <cfRule type="expression" dxfId="735" priority="896">
+    <cfRule type="expression" dxfId="599" priority="896">
       <formula>AND(task_start&lt;=L$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH87:BH88 BH110 BH113">
-    <cfRule type="expression" dxfId="734" priority="904">
+    <cfRule type="expression" dxfId="598" priority="904">
       <formula>AND(TODAY()&gt;=BH$5,TODAY()&lt;CD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH87:BH88 BH110 BH113">
-    <cfRule type="expression" dxfId="733" priority="905" stopIfTrue="1">
+    <cfRule type="expression" dxfId="597" priority="905" stopIfTrue="1">
       <formula>AND(task_end&gt;=BH$5,task_start&lt;CD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI87:BN88 BI110:BN110 BI113:BN113">
-    <cfRule type="expression" dxfId="732" priority="898">
+    <cfRule type="expression" dxfId="596" priority="898">
       <formula>AND(TODAY()&gt;=BI$5,TODAY()&lt;BJ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI87:BN88 BI110:BN110 BI113:BN113">
-    <cfRule type="expression" dxfId="731" priority="897" stopIfTrue="1">
+    <cfRule type="expression" dxfId="595" priority="897" stopIfTrue="1">
       <formula>AND(task_end&gt;=BI$5,task_start&lt;BJ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO87:BO88 BO110 BO113">
-    <cfRule type="expression" dxfId="730" priority="899">
+    <cfRule type="expression" dxfId="594" priority="899">
       <formula>AND(TODAY()&gt;=BO$5,TODAY()&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO87:BO88 BO110 BO113">
-    <cfRule type="expression" dxfId="729" priority="900" stopIfTrue="1">
+    <cfRule type="expression" dxfId="593" priority="900" stopIfTrue="1">
       <formula>AND(task_end&gt;=BO$5,task_start&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP87:BT88 BP110:BT110 BP113:BT113">
-    <cfRule type="expression" dxfId="728" priority="910">
+    <cfRule type="expression" dxfId="592" priority="910">
       <formula>AND(TODAY()&gt;=BP$5,TODAY()&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP87:BT88 BP110:BT110 BP113:BT113">
-    <cfRule type="expression" dxfId="727" priority="911" stopIfTrue="1">
+    <cfRule type="expression" dxfId="591" priority="911" stopIfTrue="1">
       <formula>AND(task_end&gt;=BP$5,task_start&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW87:BX88 BW110:BX110 BW113:BX113">
-    <cfRule type="expression" dxfId="726" priority="913" stopIfTrue="1">
+    <cfRule type="expression" dxfId="590" priority="913" stopIfTrue="1">
       <formula>AND(task_end&gt;=BW$5,task_start&lt;CA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW87:BX88 BW110:BX110 BW113:BX113">
-    <cfRule type="expression" dxfId="725" priority="912">
+    <cfRule type="expression" dxfId="589" priority="912">
       <formula>AND(TODAY()&gt;=BW$5,TODAY()&lt;CA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY87:BY88 BY110 BY113">
-    <cfRule type="expression" dxfId="724" priority="908">
+    <cfRule type="expression" dxfId="588" priority="908">
       <formula>AND(TODAY()&gt;=BY$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="723" priority="909" stopIfTrue="1">
+    <cfRule type="expression" dxfId="587" priority="909" stopIfTrue="1">
       <formula>AND(task_end&gt;=BY$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ87:BZ88 BZ110 BZ113">
-    <cfRule type="expression" dxfId="722" priority="906">
+    <cfRule type="expression" dxfId="586" priority="906">
       <formula>AND(TODAY()&gt;=BZ$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="721" priority="907" stopIfTrue="1">
+    <cfRule type="expression" dxfId="585" priority="907" stopIfTrue="1">
       <formula>AND(task_end&gt;=BZ$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L87:BG88 BU87:BV88 BU110:BV110 L110:BG110 L113:BG113 BU113:BV113">
-    <cfRule type="expression" dxfId="720" priority="901" stopIfTrue="1">
+    <cfRule type="expression" dxfId="584" priority="901" stopIfTrue="1">
       <formula>AND(task_end&gt;=L$5,task_start&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -56301,73 +54769,73 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI23:BN23 BU23:BV23 L23:BG23">
-    <cfRule type="expression" dxfId="719" priority="884">
+    <cfRule type="expression" dxfId="583" priority="884">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:DZ23">
-    <cfRule type="expression" dxfId="718" priority="880">
+    <cfRule type="expression" dxfId="582" priority="880">
       <formula>AND(task_start&lt;=L$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH23">
-    <cfRule type="expression" dxfId="717" priority="886">
+    <cfRule type="expression" dxfId="581" priority="886">
       <formula>AND(TODAY()&gt;=BH$5,TODAY()&lt;CD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH23">
-    <cfRule type="expression" dxfId="716" priority="887" stopIfTrue="1">
+    <cfRule type="expression" dxfId="580" priority="887" stopIfTrue="1">
       <formula>AND(task_end&gt;=BH$5,task_start&lt;CD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU23:BV23 L23:BG23 BI23:BN23">
-    <cfRule type="expression" dxfId="715" priority="881" stopIfTrue="1">
+    <cfRule type="expression" dxfId="579" priority="881" stopIfTrue="1">
       <formula>AND(task_end&gt;=L$5,task_start&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO23">
-    <cfRule type="expression" dxfId="714" priority="882">
+    <cfRule type="expression" dxfId="578" priority="882">
       <formula>AND(TODAY()&gt;=BO$5,TODAY()&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO23">
-    <cfRule type="expression" dxfId="713" priority="883" stopIfTrue="1">
+    <cfRule type="expression" dxfId="577" priority="883" stopIfTrue="1">
       <formula>AND(task_end&gt;=BO$5,task_start&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP23:BT23">
-    <cfRule type="expression" dxfId="712" priority="892">
+    <cfRule type="expression" dxfId="576" priority="892">
       <formula>AND(TODAY()&gt;=BP$5,TODAY()&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP23:BT23">
-    <cfRule type="expression" dxfId="711" priority="893" stopIfTrue="1">
+    <cfRule type="expression" dxfId="575" priority="893" stopIfTrue="1">
       <formula>AND(task_end&gt;=BP$5,task_start&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW23:BX23">
-    <cfRule type="expression" dxfId="710" priority="895" stopIfTrue="1">
+    <cfRule type="expression" dxfId="574" priority="895" stopIfTrue="1">
       <formula>AND(task_end&gt;=BW$5,task_start&lt;CA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW23:BX23">
-    <cfRule type="expression" dxfId="709" priority="894">
+    <cfRule type="expression" dxfId="573" priority="894">
       <formula>AND(TODAY()&gt;=BW$5,TODAY()&lt;CA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY23">
-    <cfRule type="expression" dxfId="708" priority="890">
+    <cfRule type="expression" dxfId="572" priority="890">
       <formula>AND(TODAY()&gt;=BY$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="707" priority="891" stopIfTrue="1">
+    <cfRule type="expression" dxfId="571" priority="891" stopIfTrue="1">
       <formula>AND(task_end&gt;=BY$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ23">
-    <cfRule type="expression" dxfId="706" priority="888">
+    <cfRule type="expression" dxfId="570" priority="888">
       <formula>AND(TODAY()&gt;=BZ$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="705" priority="889" stopIfTrue="1">
+    <cfRule type="expression" dxfId="569" priority="889" stopIfTrue="1">
       <formula>AND(task_end&gt;=BZ$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -56386,1568 +54854,1568 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI29:BN30 BU29:BV30 L29:BG30">
-    <cfRule type="expression" dxfId="704" priority="868">
+    <cfRule type="expression" dxfId="568" priority="868">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29:DZ30">
-    <cfRule type="expression" dxfId="703" priority="864">
+    <cfRule type="expression" dxfId="567" priority="864">
       <formula>AND(task_start&lt;=L$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH29:BH30">
-    <cfRule type="expression" dxfId="702" priority="870">
+    <cfRule type="expression" dxfId="566" priority="870">
       <formula>AND(TODAY()&gt;=BH$5,TODAY()&lt;CD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH29:BH30">
-    <cfRule type="expression" dxfId="701" priority="871" stopIfTrue="1">
+    <cfRule type="expression" dxfId="565" priority="871" stopIfTrue="1">
       <formula>AND(task_end&gt;=BH$5,task_start&lt;CD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU29:BV30 L29:BG30 BI29:BN30">
-    <cfRule type="expression" dxfId="700" priority="865" stopIfTrue="1">
+    <cfRule type="expression" dxfId="564" priority="865" stopIfTrue="1">
       <formula>AND(task_end&gt;=L$5,task_start&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO29:BO30">
-    <cfRule type="expression" dxfId="699" priority="866">
+    <cfRule type="expression" dxfId="563" priority="866">
       <formula>AND(TODAY()&gt;=BO$5,TODAY()&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO29:BO30">
-    <cfRule type="expression" dxfId="698" priority="867" stopIfTrue="1">
+    <cfRule type="expression" dxfId="562" priority="867" stopIfTrue="1">
       <formula>AND(task_end&gt;=BO$5,task_start&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP29:BT30">
-    <cfRule type="expression" dxfId="697" priority="876">
+    <cfRule type="expression" dxfId="561" priority="876">
       <formula>AND(TODAY()&gt;=BP$5,TODAY()&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP29:BT30">
-    <cfRule type="expression" dxfId="696" priority="877" stopIfTrue="1">
+    <cfRule type="expression" dxfId="560" priority="877" stopIfTrue="1">
       <formula>AND(task_end&gt;=BP$5,task_start&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW29:BX30">
-    <cfRule type="expression" dxfId="695" priority="879" stopIfTrue="1">
+    <cfRule type="expression" dxfId="559" priority="879" stopIfTrue="1">
       <formula>AND(task_end&gt;=BW$5,task_start&lt;CA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW29:BX30">
-    <cfRule type="expression" dxfId="694" priority="878">
+    <cfRule type="expression" dxfId="558" priority="878">
       <formula>AND(TODAY()&gt;=BW$5,TODAY()&lt;CA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY29:BY30">
-    <cfRule type="expression" dxfId="693" priority="874">
+    <cfRule type="expression" dxfId="557" priority="874">
       <formula>AND(TODAY()&gt;=BY$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="692" priority="875" stopIfTrue="1">
+    <cfRule type="expression" dxfId="556" priority="875" stopIfTrue="1">
       <formula>AND(task_end&gt;=BY$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ29:BZ30">
-    <cfRule type="expression" dxfId="691" priority="872">
+    <cfRule type="expression" dxfId="555" priority="872">
       <formula>AND(TODAY()&gt;=BZ$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="690" priority="873" stopIfTrue="1">
+    <cfRule type="expression" dxfId="554" priority="873" stopIfTrue="1">
       <formula>AND(task_end&gt;=BZ$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DZ18:DZ33 EG18:EG33 EN18:EN33 EU18:EU33 FB18:FB33 FI18:FI33 FP18:FP33 FW18:FW33 GD18:GD33 GK18:GK33 GR18:GR33 GY18:GY33 HF18:HF33 HM18:HM33 HT18:HT33 IA18:IA33 IH18:IH33 IO18:IO33 IV18:IV33 JC18:JC33 JJ18:JJ33 JQ18:JQ33 JX18:JX33 KE18:KE33 KL18:KL33 KS18:KS33 KZ18:KZ33 LG18:LG33 LN18:LN33 LU18:LU33 MB18:MB33 MI18:MI33 MP18:MP33 MW18:MW33 MW38 MW36 MP38 MP36 MI38 MI36 MB38 MB36 LU38 LU36 LN38 LN36 LG38 LG36 KZ38 KZ36 KS38 KS36 KL38 KL36 KE38 KE36 JX38 JX36 JQ38 JQ36 JJ38 JJ36 JC38 JC36 IV38 IV36 IO38 IO36 IH38 IH36 IA38 IA36 HT38 HT36 HM38 HM36 HF38 HF36 GY38 GY36 GR38 GR36 GK38 GK36 GD38 GD36 FW38 FW36 FP38 FP36 FI38 FI36 FB38 FB36 EU38 EU36 EN38 EN36 EG38 EG36 DZ38 DZ36 DZ41:DZ43 EG41:EG43 EN41:EN43 EU41:EU43 FB41:FB43 FI41:FI43 FP41:FP43 FW41:FW43 GD41:GD43 GK41:GK43 GR41:GR43 GY41:GY43 HF41:HF43 HM41:HM43 HT41:HT43 IA41:IA43 IH41:IH43 IO41:IO43 IV41:IV43 JC41:JC43 JJ41:JJ43 JQ41:JQ43 JX41:JX43 KE41:KE43 KL41:KL43 KS41:KS43 KZ41:KZ43 LG41:LG43 LN41:LN43 LU41:LU43 MB41:MB43 MI41:MI43 MP41:MP43 MW41:MW43 MW61:MW88 MP61:MP88 MI61:MI88 MB61:MB88 LU61:LU88 LN61:LN88 LG61:LG88 KZ61:KZ88 KS61:KS88 KL61:KL88 KE61:KE88 JX61:JX88 JQ61:JQ88 JJ61:JJ88 JC61:JC88 IV61:IV88 IO61:IO88 IH61:IH88 IA61:IA88 HT61:HT88 HM61:HM88 HF61:HF88 GY61:GY88 GR61:GR88 GK61:GK88 GD61:GD88 FW61:FW88 FP61:FP88 FI61:FI88 FB61:FB88 EU61:EU88 EN61:EN88 EG61:EG88 DZ61:DZ88 MW47:MW58 MP47:MP58 MI47:MI58 MB47:MB58 LU47:LU58 LN47:LN58 LG47:LG58 KZ47:KZ58 KS47:KS58 KL47:KL58 KE47:KE58 JX47:JX58 JQ47:JQ58 JJ47:JJ58 JC47:JC58 IV47:IV58 IO47:IO58 IH47:IH58 IA47:IA58 HT47:HT58 HM47:HM58 HF47:HF58 GY47:GY58 GR47:GR58 GK47:GK58 GD47:GD58 FW47:FW58 FP47:FP58 FI47:FI58 FB47:FB58 EU47:EU58 EN47:EN58 EG47:EG58 DZ47:DZ58 DZ110 EG110 EN110 EU110 FB110 FI110 FP110 FW110 GD110 GK110 GR110 GY110 HF110 HM110 HT110 IA110 IH110 IO110 IV110 JC110 JJ110 JQ110 JX110 KE110 KL110 KS110 KZ110 LG110 LN110 LU110 MB110 MI110 MP110 MW110 MW113:MW115 MP113:MP115 MI113:MI115 MB113:MB115 LU113:LU115 LN113:LN115 LG113:LG115 KZ113:KZ115 KS113:KS115 KL113:KL115 KE113:KE115 JX113:JX115 JQ113:JQ115 JJ113:JJ115 JC113:JC115 IV113:IV115 IO113:IO115 IH113:IH115 IA113:IA115 HT113:HT115 HM113:HM115 HF113:HF115 GY113:GY115 GR113:GR115 GK113:GK115 GD113:GD115 FW113:FW115 FP113:FP115 FI113:FI115 FB113:FB115 EU113:EU115 EN113:EN115 EG113:EG115 DZ113:DZ115">
-    <cfRule type="expression" dxfId="689" priority="1033">
+    <cfRule type="expression" dxfId="553" priority="1033">
       <formula>AND(TODAY()&gt;=DZ$5,TODAY()&lt;MX$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DZ18:DZ33 EG18:EG33 EN18:EN33 EU18:EU33 FB18:FB33 FI18:FI33 FP18:FP33 FW18:FW33 GD18:GD33 GK18:GK33 GR18:GR33 GY18:GY33 HF18:HF33 HM18:HM33 HT18:HT33 IA18:IA33 IH18:IH33 IO18:IO33 IV18:IV33 JC18:JC33 JJ18:JJ33 JQ18:JQ33 JX18:JX33 KE18:KE33 KL18:KL33 KS18:KS33 KZ18:KZ33 LG18:LG33 LN18:LN33 LU18:LU33 MB18:MB33 MI18:MI33 MP18:MP33 MW18:MW33 MW38 MW36 MP38 MP36 MI38 MI36 MB38 MB36 LU38 LU36 LN38 LN36 LG38 LG36 KZ38 KZ36 KS38 KS36 KL38 KL36 KE38 KE36 JX38 JX36 JQ38 JQ36 JJ38 JJ36 JC38 JC36 IV38 IV36 IO38 IO36 IH38 IH36 IA38 IA36 HT38 HT36 HM38 HM36 HF38 HF36 GY38 GY36 GR38 GR36 GK38 GK36 GD38 GD36 FW38 FW36 FP38 FP36 FI38 FI36 FB38 FB36 EU38 EU36 EN38 EN36 EG38 EG36 DZ38 DZ36 DZ41:DZ43 EG41:EG43 EN41:EN43 EU41:EU43 FB41:FB43 FI41:FI43 FP41:FP43 FW41:FW43 GD41:GD43 GK41:GK43 GR41:GR43 GY41:GY43 HF41:HF43 HM41:HM43 HT41:HT43 IA41:IA43 IH41:IH43 IO41:IO43 IV41:IV43 JC41:JC43 JJ41:JJ43 JQ41:JQ43 JX41:JX43 KE41:KE43 KL41:KL43 KS41:KS43 KZ41:KZ43 LG41:LG43 LN41:LN43 LU41:LU43 MB41:MB43 MI41:MI43 MP41:MP43 MW41:MW43 MW61:MW88 MP61:MP88 MI61:MI88 MB61:MB88 LU61:LU88 LN61:LN88 LG61:LG88 KZ61:KZ88 KS61:KS88 KL61:KL88 KE61:KE88 JX61:JX88 JQ61:JQ88 JJ61:JJ88 JC61:JC88 IV61:IV88 IO61:IO88 IH61:IH88 IA61:IA88 HT61:HT88 HM61:HM88 HF61:HF88 GY61:GY88 GR61:GR88 GK61:GK88 GD61:GD88 FW61:FW88 FP61:FP88 FI61:FI88 FB61:FB88 EU61:EU88 EN61:EN88 EG61:EG88 DZ61:DZ88 MW47:MW58 MP47:MP58 MI47:MI58 MB47:MB58 LU47:LU58 LN47:LN58 LG47:LG58 KZ47:KZ58 KS47:KS58 KL47:KL58 KE47:KE58 JX47:JX58 JQ47:JQ58 JJ47:JJ58 JC47:JC58 IV47:IV58 IO47:IO58 IH47:IH58 IA47:IA58 HT47:HT58 HM47:HM58 HF47:HF58 GY47:GY58 GR47:GR58 GK47:GK58 GD47:GD58 FW47:FW58 FP47:FP58 FI47:FI58 FB47:FB58 EU47:EU58 EN47:EN58 EG47:EG58 DZ47:DZ58 DZ110 EG110 EN110 EU110 FB110 FI110 FP110 FW110 GD110 GK110 GR110 GY110 HF110 HM110 HT110 IA110 IH110 IO110 IV110 JC110 JJ110 JQ110 JX110 KE110 KL110 KS110 KZ110 LG110 LN110 LU110 MB110 MI110 MP110 MW110 MW113:MW115 MP113:MP115 MI113:MI115 MB113:MB115 LU113:LU115 LN113:LN115 LG113:LG115 KZ113:KZ115 KS113:KS115 KL113:KL115 KE113:KE115 JX113:JX115 JQ113:JQ115 JJ113:JJ115 JC113:JC115 IV113:IV115 IO113:IO115 IH113:IH115 IA113:IA115 HT113:HT115 HM113:HM115 HF113:HF115 GY113:GY115 GR113:GR115 GK113:GK115 GD113:GD115 FW113:FW115 FP113:FP115 FI113:FI115 FB113:FB115 EU113:EU115 EN113:EN115 EG113:EG115 DZ113:DZ115">
-    <cfRule type="expression" dxfId="688" priority="1041" stopIfTrue="1">
+    <cfRule type="expression" dxfId="552" priority="1041" stopIfTrue="1">
       <formula>AND(task_end&gt;=DZ$5,task_start&lt;MX$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EA114:EG115">
-    <cfRule type="expression" dxfId="687" priority="859">
+    <cfRule type="expression" dxfId="551" priority="859">
       <formula>AND(task_start&lt;=EA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=EA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EA5:EF17">
-    <cfRule type="expression" dxfId="686" priority="855">
+    <cfRule type="expression" dxfId="550" priority="855">
       <formula>AND(TODAY()&gt;=EA$5,TODAY()&lt;EB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EA7:EF17">
-    <cfRule type="expression" dxfId="685" priority="854" stopIfTrue="1">
+    <cfRule type="expression" dxfId="549" priority="854" stopIfTrue="1">
       <formula>AND(task_end&gt;=EA$5,task_start&lt;EB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EA7:EG17">
-    <cfRule type="expression" dxfId="684" priority="856">
+    <cfRule type="expression" dxfId="548" priority="856">
       <formula>AND(task_start&lt;=EA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=EA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EG5:EG17">
-    <cfRule type="expression" dxfId="683" priority="857">
+    <cfRule type="expression" dxfId="547" priority="857">
       <formula>AND(TODAY()&gt;=EG$5,TODAY()&lt;NS$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EG7:EG17">
-    <cfRule type="expression" dxfId="682" priority="858" stopIfTrue="1">
+    <cfRule type="expression" dxfId="546" priority="858" stopIfTrue="1">
       <formula>AND(task_end&gt;=EG$5,task_start&lt;NS$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EA87:EG88 EA110:EG110 EA113:EG113">
-    <cfRule type="expression" dxfId="681" priority="853">
+    <cfRule type="expression" dxfId="545" priority="853">
       <formula>AND(task_start&lt;=EA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=EA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EA23:EG23">
-    <cfRule type="expression" dxfId="680" priority="852">
+    <cfRule type="expression" dxfId="544" priority="852">
       <formula>AND(task_start&lt;=EA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=EA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EA29:EG30">
-    <cfRule type="expression" dxfId="679" priority="851">
+    <cfRule type="expression" dxfId="543" priority="851">
       <formula>AND(task_start&lt;=EA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=EA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EH114:EN115">
-    <cfRule type="expression" dxfId="678" priority="846">
+    <cfRule type="expression" dxfId="542" priority="846">
       <formula>AND(task_start&lt;=EH$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=EH$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EH5:EM17">
-    <cfRule type="expression" dxfId="677" priority="842">
+    <cfRule type="expression" dxfId="541" priority="842">
       <formula>AND(TODAY()&gt;=EH$5,TODAY()&lt;EI$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EH7:EM17">
-    <cfRule type="expression" dxfId="676" priority="841" stopIfTrue="1">
+    <cfRule type="expression" dxfId="540" priority="841" stopIfTrue="1">
       <formula>AND(task_end&gt;=EH$5,task_start&lt;EI$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EH7:EN17">
-    <cfRule type="expression" dxfId="675" priority="843">
+    <cfRule type="expression" dxfId="539" priority="843">
       <formula>AND(task_start&lt;=EH$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=EH$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EN5:EN17">
-    <cfRule type="expression" dxfId="674" priority="844">
+    <cfRule type="expression" dxfId="538" priority="844">
       <formula>AND(TODAY()&gt;=EN$5,TODAY()&lt;NZ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EN7:EN17">
-    <cfRule type="expression" dxfId="673" priority="845" stopIfTrue="1">
+    <cfRule type="expression" dxfId="537" priority="845" stopIfTrue="1">
       <formula>AND(task_end&gt;=EN$5,task_start&lt;NZ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EH87:EN88 EH110:EN110 EH113:EN113">
-    <cfRule type="expression" dxfId="672" priority="840">
+    <cfRule type="expression" dxfId="536" priority="840">
       <formula>AND(task_start&lt;=EH$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=EH$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EH23:EN23">
-    <cfRule type="expression" dxfId="671" priority="839">
+    <cfRule type="expression" dxfId="535" priority="839">
       <formula>AND(task_start&lt;=EH$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=EH$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EH29:EN30">
-    <cfRule type="expression" dxfId="670" priority="838">
+    <cfRule type="expression" dxfId="534" priority="838">
       <formula>AND(task_start&lt;=EH$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=EH$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EO114:EU115">
-    <cfRule type="expression" dxfId="669" priority="833">
+    <cfRule type="expression" dxfId="533" priority="833">
       <formula>AND(task_start&lt;=EO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=EO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EO5:ET17">
-    <cfRule type="expression" dxfId="668" priority="829">
+    <cfRule type="expression" dxfId="532" priority="829">
       <formula>AND(TODAY()&gt;=EO$5,TODAY()&lt;EP$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EO7:ET17">
-    <cfRule type="expression" dxfId="667" priority="828" stopIfTrue="1">
+    <cfRule type="expression" dxfId="531" priority="828" stopIfTrue="1">
       <formula>AND(task_end&gt;=EO$5,task_start&lt;EP$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EO7:EU17">
-    <cfRule type="expression" dxfId="666" priority="830">
+    <cfRule type="expression" dxfId="530" priority="830">
       <formula>AND(task_start&lt;=EO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=EO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EU5:EU17">
-    <cfRule type="expression" dxfId="665" priority="831">
+    <cfRule type="expression" dxfId="529" priority="831">
       <formula>AND(TODAY()&gt;=EU$5,TODAY()&lt;OG$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EU7:EU17">
-    <cfRule type="expression" dxfId="664" priority="832" stopIfTrue="1">
+    <cfRule type="expression" dxfId="528" priority="832" stopIfTrue="1">
       <formula>AND(task_end&gt;=EU$5,task_start&lt;OG$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EO87:EU88 EO110:EU110 EO113:EU113">
-    <cfRule type="expression" dxfId="663" priority="827">
+    <cfRule type="expression" dxfId="527" priority="827">
       <formula>AND(task_start&lt;=EO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=EO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EO23:EU23">
-    <cfRule type="expression" dxfId="662" priority="826">
+    <cfRule type="expression" dxfId="526" priority="826">
       <formula>AND(task_start&lt;=EO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=EO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EO29:EU30">
-    <cfRule type="expression" dxfId="661" priority="825">
+    <cfRule type="expression" dxfId="525" priority="825">
       <formula>AND(task_start&lt;=EO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=EO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EV114:FB115">
-    <cfRule type="expression" dxfId="660" priority="820">
+    <cfRule type="expression" dxfId="524" priority="820">
       <formula>AND(task_start&lt;=EV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=EV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EV5:FA17">
-    <cfRule type="expression" dxfId="659" priority="816">
+    <cfRule type="expression" dxfId="523" priority="816">
       <formula>AND(TODAY()&gt;=EV$5,TODAY()&lt;EW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EV7:FA17">
-    <cfRule type="expression" dxfId="658" priority="815" stopIfTrue="1">
+    <cfRule type="expression" dxfId="522" priority="815" stopIfTrue="1">
       <formula>AND(task_end&gt;=EV$5,task_start&lt;EW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EV7:FB17">
-    <cfRule type="expression" dxfId="657" priority="817">
+    <cfRule type="expression" dxfId="521" priority="817">
       <formula>AND(task_start&lt;=EV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=EV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FB5:FB17">
-    <cfRule type="expression" dxfId="656" priority="818">
+    <cfRule type="expression" dxfId="520" priority="818">
       <formula>AND(TODAY()&gt;=FB$5,TODAY()&lt;ON$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FB7:FB17">
-    <cfRule type="expression" dxfId="655" priority="819" stopIfTrue="1">
+    <cfRule type="expression" dxfId="519" priority="819" stopIfTrue="1">
       <formula>AND(task_end&gt;=FB$5,task_start&lt;ON$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EV87:FB88 EV110:FB110 EV113:FB113">
-    <cfRule type="expression" dxfId="654" priority="814">
+    <cfRule type="expression" dxfId="518" priority="814">
       <formula>AND(task_start&lt;=EV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=EV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EV23:FB23">
-    <cfRule type="expression" dxfId="653" priority="813">
+    <cfRule type="expression" dxfId="517" priority="813">
       <formula>AND(task_start&lt;=EV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=EV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EV29:FB30">
-    <cfRule type="expression" dxfId="652" priority="812">
+    <cfRule type="expression" dxfId="516" priority="812">
       <formula>AND(task_start&lt;=EV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=EV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FC114:FI115">
-    <cfRule type="expression" dxfId="651" priority="807">
+    <cfRule type="expression" dxfId="515" priority="807">
       <formula>AND(task_start&lt;=FC$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=FC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FC5:FH17">
-    <cfRule type="expression" dxfId="650" priority="803">
+    <cfRule type="expression" dxfId="514" priority="803">
       <formula>AND(TODAY()&gt;=FC$5,TODAY()&lt;FD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FC7:FH17">
-    <cfRule type="expression" dxfId="649" priority="802" stopIfTrue="1">
+    <cfRule type="expression" dxfId="513" priority="802" stopIfTrue="1">
       <formula>AND(task_end&gt;=FC$5,task_start&lt;FD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FC7:FI17">
-    <cfRule type="expression" dxfId="648" priority="804">
+    <cfRule type="expression" dxfId="512" priority="804">
       <formula>AND(task_start&lt;=FC$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=FC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI5:FI17">
-    <cfRule type="expression" dxfId="647" priority="805">
+    <cfRule type="expression" dxfId="511" priority="805">
       <formula>AND(TODAY()&gt;=FI$5,TODAY()&lt;OU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FI7:FI17">
-    <cfRule type="expression" dxfId="646" priority="806" stopIfTrue="1">
+    <cfRule type="expression" dxfId="510" priority="806" stopIfTrue="1">
       <formula>AND(task_end&gt;=FI$5,task_start&lt;OU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FC87:FI88 FC110:FI110 FC113:FI113">
-    <cfRule type="expression" dxfId="645" priority="801">
+    <cfRule type="expression" dxfId="509" priority="801">
       <formula>AND(task_start&lt;=FC$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=FC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FC23:FI23">
-    <cfRule type="expression" dxfId="644" priority="800">
+    <cfRule type="expression" dxfId="508" priority="800">
       <formula>AND(task_start&lt;=FC$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=FC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FC29:FI30">
-    <cfRule type="expression" dxfId="643" priority="799">
+    <cfRule type="expression" dxfId="507" priority="799">
       <formula>AND(task_start&lt;=FC$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=FC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ114:FP115">
-    <cfRule type="expression" dxfId="642" priority="794">
+    <cfRule type="expression" dxfId="506" priority="794">
       <formula>AND(task_start&lt;=FJ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=FJ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ5:FO17">
-    <cfRule type="expression" dxfId="641" priority="790">
+    <cfRule type="expression" dxfId="505" priority="790">
       <formula>AND(TODAY()&gt;=FJ$5,TODAY()&lt;FK$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ7:FO17">
-    <cfRule type="expression" dxfId="640" priority="789" stopIfTrue="1">
+    <cfRule type="expression" dxfId="504" priority="789" stopIfTrue="1">
       <formula>AND(task_end&gt;=FJ$5,task_start&lt;FK$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ7:FP17">
-    <cfRule type="expression" dxfId="639" priority="791">
+    <cfRule type="expression" dxfId="503" priority="791">
       <formula>AND(task_start&lt;=FJ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=FJ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP5:FP17">
-    <cfRule type="expression" dxfId="638" priority="792">
+    <cfRule type="expression" dxfId="502" priority="792">
       <formula>AND(TODAY()&gt;=FP$5,TODAY()&lt;PB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FP7:FP17">
-    <cfRule type="expression" dxfId="637" priority="793" stopIfTrue="1">
+    <cfRule type="expression" dxfId="501" priority="793" stopIfTrue="1">
       <formula>AND(task_end&gt;=FP$5,task_start&lt;PB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ87:FP88 FJ110:FP110 FJ113:FP113">
-    <cfRule type="expression" dxfId="636" priority="788">
+    <cfRule type="expression" dxfId="500" priority="788">
       <formula>AND(task_start&lt;=FJ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=FJ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ23:FP23">
-    <cfRule type="expression" dxfId="635" priority="787">
+    <cfRule type="expression" dxfId="499" priority="787">
       <formula>AND(task_start&lt;=FJ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=FJ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ29:FP30">
-    <cfRule type="expression" dxfId="634" priority="786">
+    <cfRule type="expression" dxfId="498" priority="786">
       <formula>AND(task_start&lt;=FJ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=FJ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FQ114:FW115">
-    <cfRule type="expression" dxfId="633" priority="781">
+    <cfRule type="expression" dxfId="497" priority="781">
       <formula>AND(task_start&lt;=FQ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=FQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FQ5:FV17">
-    <cfRule type="expression" dxfId="632" priority="777">
+    <cfRule type="expression" dxfId="496" priority="777">
       <formula>AND(TODAY()&gt;=FQ$5,TODAY()&lt;FR$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FQ7:FV17">
-    <cfRule type="expression" dxfId="631" priority="776" stopIfTrue="1">
+    <cfRule type="expression" dxfId="495" priority="776" stopIfTrue="1">
       <formula>AND(task_end&gt;=FQ$5,task_start&lt;FR$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FQ7:FW17">
-    <cfRule type="expression" dxfId="630" priority="778">
+    <cfRule type="expression" dxfId="494" priority="778">
       <formula>AND(task_start&lt;=FQ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=FQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FW5:FW17">
-    <cfRule type="expression" dxfId="629" priority="779">
+    <cfRule type="expression" dxfId="493" priority="779">
       <formula>AND(TODAY()&gt;=FW$5,TODAY()&lt;PI$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FW7:FW17">
-    <cfRule type="expression" dxfId="628" priority="780" stopIfTrue="1">
+    <cfRule type="expression" dxfId="492" priority="780" stopIfTrue="1">
       <formula>AND(task_end&gt;=FW$5,task_start&lt;PI$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FQ87:FW88 FQ110:FW110 FQ113:FW113">
-    <cfRule type="expression" dxfId="627" priority="775">
+    <cfRule type="expression" dxfId="491" priority="775">
       <formula>AND(task_start&lt;=FQ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=FQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FQ23:FW23">
-    <cfRule type="expression" dxfId="626" priority="774">
+    <cfRule type="expression" dxfId="490" priority="774">
       <formula>AND(task_start&lt;=FQ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=FQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FQ29:FW30">
-    <cfRule type="expression" dxfId="625" priority="773">
+    <cfRule type="expression" dxfId="489" priority="773">
       <formula>AND(task_start&lt;=FQ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=FQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FX114:GD115">
-    <cfRule type="expression" dxfId="624" priority="768">
+    <cfRule type="expression" dxfId="488" priority="768">
       <formula>AND(task_start&lt;=FX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=FX$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FX5:GC17">
-    <cfRule type="expression" dxfId="623" priority="764">
+    <cfRule type="expression" dxfId="487" priority="764">
       <formula>AND(TODAY()&gt;=FX$5,TODAY()&lt;FY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FX7:GC17">
-    <cfRule type="expression" dxfId="622" priority="763" stopIfTrue="1">
+    <cfRule type="expression" dxfId="486" priority="763" stopIfTrue="1">
       <formula>AND(task_end&gt;=FX$5,task_start&lt;FY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FX7:GD17">
-    <cfRule type="expression" dxfId="621" priority="765">
+    <cfRule type="expression" dxfId="485" priority="765">
       <formula>AND(task_start&lt;=FX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=FX$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GD5:GD17">
-    <cfRule type="expression" dxfId="620" priority="766">
+    <cfRule type="expression" dxfId="484" priority="766">
       <formula>AND(TODAY()&gt;=GD$5,TODAY()&lt;PP$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GD7:GD17">
-    <cfRule type="expression" dxfId="619" priority="767" stopIfTrue="1">
+    <cfRule type="expression" dxfId="483" priority="767" stopIfTrue="1">
       <formula>AND(task_end&gt;=GD$5,task_start&lt;PP$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FX87:GD88 FX110:GD110 FX113:GD113">
-    <cfRule type="expression" dxfId="618" priority="762">
+    <cfRule type="expression" dxfId="482" priority="762">
       <formula>AND(task_start&lt;=FX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=FX$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FX23:GD23">
-    <cfRule type="expression" dxfId="617" priority="761">
+    <cfRule type="expression" dxfId="481" priority="761">
       <formula>AND(task_start&lt;=FX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=FX$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FX29:GD30">
-    <cfRule type="expression" dxfId="616" priority="760">
+    <cfRule type="expression" dxfId="480" priority="760">
       <formula>AND(task_start&lt;=FX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=FX$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GE114:GK115">
-    <cfRule type="expression" dxfId="615" priority="755">
+    <cfRule type="expression" dxfId="479" priority="755">
       <formula>AND(task_start&lt;=GE$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GE$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GE5:GJ17">
-    <cfRule type="expression" dxfId="614" priority="751">
+    <cfRule type="expression" dxfId="478" priority="751">
       <formula>AND(TODAY()&gt;=GE$5,TODAY()&lt;GF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GE7:GJ17">
-    <cfRule type="expression" dxfId="613" priority="750" stopIfTrue="1">
+    <cfRule type="expression" dxfId="477" priority="750" stopIfTrue="1">
       <formula>AND(task_end&gt;=GE$5,task_start&lt;GF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GE7:GK17">
-    <cfRule type="expression" dxfId="612" priority="752">
+    <cfRule type="expression" dxfId="476" priority="752">
       <formula>AND(task_start&lt;=GE$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GE$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GK5:GK17">
-    <cfRule type="expression" dxfId="611" priority="753">
+    <cfRule type="expression" dxfId="475" priority="753">
       <formula>AND(TODAY()&gt;=GK$5,TODAY()&lt;PW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GK7:GK17">
-    <cfRule type="expression" dxfId="610" priority="754" stopIfTrue="1">
+    <cfRule type="expression" dxfId="474" priority="754" stopIfTrue="1">
       <formula>AND(task_end&gt;=GK$5,task_start&lt;PW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GE87:GK88 GE110:GK110 GE113:GK113">
-    <cfRule type="expression" dxfId="609" priority="749">
+    <cfRule type="expression" dxfId="473" priority="749">
       <formula>AND(task_start&lt;=GE$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GE$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GE23:GK23">
-    <cfRule type="expression" dxfId="608" priority="748">
+    <cfRule type="expression" dxfId="472" priority="748">
       <formula>AND(task_start&lt;=GE$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GE$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GE29:GK30">
-    <cfRule type="expression" dxfId="607" priority="747">
+    <cfRule type="expression" dxfId="471" priority="747">
       <formula>AND(task_start&lt;=GE$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GE$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GL114:GR115">
-    <cfRule type="expression" dxfId="606" priority="742">
+    <cfRule type="expression" dxfId="470" priority="742">
       <formula>AND(task_start&lt;=GL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GL$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GL5:GQ17">
-    <cfRule type="expression" dxfId="605" priority="738">
+    <cfRule type="expression" dxfId="469" priority="738">
       <formula>AND(TODAY()&gt;=GL$5,TODAY()&lt;GM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GL7:GQ17">
-    <cfRule type="expression" dxfId="604" priority="737" stopIfTrue="1">
+    <cfRule type="expression" dxfId="468" priority="737" stopIfTrue="1">
       <formula>AND(task_end&gt;=GL$5,task_start&lt;GM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GL7:GR17">
-    <cfRule type="expression" dxfId="603" priority="739">
+    <cfRule type="expression" dxfId="467" priority="739">
       <formula>AND(task_start&lt;=GL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GL$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GR5:GR17">
-    <cfRule type="expression" dxfId="602" priority="740">
+    <cfRule type="expression" dxfId="466" priority="740">
       <formula>AND(TODAY()&gt;=GR$5,TODAY()&lt;QD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GR7:GR17">
-    <cfRule type="expression" dxfId="601" priority="741" stopIfTrue="1">
+    <cfRule type="expression" dxfId="465" priority="741" stopIfTrue="1">
       <formula>AND(task_end&gt;=GR$5,task_start&lt;QD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GL87:GR88 GL110:GR110 GL113:GR113">
-    <cfRule type="expression" dxfId="600" priority="736">
+    <cfRule type="expression" dxfId="464" priority="736">
       <formula>AND(task_start&lt;=GL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GL$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GL23:GR23">
-    <cfRule type="expression" dxfId="599" priority="735">
+    <cfRule type="expression" dxfId="463" priority="735">
       <formula>AND(task_start&lt;=GL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GL$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GL29:GR30">
-    <cfRule type="expression" dxfId="598" priority="734">
+    <cfRule type="expression" dxfId="462" priority="734">
       <formula>AND(task_start&lt;=GL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GL$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GS114:GY115">
-    <cfRule type="expression" dxfId="597" priority="729">
+    <cfRule type="expression" dxfId="461" priority="729">
       <formula>AND(task_start&lt;=GS$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GS$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GS5:GX17">
-    <cfRule type="expression" dxfId="596" priority="725">
+    <cfRule type="expression" dxfId="460" priority="725">
       <formula>AND(TODAY()&gt;=GS$5,TODAY()&lt;GT$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GS7:GX17">
-    <cfRule type="expression" dxfId="595" priority="724" stopIfTrue="1">
+    <cfRule type="expression" dxfId="459" priority="724" stopIfTrue="1">
       <formula>AND(task_end&gt;=GS$5,task_start&lt;GT$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GS7:GY17">
-    <cfRule type="expression" dxfId="594" priority="726">
+    <cfRule type="expression" dxfId="458" priority="726">
       <formula>AND(task_start&lt;=GS$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GS$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY5:GY17">
-    <cfRule type="expression" dxfId="593" priority="727">
+    <cfRule type="expression" dxfId="457" priority="727">
       <formula>AND(TODAY()&gt;=GY$5,TODAY()&lt;QK$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GY7:GY17">
-    <cfRule type="expression" dxfId="592" priority="728" stopIfTrue="1">
+    <cfRule type="expression" dxfId="456" priority="728" stopIfTrue="1">
       <formula>AND(task_end&gt;=GY$5,task_start&lt;QK$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GS87:GY88 GS110:GY110 GS113:GY113">
-    <cfRule type="expression" dxfId="591" priority="723">
+    <cfRule type="expression" dxfId="455" priority="723">
       <formula>AND(task_start&lt;=GS$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GS$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GS23:GY23">
-    <cfRule type="expression" dxfId="590" priority="722">
+    <cfRule type="expression" dxfId="454" priority="722">
       <formula>AND(task_start&lt;=GS$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GS$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GS29:GY30">
-    <cfRule type="expression" dxfId="589" priority="721">
+    <cfRule type="expression" dxfId="453" priority="721">
       <formula>AND(task_start&lt;=GS$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GS$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ114:HF115">
-    <cfRule type="expression" dxfId="588" priority="716">
+    <cfRule type="expression" dxfId="452" priority="716">
       <formula>AND(task_start&lt;=GZ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GZ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ5:HE17">
-    <cfRule type="expression" dxfId="587" priority="712">
+    <cfRule type="expression" dxfId="451" priority="712">
       <formula>AND(TODAY()&gt;=GZ$5,TODAY()&lt;HA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ7:HE17">
-    <cfRule type="expression" dxfId="586" priority="711" stopIfTrue="1">
+    <cfRule type="expression" dxfId="450" priority="711" stopIfTrue="1">
       <formula>AND(task_end&gt;=GZ$5,task_start&lt;HA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ7:HF17">
-    <cfRule type="expression" dxfId="585" priority="713">
+    <cfRule type="expression" dxfId="449" priority="713">
       <formula>AND(task_start&lt;=GZ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GZ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HF5:HF17">
-    <cfRule type="expression" dxfId="584" priority="714">
+    <cfRule type="expression" dxfId="448" priority="714">
       <formula>AND(TODAY()&gt;=HF$5,TODAY()&lt;QR$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HF7:HF17">
-    <cfRule type="expression" dxfId="583" priority="715" stopIfTrue="1">
+    <cfRule type="expression" dxfId="447" priority="715" stopIfTrue="1">
       <formula>AND(task_end&gt;=HF$5,task_start&lt;QR$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ87:HF88 GZ110:HF110 GZ113:HF113">
-    <cfRule type="expression" dxfId="582" priority="710">
+    <cfRule type="expression" dxfId="446" priority="710">
       <formula>AND(task_start&lt;=GZ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GZ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ23:HF23">
-    <cfRule type="expression" dxfId="581" priority="709">
+    <cfRule type="expression" dxfId="445" priority="709">
       <formula>AND(task_start&lt;=GZ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GZ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GZ29:HF30">
-    <cfRule type="expression" dxfId="580" priority="708">
+    <cfRule type="expression" dxfId="444" priority="708">
       <formula>AND(task_start&lt;=GZ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GZ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG114:HM115">
-    <cfRule type="expression" dxfId="579" priority="703">
+    <cfRule type="expression" dxfId="443" priority="703">
       <formula>AND(task_start&lt;=HG$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HG$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG5:HL17">
-    <cfRule type="expression" dxfId="578" priority="699">
+    <cfRule type="expression" dxfId="442" priority="699">
       <formula>AND(TODAY()&gt;=HG$5,TODAY()&lt;HH$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG7:HL17">
-    <cfRule type="expression" dxfId="577" priority="698" stopIfTrue="1">
+    <cfRule type="expression" dxfId="441" priority="698" stopIfTrue="1">
       <formula>AND(task_end&gt;=HG$5,task_start&lt;HH$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG7:HM17">
-    <cfRule type="expression" dxfId="576" priority="700">
+    <cfRule type="expression" dxfId="440" priority="700">
       <formula>AND(task_start&lt;=HG$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HG$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM5:HM17">
-    <cfRule type="expression" dxfId="575" priority="701">
+    <cfRule type="expression" dxfId="439" priority="701">
       <formula>AND(TODAY()&gt;=HM$5,TODAY()&lt;QY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HM7:HM17">
-    <cfRule type="expression" dxfId="574" priority="702" stopIfTrue="1">
+    <cfRule type="expression" dxfId="438" priority="702" stopIfTrue="1">
       <formula>AND(task_end&gt;=HM$5,task_start&lt;QY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG87:HM88 HG110:HM110 HG113:HM113">
-    <cfRule type="expression" dxfId="573" priority="697">
+    <cfRule type="expression" dxfId="437" priority="697">
       <formula>AND(task_start&lt;=HG$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HG$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG23:HM23">
-    <cfRule type="expression" dxfId="572" priority="696">
+    <cfRule type="expression" dxfId="436" priority="696">
       <formula>AND(task_start&lt;=HG$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HG$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HG29:HM30">
-    <cfRule type="expression" dxfId="571" priority="695">
+    <cfRule type="expression" dxfId="435" priority="695">
       <formula>AND(task_start&lt;=HG$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HG$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN114:HT115">
-    <cfRule type="expression" dxfId="570" priority="690">
+    <cfRule type="expression" dxfId="434" priority="690">
       <formula>AND(task_start&lt;=HN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN5:HS17">
-    <cfRule type="expression" dxfId="569" priority="686">
+    <cfRule type="expression" dxfId="433" priority="686">
       <formula>AND(TODAY()&gt;=HN$5,TODAY()&lt;HO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN7:HS17">
-    <cfRule type="expression" dxfId="568" priority="685" stopIfTrue="1">
+    <cfRule type="expression" dxfId="432" priority="685" stopIfTrue="1">
       <formula>AND(task_end&gt;=HN$5,task_start&lt;HO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN7:HT17">
-    <cfRule type="expression" dxfId="567" priority="687">
+    <cfRule type="expression" dxfId="431" priority="687">
       <formula>AND(task_start&lt;=HN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HT5:HT17">
-    <cfRule type="expression" dxfId="566" priority="688">
+    <cfRule type="expression" dxfId="430" priority="688">
       <formula>AND(TODAY()&gt;=HT$5,TODAY()&lt;RF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HT7:HT17">
-    <cfRule type="expression" dxfId="565" priority="689" stopIfTrue="1">
+    <cfRule type="expression" dxfId="429" priority="689" stopIfTrue="1">
       <formula>AND(task_end&gt;=HT$5,task_start&lt;RF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN87:HT88 HN110:HT110 HN113:HT113">
-    <cfRule type="expression" dxfId="564" priority="684">
+    <cfRule type="expression" dxfId="428" priority="684">
       <formula>AND(task_start&lt;=HN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN23:HT23">
-    <cfRule type="expression" dxfId="563" priority="683">
+    <cfRule type="expression" dxfId="427" priority="683">
       <formula>AND(task_start&lt;=HN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HN29:HT30">
-    <cfRule type="expression" dxfId="562" priority="682">
+    <cfRule type="expression" dxfId="426" priority="682">
       <formula>AND(task_start&lt;=HN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HU114:IA115">
-    <cfRule type="expression" dxfId="561" priority="677">
+    <cfRule type="expression" dxfId="425" priority="677">
       <formula>AND(task_start&lt;=HU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HU5:HZ17">
-    <cfRule type="expression" dxfId="560" priority="673">
+    <cfRule type="expression" dxfId="424" priority="673">
       <formula>AND(TODAY()&gt;=HU$5,TODAY()&lt;HV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HU7:HZ17">
-    <cfRule type="expression" dxfId="559" priority="672" stopIfTrue="1">
+    <cfRule type="expression" dxfId="423" priority="672" stopIfTrue="1">
       <formula>AND(task_end&gt;=HU$5,task_start&lt;HV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HU7:IA17">
-    <cfRule type="expression" dxfId="558" priority="674">
+    <cfRule type="expression" dxfId="422" priority="674">
       <formula>AND(task_start&lt;=HU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA5:IA17">
-    <cfRule type="expression" dxfId="557" priority="675">
+    <cfRule type="expression" dxfId="421" priority="675">
       <formula>AND(TODAY()&gt;=IA$5,TODAY()&lt;RM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IA7:IA17">
-    <cfRule type="expression" dxfId="556" priority="676" stopIfTrue="1">
+    <cfRule type="expression" dxfId="420" priority="676" stopIfTrue="1">
       <formula>AND(task_end&gt;=IA$5,task_start&lt;RM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HU87:IA88 HU110:IA110 HU113:IA113">
-    <cfRule type="expression" dxfId="555" priority="671">
+    <cfRule type="expression" dxfId="419" priority="671">
       <formula>AND(task_start&lt;=HU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HU23:IA23">
-    <cfRule type="expression" dxfId="554" priority="670">
+    <cfRule type="expression" dxfId="418" priority="670">
       <formula>AND(task_start&lt;=HU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HU29:IA30">
-    <cfRule type="expression" dxfId="553" priority="669">
+    <cfRule type="expression" dxfId="417" priority="669">
       <formula>AND(task_start&lt;=HU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB114:IH115">
-    <cfRule type="expression" dxfId="552" priority="664">
+    <cfRule type="expression" dxfId="416" priority="664">
       <formula>AND(task_start&lt;=IB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB5:IG17">
-    <cfRule type="expression" dxfId="551" priority="660">
+    <cfRule type="expression" dxfId="415" priority="660">
       <formula>AND(TODAY()&gt;=IB$5,TODAY()&lt;IC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB7:IG17">
-    <cfRule type="expression" dxfId="550" priority="659" stopIfTrue="1">
+    <cfRule type="expression" dxfId="414" priority="659" stopIfTrue="1">
       <formula>AND(task_end&gt;=IB$5,task_start&lt;IC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB7:IH17">
-    <cfRule type="expression" dxfId="549" priority="661">
+    <cfRule type="expression" dxfId="413" priority="661">
       <formula>AND(task_start&lt;=IB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH5:IH17">
-    <cfRule type="expression" dxfId="548" priority="662">
+    <cfRule type="expression" dxfId="412" priority="662">
       <formula>AND(TODAY()&gt;=IH$5,TODAY()&lt;RT$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IH7:IH17">
-    <cfRule type="expression" dxfId="547" priority="663" stopIfTrue="1">
+    <cfRule type="expression" dxfId="411" priority="663" stopIfTrue="1">
       <formula>AND(task_end&gt;=IH$5,task_start&lt;RT$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB87:IH88 IB110:IH110 IB113:IH113">
-    <cfRule type="expression" dxfId="546" priority="658">
+    <cfRule type="expression" dxfId="410" priority="658">
       <formula>AND(task_start&lt;=IB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB23:IH23">
-    <cfRule type="expression" dxfId="545" priority="657">
+    <cfRule type="expression" dxfId="409" priority="657">
       <formula>AND(task_start&lt;=IB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IB29:IH30">
-    <cfRule type="expression" dxfId="544" priority="656">
+    <cfRule type="expression" dxfId="408" priority="656">
       <formula>AND(task_start&lt;=IB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="II114:IO115">
-    <cfRule type="expression" dxfId="543" priority="651">
+    <cfRule type="expression" dxfId="407" priority="651">
       <formula>AND(task_start&lt;=II$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=II$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="II5:IN17">
-    <cfRule type="expression" dxfId="542" priority="647">
+    <cfRule type="expression" dxfId="406" priority="647">
       <formula>AND(TODAY()&gt;=II$5,TODAY()&lt;IJ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="II7:IN17">
-    <cfRule type="expression" dxfId="541" priority="646" stopIfTrue="1">
+    <cfRule type="expression" dxfId="405" priority="646" stopIfTrue="1">
       <formula>AND(task_end&gt;=II$5,task_start&lt;IJ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="II7:IO17">
-    <cfRule type="expression" dxfId="540" priority="648">
+    <cfRule type="expression" dxfId="404" priority="648">
       <formula>AND(task_start&lt;=II$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=II$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO5:IO17">
-    <cfRule type="expression" dxfId="539" priority="649">
+    <cfRule type="expression" dxfId="403" priority="649">
       <formula>AND(TODAY()&gt;=IO$5,TODAY()&lt;SA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO7:IO17">
-    <cfRule type="expression" dxfId="538" priority="650" stopIfTrue="1">
+    <cfRule type="expression" dxfId="402" priority="650" stopIfTrue="1">
       <formula>AND(task_end&gt;=IO$5,task_start&lt;SA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="II87:IO88 II110:IO110 II113:IO113">
-    <cfRule type="expression" dxfId="537" priority="645">
+    <cfRule type="expression" dxfId="401" priority="645">
       <formula>AND(task_start&lt;=II$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=II$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="II23:IO23">
-    <cfRule type="expression" dxfId="536" priority="644">
+    <cfRule type="expression" dxfId="400" priority="644">
       <formula>AND(task_start&lt;=II$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=II$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="II29:IO30">
-    <cfRule type="expression" dxfId="535" priority="643">
+    <cfRule type="expression" dxfId="399" priority="643">
       <formula>AND(task_start&lt;=II$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=II$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP114:IV115">
-    <cfRule type="expression" dxfId="534" priority="638">
+    <cfRule type="expression" dxfId="398" priority="638">
       <formula>AND(task_start&lt;=IP$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IP$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP5:IU17">
-    <cfRule type="expression" dxfId="533" priority="634">
+    <cfRule type="expression" dxfId="397" priority="634">
       <formula>AND(TODAY()&gt;=IP$5,TODAY()&lt;IQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP7:IU17">
-    <cfRule type="expression" dxfId="532" priority="633" stopIfTrue="1">
+    <cfRule type="expression" dxfId="396" priority="633" stopIfTrue="1">
       <formula>AND(task_end&gt;=IP$5,task_start&lt;IQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP7:IV17">
-    <cfRule type="expression" dxfId="531" priority="635">
+    <cfRule type="expression" dxfId="395" priority="635">
       <formula>AND(task_start&lt;=IP$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IP$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV5:IV17">
-    <cfRule type="expression" dxfId="530" priority="636">
+    <cfRule type="expression" dxfId="394" priority="636">
       <formula>AND(TODAY()&gt;=IV$5,TODAY()&lt;SH$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IV7:IV17">
-    <cfRule type="expression" dxfId="529" priority="637" stopIfTrue="1">
+    <cfRule type="expression" dxfId="393" priority="637" stopIfTrue="1">
       <formula>AND(task_end&gt;=IV$5,task_start&lt;SH$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP87:IV88 IP110:IV110 IP113:IV113">
-    <cfRule type="expression" dxfId="528" priority="632">
+    <cfRule type="expression" dxfId="392" priority="632">
       <formula>AND(task_start&lt;=IP$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IP$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP23:IV23">
-    <cfRule type="expression" dxfId="527" priority="631">
+    <cfRule type="expression" dxfId="391" priority="631">
       <formula>AND(task_start&lt;=IP$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IP$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP29:IV30">
-    <cfRule type="expression" dxfId="526" priority="630">
+    <cfRule type="expression" dxfId="390" priority="630">
       <formula>AND(task_start&lt;=IP$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IP$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW114:JC115">
-    <cfRule type="expression" dxfId="525" priority="625">
+    <cfRule type="expression" dxfId="389" priority="625">
       <formula>AND(task_start&lt;=IW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW5:JB17">
-    <cfRule type="expression" dxfId="524" priority="621">
+    <cfRule type="expression" dxfId="388" priority="621">
       <formula>AND(TODAY()&gt;=IW$5,TODAY()&lt;IX$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW7:JB17">
-    <cfRule type="expression" dxfId="523" priority="620" stopIfTrue="1">
+    <cfRule type="expression" dxfId="387" priority="620" stopIfTrue="1">
       <formula>AND(task_end&gt;=IW$5,task_start&lt;IX$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW7:JC17">
-    <cfRule type="expression" dxfId="522" priority="622">
+    <cfRule type="expression" dxfId="386" priority="622">
       <formula>AND(task_start&lt;=IW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JC5:JC17">
-    <cfRule type="expression" dxfId="521" priority="623">
+    <cfRule type="expression" dxfId="385" priority="623">
       <formula>AND(TODAY()&gt;=JC$5,TODAY()&lt;SO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JC7:JC17">
-    <cfRule type="expression" dxfId="520" priority="624" stopIfTrue="1">
+    <cfRule type="expression" dxfId="384" priority="624" stopIfTrue="1">
       <formula>AND(task_end&gt;=JC$5,task_start&lt;SO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW87:JC88 IW110:JC110 IW113:JC113">
-    <cfRule type="expression" dxfId="519" priority="619">
+    <cfRule type="expression" dxfId="383" priority="619">
       <formula>AND(task_start&lt;=IW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW23:JC23">
-    <cfRule type="expression" dxfId="518" priority="618">
+    <cfRule type="expression" dxfId="382" priority="618">
       <formula>AND(task_start&lt;=IW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IW29:JC30">
-    <cfRule type="expression" dxfId="517" priority="617">
+    <cfRule type="expression" dxfId="381" priority="617">
       <formula>AND(task_start&lt;=IW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JD114:JJ115">
-    <cfRule type="expression" dxfId="516" priority="612">
+    <cfRule type="expression" dxfId="380" priority="612">
       <formula>AND(task_start&lt;=JD$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=JD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JD5:JI17">
-    <cfRule type="expression" dxfId="515" priority="608">
+    <cfRule type="expression" dxfId="379" priority="608">
       <formula>AND(TODAY()&gt;=JD$5,TODAY()&lt;JE$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JD7:JI17">
-    <cfRule type="expression" dxfId="514" priority="607" stopIfTrue="1">
+    <cfRule type="expression" dxfId="378" priority="607" stopIfTrue="1">
       <formula>AND(task_end&gt;=JD$5,task_start&lt;JE$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JD7:JJ17">
-    <cfRule type="expression" dxfId="513" priority="609">
+    <cfRule type="expression" dxfId="377" priority="609">
       <formula>AND(task_start&lt;=JD$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=JD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JJ5:JJ17">
-    <cfRule type="expression" dxfId="512" priority="610">
+    <cfRule type="expression" dxfId="376" priority="610">
       <formula>AND(TODAY()&gt;=JJ$5,TODAY()&lt;SV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JJ7:JJ17">
-    <cfRule type="expression" dxfId="511" priority="611" stopIfTrue="1">
+    <cfRule type="expression" dxfId="375" priority="611" stopIfTrue="1">
       <formula>AND(task_end&gt;=JJ$5,task_start&lt;SV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JD87:JJ88 JD110:JJ110 JD113:JJ113">
-    <cfRule type="expression" dxfId="510" priority="606">
+    <cfRule type="expression" dxfId="374" priority="606">
       <formula>AND(task_start&lt;=JD$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=JD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JD23:JJ23">
-    <cfRule type="expression" dxfId="509" priority="605">
+    <cfRule type="expression" dxfId="373" priority="605">
       <formula>AND(task_start&lt;=JD$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=JD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JD29:JJ30">
-    <cfRule type="expression" dxfId="508" priority="604">
+    <cfRule type="expression" dxfId="372" priority="604">
       <formula>AND(task_start&lt;=JD$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=JD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JK114:JQ115">
-    <cfRule type="expression" dxfId="507" priority="599">
+    <cfRule type="expression" dxfId="371" priority="599">
       <formula>AND(task_start&lt;=JK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=JK$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JK5:JP17">
-    <cfRule type="expression" dxfId="506" priority="595">
+    <cfRule type="expression" dxfId="370" priority="595">
       <formula>AND(TODAY()&gt;=JK$5,TODAY()&lt;JL$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JK7:JP17">
-    <cfRule type="expression" dxfId="505" priority="594" stopIfTrue="1">
+    <cfRule type="expression" dxfId="369" priority="594" stopIfTrue="1">
       <formula>AND(task_end&gt;=JK$5,task_start&lt;JL$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JK7:JQ17">
-    <cfRule type="expression" dxfId="504" priority="596">
+    <cfRule type="expression" dxfId="368" priority="596">
       <formula>AND(task_start&lt;=JK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=JK$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JQ5:JQ17">
-    <cfRule type="expression" dxfId="503" priority="597">
+    <cfRule type="expression" dxfId="367" priority="597">
       <formula>AND(TODAY()&gt;=JQ$5,TODAY()&lt;TC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JQ7:JQ17">
-    <cfRule type="expression" dxfId="502" priority="598" stopIfTrue="1">
+    <cfRule type="expression" dxfId="366" priority="598" stopIfTrue="1">
       <formula>AND(task_end&gt;=JQ$5,task_start&lt;TC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JK87:JQ88 JK110:JQ110 JK113:JQ113">
-    <cfRule type="expression" dxfId="501" priority="593">
+    <cfRule type="expression" dxfId="365" priority="593">
       <formula>AND(task_start&lt;=JK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=JK$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JK23:JQ23">
-    <cfRule type="expression" dxfId="500" priority="592">
+    <cfRule type="expression" dxfId="364" priority="592">
       <formula>AND(task_start&lt;=JK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=JK$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JK29:JQ30">
-    <cfRule type="expression" dxfId="499" priority="591">
+    <cfRule type="expression" dxfId="363" priority="591">
       <formula>AND(task_start&lt;=JK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=JK$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JR114:JX115">
-    <cfRule type="expression" dxfId="498" priority="586">
+    <cfRule type="expression" dxfId="362" priority="586">
       <formula>AND(task_start&lt;=JR$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=JR$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JR5:JW17">
-    <cfRule type="expression" dxfId="497" priority="582">
+    <cfRule type="expression" dxfId="361" priority="582">
       <formula>AND(TODAY()&gt;=JR$5,TODAY()&lt;JS$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JR7:JW17">
-    <cfRule type="expression" dxfId="496" priority="581" stopIfTrue="1">
+    <cfRule type="expression" dxfId="360" priority="581" stopIfTrue="1">
       <formula>AND(task_end&gt;=JR$5,task_start&lt;JS$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JR7:JX17">
-    <cfRule type="expression" dxfId="495" priority="583">
+    <cfRule type="expression" dxfId="359" priority="583">
       <formula>AND(task_start&lt;=JR$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=JR$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JX5:JX17">
-    <cfRule type="expression" dxfId="494" priority="584">
+    <cfRule type="expression" dxfId="358" priority="584">
       <formula>AND(TODAY()&gt;=JX$5,TODAY()&lt;TJ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JX7:JX17">
-    <cfRule type="expression" dxfId="493" priority="585" stopIfTrue="1">
+    <cfRule type="expression" dxfId="357" priority="585" stopIfTrue="1">
       <formula>AND(task_end&gt;=JX$5,task_start&lt;TJ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JR87:JX88 JR110:JX110 JR113:JX113">
-    <cfRule type="expression" dxfId="492" priority="580">
+    <cfRule type="expression" dxfId="356" priority="580">
       <formula>AND(task_start&lt;=JR$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=JR$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JR23:JX23">
-    <cfRule type="expression" dxfId="491" priority="579">
+    <cfRule type="expression" dxfId="355" priority="579">
       <formula>AND(task_start&lt;=JR$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=JR$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JR29:JX30">
-    <cfRule type="expression" dxfId="490" priority="578">
+    <cfRule type="expression" dxfId="354" priority="578">
       <formula>AND(task_start&lt;=JR$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=JR$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JY114:KE115">
-    <cfRule type="expression" dxfId="489" priority="573">
+    <cfRule type="expression" dxfId="353" priority="573">
       <formula>AND(task_start&lt;=JY$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=JY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JY5:KD17">
-    <cfRule type="expression" dxfId="488" priority="569">
+    <cfRule type="expression" dxfId="352" priority="569">
       <formula>AND(TODAY()&gt;=JY$5,TODAY()&lt;JZ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JY7:KD17">
-    <cfRule type="expression" dxfId="487" priority="568" stopIfTrue="1">
+    <cfRule type="expression" dxfId="351" priority="568" stopIfTrue="1">
       <formula>AND(task_end&gt;=JY$5,task_start&lt;JZ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JY7:KE17">
-    <cfRule type="expression" dxfId="486" priority="570">
+    <cfRule type="expression" dxfId="350" priority="570">
       <formula>AND(task_start&lt;=JY$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=JY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KE5:KE17">
-    <cfRule type="expression" dxfId="485" priority="571">
+    <cfRule type="expression" dxfId="349" priority="571">
       <formula>AND(TODAY()&gt;=KE$5,TODAY()&lt;TQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KE7:KE17">
-    <cfRule type="expression" dxfId="484" priority="572" stopIfTrue="1">
+    <cfRule type="expression" dxfId="348" priority="572" stopIfTrue="1">
       <formula>AND(task_end&gt;=KE$5,task_start&lt;TQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JY87:KE88 JY110:KE110 JY113:KE113">
-    <cfRule type="expression" dxfId="483" priority="567">
+    <cfRule type="expression" dxfId="347" priority="567">
       <formula>AND(task_start&lt;=JY$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=JY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JY23:KE23">
-    <cfRule type="expression" dxfId="482" priority="566">
+    <cfRule type="expression" dxfId="346" priority="566">
       <formula>AND(task_start&lt;=JY$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=JY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JY29:KE30">
-    <cfRule type="expression" dxfId="481" priority="565">
+    <cfRule type="expression" dxfId="345" priority="565">
       <formula>AND(task_start&lt;=JY$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=JY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KF114:KL115">
-    <cfRule type="expression" dxfId="480" priority="560">
+    <cfRule type="expression" dxfId="344" priority="560">
       <formula>AND(task_start&lt;=KF$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=KF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KF5:KK17">
-    <cfRule type="expression" dxfId="479" priority="556">
+    <cfRule type="expression" dxfId="343" priority="556">
       <formula>AND(TODAY()&gt;=KF$5,TODAY()&lt;KG$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KF7:KK17">
-    <cfRule type="expression" dxfId="478" priority="555" stopIfTrue="1">
+    <cfRule type="expression" dxfId="342" priority="555" stopIfTrue="1">
       <formula>AND(task_end&gt;=KF$5,task_start&lt;KG$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KF7:KL17">
-    <cfRule type="expression" dxfId="477" priority="557">
+    <cfRule type="expression" dxfId="341" priority="557">
       <formula>AND(task_start&lt;=KF$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=KF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KL5:KL17">
-    <cfRule type="expression" dxfId="476" priority="558">
+    <cfRule type="expression" dxfId="340" priority="558">
       <formula>AND(TODAY()&gt;=KL$5,TODAY()&lt;TX$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KL7:KL17">
-    <cfRule type="expression" dxfId="475" priority="559" stopIfTrue="1">
+    <cfRule type="expression" dxfId="339" priority="559" stopIfTrue="1">
       <formula>AND(task_end&gt;=KL$5,task_start&lt;TX$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KF87:KL88 KF110:KL110 KF113:KL113">
-    <cfRule type="expression" dxfId="474" priority="554">
+    <cfRule type="expression" dxfId="338" priority="554">
       <formula>AND(task_start&lt;=KF$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=KF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KF23:KL23">
-    <cfRule type="expression" dxfId="473" priority="553">
+    <cfRule type="expression" dxfId="337" priority="553">
       <formula>AND(task_start&lt;=KF$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=KF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KF29:KL30">
-    <cfRule type="expression" dxfId="472" priority="552">
+    <cfRule type="expression" dxfId="336" priority="552">
       <formula>AND(task_start&lt;=KF$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=KF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KM114:KS115">
-    <cfRule type="expression" dxfId="471" priority="547">
+    <cfRule type="expression" dxfId="335" priority="547">
       <formula>AND(task_start&lt;=KM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=KM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KM5:KR17">
-    <cfRule type="expression" dxfId="470" priority="543">
+    <cfRule type="expression" dxfId="334" priority="543">
       <formula>AND(TODAY()&gt;=KM$5,TODAY()&lt;KN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KM7:KR17">
-    <cfRule type="expression" dxfId="469" priority="542" stopIfTrue="1">
+    <cfRule type="expression" dxfId="333" priority="542" stopIfTrue="1">
       <formula>AND(task_end&gt;=KM$5,task_start&lt;KN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KM7:KS17">
-    <cfRule type="expression" dxfId="468" priority="544">
+    <cfRule type="expression" dxfId="332" priority="544">
       <formula>AND(task_start&lt;=KM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=KM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KS5:KS17">
-    <cfRule type="expression" dxfId="467" priority="545">
+    <cfRule type="expression" dxfId="331" priority="545">
       <formula>AND(TODAY()&gt;=KS$5,TODAY()&lt;UE$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KS7:KS17">
-    <cfRule type="expression" dxfId="466" priority="546" stopIfTrue="1">
+    <cfRule type="expression" dxfId="330" priority="546" stopIfTrue="1">
       <formula>AND(task_end&gt;=KS$5,task_start&lt;UE$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KM87:KS88 KM110:KS110 KM113:KS113">
-    <cfRule type="expression" dxfId="465" priority="541">
+    <cfRule type="expression" dxfId="329" priority="541">
       <formula>AND(task_start&lt;=KM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=KM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KM23:KS23">
-    <cfRule type="expression" dxfId="464" priority="540">
+    <cfRule type="expression" dxfId="328" priority="540">
       <formula>AND(task_start&lt;=KM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=KM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KM29:KS30">
-    <cfRule type="expression" dxfId="463" priority="539">
+    <cfRule type="expression" dxfId="327" priority="539">
       <formula>AND(task_start&lt;=KM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=KM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KT114:KZ115">
-    <cfRule type="expression" dxfId="462" priority="534">
+    <cfRule type="expression" dxfId="326" priority="534">
       <formula>AND(task_start&lt;=KT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=KT$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KT5:KY17">
-    <cfRule type="expression" dxfId="461" priority="530">
+    <cfRule type="expression" dxfId="325" priority="530">
       <formula>AND(TODAY()&gt;=KT$5,TODAY()&lt;KU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KT7:KY17">
-    <cfRule type="expression" dxfId="460" priority="529" stopIfTrue="1">
+    <cfRule type="expression" dxfId="324" priority="529" stopIfTrue="1">
       <formula>AND(task_end&gt;=KT$5,task_start&lt;KU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KT7:KZ17">
-    <cfRule type="expression" dxfId="459" priority="531">
+    <cfRule type="expression" dxfId="323" priority="531">
       <formula>AND(task_start&lt;=KT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=KT$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KZ5:KZ17">
-    <cfRule type="expression" dxfId="458" priority="532">
+    <cfRule type="expression" dxfId="322" priority="532">
       <formula>AND(TODAY()&gt;=KZ$5,TODAY()&lt;UL$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KZ7:KZ17">
-    <cfRule type="expression" dxfId="457" priority="533" stopIfTrue="1">
+    <cfRule type="expression" dxfId="321" priority="533" stopIfTrue="1">
       <formula>AND(task_end&gt;=KZ$5,task_start&lt;UL$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KT87:KZ88 KT110:KZ110 KT113:KZ113">
-    <cfRule type="expression" dxfId="456" priority="528">
+    <cfRule type="expression" dxfId="320" priority="528">
       <formula>AND(task_start&lt;=KT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=KT$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KT23:KZ23">
-    <cfRule type="expression" dxfId="455" priority="527">
+    <cfRule type="expression" dxfId="319" priority="527">
       <formula>AND(task_start&lt;=KT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=KT$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KT29:KZ30">
-    <cfRule type="expression" dxfId="454" priority="526">
+    <cfRule type="expression" dxfId="318" priority="526">
       <formula>AND(task_start&lt;=KT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=KT$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LA114:LG115">
-    <cfRule type="expression" dxfId="453" priority="521">
+    <cfRule type="expression" dxfId="317" priority="521">
       <formula>AND(task_start&lt;=LA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=LA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LA5:LF17">
-    <cfRule type="expression" dxfId="452" priority="517">
+    <cfRule type="expression" dxfId="316" priority="517">
       <formula>AND(TODAY()&gt;=LA$5,TODAY()&lt;LB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LA7:LF17">
-    <cfRule type="expression" dxfId="451" priority="516" stopIfTrue="1">
+    <cfRule type="expression" dxfId="315" priority="516" stopIfTrue="1">
       <formula>AND(task_end&gt;=LA$5,task_start&lt;LB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LA7:LG17">
-    <cfRule type="expression" dxfId="450" priority="518">
+    <cfRule type="expression" dxfId="314" priority="518">
       <formula>AND(task_start&lt;=LA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=LA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LG5:LG17">
-    <cfRule type="expression" dxfId="449" priority="519">
+    <cfRule type="expression" dxfId="313" priority="519">
       <formula>AND(TODAY()&gt;=LG$5,TODAY()&lt;US$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LG7:LG17">
-    <cfRule type="expression" dxfId="448" priority="520" stopIfTrue="1">
+    <cfRule type="expression" dxfId="312" priority="520" stopIfTrue="1">
       <formula>AND(task_end&gt;=LG$5,task_start&lt;US$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LA87:LG88 LA110:LG110 LA113:LG113">
-    <cfRule type="expression" dxfId="447" priority="515">
+    <cfRule type="expression" dxfId="311" priority="515">
       <formula>AND(task_start&lt;=LA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=LA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LA23:LG23">
-    <cfRule type="expression" dxfId="446" priority="514">
+    <cfRule type="expression" dxfId="310" priority="514">
       <formula>AND(task_start&lt;=LA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=LA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LA29:LG30">
-    <cfRule type="expression" dxfId="445" priority="513">
+    <cfRule type="expression" dxfId="309" priority="513">
       <formula>AND(task_start&lt;=LA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=LA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LH114:LN115">
-    <cfRule type="expression" dxfId="444" priority="508">
+    <cfRule type="expression" dxfId="308" priority="508">
       <formula>AND(task_start&lt;=LH$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=LH$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LH5:LM17">
-    <cfRule type="expression" dxfId="443" priority="504">
+    <cfRule type="expression" dxfId="307" priority="504">
       <formula>AND(TODAY()&gt;=LH$5,TODAY()&lt;LI$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LH7:LM17">
-    <cfRule type="expression" dxfId="442" priority="503" stopIfTrue="1">
+    <cfRule type="expression" dxfId="306" priority="503" stopIfTrue="1">
       <formula>AND(task_end&gt;=LH$5,task_start&lt;LI$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LH7:LN17">
-    <cfRule type="expression" dxfId="441" priority="505">
+    <cfRule type="expression" dxfId="305" priority="505">
       <formula>AND(task_start&lt;=LH$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=LH$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LN5:LN17">
-    <cfRule type="expression" dxfId="440" priority="506">
+    <cfRule type="expression" dxfId="304" priority="506">
       <formula>AND(TODAY()&gt;=LN$5,TODAY()&lt;UZ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LN7:LN17">
-    <cfRule type="expression" dxfId="439" priority="507" stopIfTrue="1">
+    <cfRule type="expression" dxfId="303" priority="507" stopIfTrue="1">
       <formula>AND(task_end&gt;=LN$5,task_start&lt;UZ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LH87:LN88 LH110:LN110 LH113:LN113">
-    <cfRule type="expression" dxfId="438" priority="502">
+    <cfRule type="expression" dxfId="302" priority="502">
       <formula>AND(task_start&lt;=LH$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=LH$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LH23:LN23">
-    <cfRule type="expression" dxfId="437" priority="501">
+    <cfRule type="expression" dxfId="301" priority="501">
       <formula>AND(task_start&lt;=LH$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=LH$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LH29:LN30">
-    <cfRule type="expression" dxfId="436" priority="500">
+    <cfRule type="expression" dxfId="300" priority="500">
       <formula>AND(task_start&lt;=LH$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=LH$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LO114:LU115">
-    <cfRule type="expression" dxfId="435" priority="495">
+    <cfRule type="expression" dxfId="299" priority="495">
       <formula>AND(task_start&lt;=LO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=LO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LO5:LT17">
-    <cfRule type="expression" dxfId="434" priority="491">
+    <cfRule type="expression" dxfId="298" priority="491">
       <formula>AND(TODAY()&gt;=LO$5,TODAY()&lt;LP$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LO7:LT17">
-    <cfRule type="expression" dxfId="433" priority="490" stopIfTrue="1">
+    <cfRule type="expression" dxfId="297" priority="490" stopIfTrue="1">
       <formula>AND(task_end&gt;=LO$5,task_start&lt;LP$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LO7:LU17">
-    <cfRule type="expression" dxfId="432" priority="492">
+    <cfRule type="expression" dxfId="296" priority="492">
       <formula>AND(task_start&lt;=LO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=LO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LU5:LU17">
-    <cfRule type="expression" dxfId="431" priority="493">
+    <cfRule type="expression" dxfId="295" priority="493">
       <formula>AND(TODAY()&gt;=LU$5,TODAY()&lt;VG$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LU7:LU17">
-    <cfRule type="expression" dxfId="430" priority="494" stopIfTrue="1">
+    <cfRule type="expression" dxfId="294" priority="494" stopIfTrue="1">
       <formula>AND(task_end&gt;=LU$5,task_start&lt;VG$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LO87:LU88 LO110:LU110 LO113:LU113">
-    <cfRule type="expression" dxfId="429" priority="489">
+    <cfRule type="expression" dxfId="293" priority="489">
       <formula>AND(task_start&lt;=LO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=LO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LO23:LU23">
-    <cfRule type="expression" dxfId="428" priority="488">
+    <cfRule type="expression" dxfId="292" priority="488">
       <formula>AND(task_start&lt;=LO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=LO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LO29:LU30">
-    <cfRule type="expression" dxfId="427" priority="487">
+    <cfRule type="expression" dxfId="291" priority="487">
       <formula>AND(task_start&lt;=LO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=LO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LV114:MB115">
-    <cfRule type="expression" dxfId="426" priority="482">
+    <cfRule type="expression" dxfId="290" priority="482">
       <formula>AND(task_start&lt;=LV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=LV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LV5:MA17">
-    <cfRule type="expression" dxfId="425" priority="478">
+    <cfRule type="expression" dxfId="289" priority="478">
       <formula>AND(TODAY()&gt;=LV$5,TODAY()&lt;LW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LV7:MA17">
-    <cfRule type="expression" dxfId="424" priority="477" stopIfTrue="1">
+    <cfRule type="expression" dxfId="288" priority="477" stopIfTrue="1">
       <formula>AND(task_end&gt;=LV$5,task_start&lt;LW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LV7:MB17">
-    <cfRule type="expression" dxfId="423" priority="479">
+    <cfRule type="expression" dxfId="287" priority="479">
       <formula>AND(task_start&lt;=LV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=LV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MB5:MB17">
-    <cfRule type="expression" dxfId="422" priority="480">
+    <cfRule type="expression" dxfId="286" priority="480">
       <formula>AND(TODAY()&gt;=MB$5,TODAY()&lt;VN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MB7:MB17">
-    <cfRule type="expression" dxfId="421" priority="481" stopIfTrue="1">
+    <cfRule type="expression" dxfId="285" priority="481" stopIfTrue="1">
       <formula>AND(task_end&gt;=MB$5,task_start&lt;VN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LV87:MB88 LV110:MB110 LV113:MB113">
-    <cfRule type="expression" dxfId="420" priority="476">
+    <cfRule type="expression" dxfId="284" priority="476">
       <formula>AND(task_start&lt;=LV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=LV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LV23:MB23">
-    <cfRule type="expression" dxfId="419" priority="475">
+    <cfRule type="expression" dxfId="283" priority="475">
       <formula>AND(task_start&lt;=LV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=LV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LV29:MB30">
-    <cfRule type="expression" dxfId="418" priority="474">
+    <cfRule type="expression" dxfId="282" priority="474">
       <formula>AND(task_start&lt;=LV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=LV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MC114:MI115">
-    <cfRule type="expression" dxfId="417" priority="469">
+    <cfRule type="expression" dxfId="281" priority="469">
       <formula>AND(task_start&lt;=MC$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=MC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MC5:MH17">
-    <cfRule type="expression" dxfId="416" priority="465">
+    <cfRule type="expression" dxfId="280" priority="465">
       <formula>AND(TODAY()&gt;=MC$5,TODAY()&lt;MD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MC7:MH17">
-    <cfRule type="expression" dxfId="415" priority="464" stopIfTrue="1">
+    <cfRule type="expression" dxfId="279" priority="464" stopIfTrue="1">
       <formula>AND(task_end&gt;=MC$5,task_start&lt;MD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MC7:MI17">
-    <cfRule type="expression" dxfId="414" priority="466">
+    <cfRule type="expression" dxfId="278" priority="466">
       <formula>AND(task_start&lt;=MC$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=MC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MI5:MI17">
-    <cfRule type="expression" dxfId="413" priority="467">
+    <cfRule type="expression" dxfId="277" priority="467">
       <formula>AND(TODAY()&gt;=MI$5,TODAY()&lt;VU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MI7:MI17">
-    <cfRule type="expression" dxfId="412" priority="468" stopIfTrue="1">
+    <cfRule type="expression" dxfId="276" priority="468" stopIfTrue="1">
       <formula>AND(task_end&gt;=MI$5,task_start&lt;VU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MC87:MI88 MC110:MI110 MC113:MI113">
-    <cfRule type="expression" dxfId="411" priority="463">
+    <cfRule type="expression" dxfId="275" priority="463">
       <formula>AND(task_start&lt;=MC$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=MC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MC23:MI23">
-    <cfRule type="expression" dxfId="410" priority="462">
+    <cfRule type="expression" dxfId="274" priority="462">
       <formula>AND(task_start&lt;=MC$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=MC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MC29:MI30">
-    <cfRule type="expression" dxfId="409" priority="461">
+    <cfRule type="expression" dxfId="273" priority="461">
       <formula>AND(task_start&lt;=MC$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=MC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MJ114:MP115">
-    <cfRule type="expression" dxfId="408" priority="456">
+    <cfRule type="expression" dxfId="272" priority="456">
       <formula>AND(task_start&lt;=MJ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=MJ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MJ5:MO17">
-    <cfRule type="expression" dxfId="407" priority="452">
+    <cfRule type="expression" dxfId="271" priority="452">
       <formula>AND(TODAY()&gt;=MJ$5,TODAY()&lt;MK$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MJ7:MO17">
-    <cfRule type="expression" dxfId="406" priority="451" stopIfTrue="1">
+    <cfRule type="expression" dxfId="270" priority="451" stopIfTrue="1">
       <formula>AND(task_end&gt;=MJ$5,task_start&lt;MK$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MJ7:MP17">
-    <cfRule type="expression" dxfId="405" priority="453">
+    <cfRule type="expression" dxfId="269" priority="453">
       <formula>AND(task_start&lt;=MJ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=MJ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MP5:MP17">
-    <cfRule type="expression" dxfId="404" priority="454">
+    <cfRule type="expression" dxfId="268" priority="454">
       <formula>AND(TODAY()&gt;=MP$5,TODAY()&lt;WB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MP7:MP17">
-    <cfRule type="expression" dxfId="403" priority="455" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="455" stopIfTrue="1">
       <formula>AND(task_end&gt;=MP$5,task_start&lt;WB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MJ87:MP88 MJ110:MP110 MJ113:MP113">
-    <cfRule type="expression" dxfId="402" priority="450">
+    <cfRule type="expression" dxfId="266" priority="450">
       <formula>AND(task_start&lt;=MJ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=MJ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MJ23:MP23">
-    <cfRule type="expression" dxfId="401" priority="449">
+    <cfRule type="expression" dxfId="265" priority="449">
       <formula>AND(task_start&lt;=MJ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=MJ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MJ29:MP30">
-    <cfRule type="expression" dxfId="400" priority="448">
+    <cfRule type="expression" dxfId="264" priority="448">
       <formula>AND(task_start&lt;=MJ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=MJ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MQ114:MW115">
-    <cfRule type="expression" dxfId="399" priority="443">
+    <cfRule type="expression" dxfId="263" priority="443">
       <formula>AND(task_start&lt;=MQ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=MQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MQ5:MV17">
-    <cfRule type="expression" dxfId="398" priority="439">
+    <cfRule type="expression" dxfId="262" priority="439">
       <formula>AND(TODAY()&gt;=MQ$5,TODAY()&lt;MR$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MQ7:MV17">
-    <cfRule type="expression" dxfId="397" priority="438" stopIfTrue="1">
+    <cfRule type="expression" dxfId="261" priority="438" stopIfTrue="1">
       <formula>AND(task_end&gt;=MQ$5,task_start&lt;MR$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MQ7:MW17">
-    <cfRule type="expression" dxfId="396" priority="440">
+    <cfRule type="expression" dxfId="260" priority="440">
       <formula>AND(task_start&lt;=MQ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=MQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MW5:MW17">
-    <cfRule type="expression" dxfId="395" priority="441">
+    <cfRule type="expression" dxfId="259" priority="441">
       <formula>AND(TODAY()&gt;=MW$5,TODAY()&lt;WI$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MW7:MW17">
-    <cfRule type="expression" dxfId="394" priority="442" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="442" stopIfTrue="1">
       <formula>AND(task_end&gt;=MW$5,task_start&lt;WI$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MQ87:MW88 MQ110:MW110 MQ113:MW113">
-    <cfRule type="expression" dxfId="393" priority="437">
+    <cfRule type="expression" dxfId="257" priority="437">
       <formula>AND(task_start&lt;=MQ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=MQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MQ23:MW23">
-    <cfRule type="expression" dxfId="392" priority="436">
+    <cfRule type="expression" dxfId="256" priority="436">
       <formula>AND(task_start&lt;=MQ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=MQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MQ29:MW30">
-    <cfRule type="expression" dxfId="391" priority="435">
+    <cfRule type="expression" dxfId="255" priority="435">
       <formula>AND(task_start&lt;=MQ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=MQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -57966,83 +56434,83 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L34:BG35 BU34:BV35 BI34:BN35 CA34:DY35 EA34:EF35 EH34:EM35 EO34:ET35 EV34:FA35 FC34:FH35 FJ34:FO35 FQ34:FV35 FX34:GC35 GE34:GJ35 GL34:GQ35 GS34:GX35 GZ34:HE35 HG34:HL35 HN34:HS35 HU34:HZ35 IB34:IG35 II34:IN35 IP34:IU35 IW34:JB35 JD34:JI35 JK34:JP35 JR34:JW35 JY34:KD35 KF34:KK35 KM34:KR35 KT34:KY35 LA34:LF35 LH34:LM35 LO34:LT35 LV34:MA35 MC34:MH35 MJ34:MO35 MQ34:MV35 MQ37:MV37 MJ37:MO37 MC37:MH37 LV37:MA37 LO37:LT37 LH37:LM37 LA37:LF37 KT37:KY37 KM37:KR37 KF37:KK37 JY37:KD37 JR37:JW37 JK37:JP37 JD37:JI37 IW37:JB37 IP37:IU37 II37:IN37 IB37:IG37 HU37:HZ37 HN37:HS37 HG37:HL37 GZ37:HE37 GS37:GX37 GL37:GQ37 GE37:GJ37 FX37:GC37 FQ37:FV37 FJ37:FO37 FC37:FH37 EV37:FA37 EO37:ET37 EH37:EM37 EA37:EF37 CA37:DY37 BI37:BN37 BU37:BV37 L37:BG37">
-    <cfRule type="expression" dxfId="390" priority="421">
+    <cfRule type="expression" dxfId="254" priority="421">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L34:MW35 L37:MW37">
-    <cfRule type="expression" dxfId="389" priority="417">
+    <cfRule type="expression" dxfId="253" priority="417">
       <formula>AND(task_start&lt;=L$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH34:BH35 BH37">
-    <cfRule type="expression" dxfId="388" priority="423">
+    <cfRule type="expression" dxfId="252" priority="423">
       <formula>AND(TODAY()&gt;=BH$5,TODAY()&lt;CD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH34:BH35 BH37">
-    <cfRule type="expression" dxfId="387" priority="424" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="424" stopIfTrue="1">
       <formula>AND(task_end&gt;=BH$5,task_start&lt;CD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI34:BN35 L34:BG35 BU34:BV35 CA34:DY35 EA34:EF35 EH34:EM35 EO34:ET35 EV34:FA35 FC34:FH35 FJ34:FO35 FQ34:FV35 FX34:GC35 GE34:GJ35 GL34:GQ35 GS34:GX35 GZ34:HE35 HG34:HL35 HN34:HS35 HU34:HZ35 IB34:IG35 II34:IN35 IP34:IU35 IW34:JB35 JD34:JI35 JK34:JP35 JR34:JW35 JY34:KD35 KF34:KK35 KM34:KR35 KT34:KY35 LA34:LF35 LH34:LM35 LO34:LT35 LV34:MA35 MC34:MH35 MJ34:MO35 MQ34:MV35 MQ37:MV37 MJ37:MO37 MC37:MH37 LV37:MA37 LO37:LT37 LH37:LM37 LA37:LF37 KT37:KY37 KM37:KR37 KF37:KK37 JY37:KD37 JR37:JW37 JK37:JP37 JD37:JI37 IW37:JB37 IP37:IU37 II37:IN37 IB37:IG37 HU37:HZ37 HN37:HS37 HG37:HL37 GZ37:HE37 GS37:GX37 GL37:GQ37 GE37:GJ37 FX37:GC37 FQ37:FV37 FJ37:FO37 FC37:FH37 EV37:FA37 EO37:ET37 EH37:EM37 EA37:EF37 CA37:DY37 BU37:BV37 L37:BG37 BI37:BN37">
-    <cfRule type="expression" dxfId="386" priority="418" stopIfTrue="1">
+    <cfRule type="expression" dxfId="250" priority="418" stopIfTrue="1">
       <formula>AND(task_end&gt;=L$5,task_start&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO34:BO35 BO37">
-    <cfRule type="expression" dxfId="385" priority="419">
+    <cfRule type="expression" dxfId="249" priority="419">
       <formula>AND(TODAY()&gt;=BO$5,TODAY()&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO34:BO35 BO37">
-    <cfRule type="expression" dxfId="384" priority="420" stopIfTrue="1">
+    <cfRule type="expression" dxfId="248" priority="420" stopIfTrue="1">
       <formula>AND(task_end&gt;=BO$5,task_start&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP34:BT35 BP37:BT37">
-    <cfRule type="expression" dxfId="383" priority="429">
+    <cfRule type="expression" dxfId="247" priority="429">
       <formula>AND(TODAY()&gt;=BP$5,TODAY()&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP34:BT35 BP37:BT37">
-    <cfRule type="expression" dxfId="382" priority="430" stopIfTrue="1">
+    <cfRule type="expression" dxfId="246" priority="430" stopIfTrue="1">
       <formula>AND(task_end&gt;=BP$5,task_start&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW34:BX35 BW37:BX37">
-    <cfRule type="expression" dxfId="381" priority="432" stopIfTrue="1">
+    <cfRule type="expression" dxfId="245" priority="432" stopIfTrue="1">
       <formula>AND(task_end&gt;=BW$5,task_start&lt;CA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW34:BX35 BW37:BX37">
-    <cfRule type="expression" dxfId="380" priority="431">
+    <cfRule type="expression" dxfId="244" priority="431">
       <formula>AND(TODAY()&gt;=BW$5,TODAY()&lt;CA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY34:BY35 BY37">
-    <cfRule type="expression" dxfId="379" priority="427">
+    <cfRule type="expression" dxfId="243" priority="427">
       <formula>AND(TODAY()&gt;=BY$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="428" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="428" stopIfTrue="1">
       <formula>AND(task_end&gt;=BY$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ34:BZ35 BZ37">
-    <cfRule type="expression" dxfId="377" priority="425">
+    <cfRule type="expression" dxfId="241" priority="425">
       <formula>AND(TODAY()&gt;=BZ$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="426" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="426" stopIfTrue="1">
       <formula>AND(task_end&gt;=BZ$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DZ34:DZ35 EG34:EG35 EN34:EN35 EU34:EU35 FB34:FB35 FI34:FI35 FP34:FP35 FW34:FW35 GD34:GD35 GK34:GK35 GR34:GR35 GY34:GY35 HF34:HF35 HM34:HM35 HT34:HT35 IA34:IA35 IH34:IH35 IO34:IO35 IV34:IV35 JC34:JC35 JJ34:JJ35 JQ34:JQ35 JX34:JX35 KE34:KE35 KL34:KL35 KS34:KS35 KZ34:KZ35 LG34:LG35 LN34:LN35 LU34:LU35 MB34:MB35 MI34:MI35 MP34:MP35 MW34:MW35 MW37 MP37 MI37 MB37 LU37 LN37 LG37 KZ37 KS37 KL37 KE37 JX37 JQ37 JJ37 JC37 IV37 IO37 IH37 IA37 HT37 HM37 HF37 GY37 GR37 GK37 GD37 FW37 FP37 FI37 FB37 EU37 EN37 EG37 DZ37">
-    <cfRule type="expression" dxfId="375" priority="433">
+    <cfRule type="expression" dxfId="239" priority="433">
       <formula>AND(TODAY()&gt;=DZ$5,TODAY()&lt;MX$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DZ34:DZ35 EG34:EG35 EN34:EN35 EU34:EU35 FB34:FB35 FI34:FI35 FP34:FP35 FW34:FW35 GD34:GD35 GK34:GK35 GR34:GR35 GY34:GY35 HF34:HF35 HM34:HM35 HT34:HT35 IA34:IA35 IH34:IH35 IO34:IO35 IV34:IV35 JC34:JC35 JJ34:JJ35 JQ34:JQ35 JX34:JX35 KE34:KE35 KL34:KL35 KS34:KS35 KZ34:KZ35 LG34:LG35 LN34:LN35 LU34:LU35 MB34:MB35 MI34:MI35 MP34:MP35 MW34:MW35 MW37 MP37 MI37 MB37 LU37 LN37 LG37 KZ37 KS37 KL37 KE37 JX37 JQ37 JJ37 JC37 IV37 IO37 IH37 IA37 HT37 HM37 HF37 GY37 GR37 GK37 GD37 FW37 FP37 FI37 FB37 EU37 EN37 EG37 DZ37">
-    <cfRule type="expression" dxfId="374" priority="434" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="434" stopIfTrue="1">
       <formula>AND(task_end&gt;=DZ$5,task_start&lt;MX$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58075,83 +56543,83 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39:BG42 BU39:BV42 BI39:BN42 CA39:DY42 EA39:EF42 EH39:EM42 EO39:ET42 EV39:FA42 FC39:FH42 FJ39:FO42 FQ39:FV42 FX39:GC42 GE39:GJ42 GL39:GQ42 GS39:GX42 GZ39:HE42 HG39:HL42 HN39:HS42 HU39:HZ42 IB39:IG42 II39:IN42 IP39:IU42 IW39:JB42 JD39:JI42 JK39:JP42 JR39:JW42 JY39:KD42 KF39:KK42 KM39:KR42 KT39:KY42 LA39:LF42 LH39:LM42 LO39:LT42 LV39:MA42 MC39:MH42 MJ39:MO42 MQ39:MV42">
-    <cfRule type="expression" dxfId="373" priority="384">
+    <cfRule type="expression" dxfId="237" priority="384">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39:MW42">
-    <cfRule type="expression" dxfId="372" priority="380">
+    <cfRule type="expression" dxfId="236" priority="380">
       <formula>AND(task_start&lt;=L$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH39:BH42">
-    <cfRule type="expression" dxfId="371" priority="386">
+    <cfRule type="expression" dxfId="235" priority="386">
       <formula>AND(TODAY()&gt;=BH$5,TODAY()&lt;CD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH39:BH42">
-    <cfRule type="expression" dxfId="370" priority="387" stopIfTrue="1">
+    <cfRule type="expression" dxfId="234" priority="387" stopIfTrue="1">
       <formula>AND(task_end&gt;=BH$5,task_start&lt;CD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI39:BN42 L39:BG42 BU39:BV42 CA39:DY42 EA39:EF42 EH39:EM42 EO39:ET42 EV39:FA42 FC39:FH42 FJ39:FO42 FQ39:FV42 FX39:GC42 GE39:GJ42 GL39:GQ42 GS39:GX42 GZ39:HE42 HG39:HL42 HN39:HS42 HU39:HZ42 IB39:IG42 II39:IN42 IP39:IU42 IW39:JB42 JD39:JI42 JK39:JP42 JR39:JW42 JY39:KD42 KF39:KK42 KM39:KR42 KT39:KY42 LA39:LF42 LH39:LM42 LO39:LT42 LV39:MA42 MC39:MH42 MJ39:MO42 MQ39:MV42">
-    <cfRule type="expression" dxfId="369" priority="381" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="381" stopIfTrue="1">
       <formula>AND(task_end&gt;=L$5,task_start&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO39:BO42">
-    <cfRule type="expression" dxfId="368" priority="382">
+    <cfRule type="expression" dxfId="232" priority="382">
       <formula>AND(TODAY()&gt;=BO$5,TODAY()&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO39:BO42">
-    <cfRule type="expression" dxfId="367" priority="383" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="383" stopIfTrue="1">
       <formula>AND(task_end&gt;=BO$5,task_start&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP39:BT42">
-    <cfRule type="expression" dxfId="366" priority="392">
+    <cfRule type="expression" dxfId="230" priority="392">
       <formula>AND(TODAY()&gt;=BP$5,TODAY()&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP39:BT42">
-    <cfRule type="expression" dxfId="365" priority="393" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="393" stopIfTrue="1">
       <formula>AND(task_end&gt;=BP$5,task_start&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW39:BX42">
-    <cfRule type="expression" dxfId="364" priority="395" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="395" stopIfTrue="1">
       <formula>AND(task_end&gt;=BW$5,task_start&lt;CA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW39:BX42">
-    <cfRule type="expression" dxfId="363" priority="394">
+    <cfRule type="expression" dxfId="227" priority="394">
       <formula>AND(TODAY()&gt;=BW$5,TODAY()&lt;CA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY39:BY42">
-    <cfRule type="expression" dxfId="362" priority="390">
+    <cfRule type="expression" dxfId="226" priority="390">
       <formula>AND(TODAY()&gt;=BY$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="391" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="391" stopIfTrue="1">
       <formula>AND(task_end&gt;=BY$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ39:BZ42">
-    <cfRule type="expression" dxfId="360" priority="388">
+    <cfRule type="expression" dxfId="224" priority="388">
       <formula>AND(TODAY()&gt;=BZ$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="359" priority="389" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="389" stopIfTrue="1">
       <formula>AND(task_end&gt;=BZ$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DZ39:DZ42 EG39:EG42 EN39:EN42 EU39:EU42 FB39:FB42 FI39:FI42 FP39:FP42 FW39:FW42 GD39:GD42 GK39:GK42 GR39:GR42 GY39:GY42 HF39:HF42 HM39:HM42 HT39:HT42 IA39:IA42 IH39:IH42 IO39:IO42 IV39:IV42 JC39:JC42 JJ39:JJ42 JQ39:JQ42 JX39:JX42 KE39:KE42 KL39:KL42 KS39:KS42 KZ39:KZ42 LG39:LG42 LN39:LN42 LU39:LU42 MB39:MB42 MI39:MI42 MP39:MP42 MW39:MW42">
-    <cfRule type="expression" dxfId="358" priority="396">
+    <cfRule type="expression" dxfId="222" priority="396">
       <formula>AND(TODAY()&gt;=DZ$5,TODAY()&lt;MX$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DZ39:DZ42 EG39:EG42 EN39:EN42 EU39:EU42 FB39:FB42 FI39:FI42 FP39:FP42 FW39:FW42 GD39:GD42 GK39:GK42 GR39:GR42 GY39:GY42 HF39:HF42 HM39:HM42 HT39:HT42 IA39:IA42 IH39:IH42 IO39:IO42 IV39:IV42 JC39:JC42 JJ39:JJ42 JQ39:JQ42 JX39:JX42 KE39:KE42 KL39:KL42 KS39:KS42 KZ39:KZ42 LG39:LG42 LN39:LN42 LU39:LU42 MB39:MB42 MI39:MI42 MP39:MP42 MW39:MW42">
-    <cfRule type="expression" dxfId="357" priority="397" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="397" stopIfTrue="1">
       <formula>AND(task_end&gt;=DZ$5,task_start&lt;MX$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58170,83 +56638,83 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L59:BG60 BU59:BV60 BI59:BN60 CA59:DY60 EA59:EF60 EH59:EM60 EO59:ET60 EV59:FA60 FC59:FH60 FJ59:FO60 FQ59:FV60 FX59:GC60 GE59:GJ60 GL59:GQ60 GS59:GX60 GZ59:HE60 HG59:HL60 HN59:HS60 HU59:HZ60 IB59:IG60 II59:IN60 IP59:IU60 IW59:JB60 JD59:JI60 JK59:JP60 JR59:JW60 JY59:KD60 KF59:KK60 KM59:KR60 KT59:KY60 LA59:LF60 LH59:LM60 LO59:LT60 LV59:MA60 MC59:MH60 MJ59:MO60 MQ59:MV60">
-    <cfRule type="expression" dxfId="356" priority="365">
+    <cfRule type="expression" dxfId="220" priority="365">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L59:MW60">
-    <cfRule type="expression" dxfId="355" priority="361">
+    <cfRule type="expression" dxfId="219" priority="361">
       <formula>AND(task_start&lt;=L$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH59:BH60">
-    <cfRule type="expression" dxfId="354" priority="367">
+    <cfRule type="expression" dxfId="218" priority="367">
       <formula>AND(TODAY()&gt;=BH$5,TODAY()&lt;CD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH59:BH60">
-    <cfRule type="expression" dxfId="353" priority="368" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="368" stopIfTrue="1">
       <formula>AND(task_end&gt;=BH$5,task_start&lt;CD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI59:BN60 L59:BG60 BU59:BV60 CA59:DY60 EA59:EF60 EH59:EM60 EO59:ET60 EV59:FA60 FC59:FH60 FJ59:FO60 FQ59:FV60 FX59:GC60 GE59:GJ60 GL59:GQ60 GS59:GX60 GZ59:HE60 HG59:HL60 HN59:HS60 HU59:HZ60 IB59:IG60 II59:IN60 IP59:IU60 IW59:JB60 JD59:JI60 JK59:JP60 JR59:JW60 JY59:KD60 KF59:KK60 KM59:KR60 KT59:KY60 LA59:LF60 LH59:LM60 LO59:LT60 LV59:MA60 MC59:MH60 MJ59:MO60 MQ59:MV60">
-    <cfRule type="expression" dxfId="352" priority="362" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="362" stopIfTrue="1">
       <formula>AND(task_end&gt;=L$5,task_start&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO59:BO60">
-    <cfRule type="expression" dxfId="351" priority="363">
+    <cfRule type="expression" dxfId="215" priority="363">
       <formula>AND(TODAY()&gt;=BO$5,TODAY()&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO59:BO60">
-    <cfRule type="expression" dxfId="350" priority="364" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="364" stopIfTrue="1">
       <formula>AND(task_end&gt;=BO$5,task_start&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP59:BT60">
-    <cfRule type="expression" dxfId="349" priority="373">
+    <cfRule type="expression" dxfId="213" priority="373">
       <formula>AND(TODAY()&gt;=BP$5,TODAY()&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP59:BT60">
-    <cfRule type="expression" dxfId="348" priority="374" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="374" stopIfTrue="1">
       <formula>AND(task_end&gt;=BP$5,task_start&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW59:BX60">
-    <cfRule type="expression" dxfId="347" priority="376" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="376" stopIfTrue="1">
       <formula>AND(task_end&gt;=BW$5,task_start&lt;CA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW59:BX60">
-    <cfRule type="expression" dxfId="346" priority="375">
+    <cfRule type="expression" dxfId="210" priority="375">
       <formula>AND(TODAY()&gt;=BW$5,TODAY()&lt;CA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY59:BY60">
-    <cfRule type="expression" dxfId="345" priority="371">
+    <cfRule type="expression" dxfId="209" priority="371">
       <formula>AND(TODAY()&gt;=BY$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="344" priority="372" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="372" stopIfTrue="1">
       <formula>AND(task_end&gt;=BY$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ59:BZ60">
-    <cfRule type="expression" dxfId="343" priority="369">
+    <cfRule type="expression" dxfId="207" priority="369">
       <formula>AND(TODAY()&gt;=BZ$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="370" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="370" stopIfTrue="1">
       <formula>AND(task_end&gt;=BZ$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DZ59:DZ60 EG59:EG60 EN59:EN60 EU59:EU60 FB59:FB60 FI59:FI60 FP59:FP60 FW59:FW60 GD59:GD60 GK59:GK60 GR59:GR60 GY59:GY60 HF59:HF60 HM59:HM60 HT59:HT60 IA59:IA60 IH59:IH60 IO59:IO60 IV59:IV60 JC59:JC60 JJ59:JJ60 JQ59:JQ60 JX59:JX60 KE59:KE60 KL59:KL60 KS59:KS60 KZ59:KZ60 LG59:LG60 LN59:LN60 LU59:LU60 MB59:MB60 MI59:MI60 MP59:MP60 MW59:MW60">
-    <cfRule type="expression" dxfId="341" priority="377">
+    <cfRule type="expression" dxfId="205" priority="377">
       <formula>AND(TODAY()&gt;=DZ$5,TODAY()&lt;MX$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DZ59:DZ60 EG59:EG60 EN59:EN60 EU59:EU60 FB59:FB60 FI59:FI60 FP59:FP60 FW59:FW60 GD59:GD60 GK59:GK60 GR59:GR60 GY59:GY60 HF59:HF60 HM59:HM60 HT59:HT60 IA59:IA60 IH59:IH60 IO59:IO60 IV59:IV60 JC59:JC60 JJ59:JJ60 JQ59:JQ60 JX59:JX60 KE59:KE60 KL59:KL60 KS59:KS60 KZ59:KZ60 LG59:LG60 LN59:LN60 LU59:LU60 MB59:MB60 MI59:MI60 MP59:MP60 MW59:MW60">
-    <cfRule type="expression" dxfId="340" priority="378" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="378" stopIfTrue="1">
       <formula>AND(task_end&gt;=DZ$5,task_start&lt;MX$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58265,83 +56733,83 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MQ44:MV46 MJ44:MO46 MC44:MH46 LV44:MA46 LO44:LT46 LH44:LM46 LA44:LF46 KT44:KY46 KM44:KR46 KF44:KK46 JY44:KD46 JR44:JW46 JK44:JP46 JD44:JI46 IW44:JB46 IP44:IU46 II44:IN46 IB44:IG46 HU44:HZ46 HN44:HS46 HG44:HL46 GZ44:HE46 GS44:GX46 GL44:GQ46 GE44:GJ46 FX44:GC46 FQ44:FV46 FJ44:FO46 FC44:FH46 EV44:FA46 EO44:ET46 EH44:EM46 EA44:EF46 CA44:DY46 BI44:BN46 BU44:BV46 L44:BG46">
-    <cfRule type="expression" dxfId="339" priority="347">
+    <cfRule type="expression" dxfId="203" priority="347">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L44:MW46">
-    <cfRule type="expression" dxfId="338" priority="343">
+    <cfRule type="expression" dxfId="202" priority="343">
       <formula>AND(task_start&lt;=L$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH44:BH46">
-    <cfRule type="expression" dxfId="337" priority="349">
+    <cfRule type="expression" dxfId="201" priority="349">
       <formula>AND(TODAY()&gt;=BH$5,TODAY()&lt;CD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH44:BH46">
-    <cfRule type="expression" dxfId="336" priority="350" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="350" stopIfTrue="1">
       <formula>AND(task_end&gt;=BH$5,task_start&lt;CD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MQ44:MV46 MJ44:MO46 MC44:MH46 LV44:MA46 LO44:LT46 LH44:LM46 LA44:LF46 KT44:KY46 KM44:KR46 KF44:KK46 JY44:KD46 JR44:JW46 JK44:JP46 JD44:JI46 IW44:JB46 IP44:IU46 II44:IN46 IB44:IG46 HU44:HZ46 HN44:HS46 HG44:HL46 GZ44:HE46 GS44:GX46 GL44:GQ46 GE44:GJ46 FX44:GC46 FQ44:FV46 FJ44:FO46 FC44:FH46 EV44:FA46 EO44:ET46 EH44:EM46 EA44:EF46 CA44:DY46 BU44:BV46 L44:BG46 BI44:BN46">
-    <cfRule type="expression" dxfId="335" priority="344" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="344" stopIfTrue="1">
       <formula>AND(task_end&gt;=L$5,task_start&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO44:BO46">
-    <cfRule type="expression" dxfId="334" priority="345">
+    <cfRule type="expression" dxfId="198" priority="345">
       <formula>AND(TODAY()&gt;=BO$5,TODAY()&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO44:BO46">
-    <cfRule type="expression" dxfId="333" priority="346" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="346" stopIfTrue="1">
       <formula>AND(task_end&gt;=BO$5,task_start&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP44:BT46">
-    <cfRule type="expression" dxfId="332" priority="355">
+    <cfRule type="expression" dxfId="196" priority="355">
       <formula>AND(TODAY()&gt;=BP$5,TODAY()&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP44:BT46">
-    <cfRule type="expression" dxfId="331" priority="356" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="356" stopIfTrue="1">
       <formula>AND(task_end&gt;=BP$5,task_start&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW44:BX46">
-    <cfRule type="expression" dxfId="330" priority="358" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="358" stopIfTrue="1">
       <formula>AND(task_end&gt;=BW$5,task_start&lt;CA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW44:BX46">
-    <cfRule type="expression" dxfId="329" priority="357">
+    <cfRule type="expression" dxfId="193" priority="357">
       <formula>AND(TODAY()&gt;=BW$5,TODAY()&lt;CA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY44:BY46">
-    <cfRule type="expression" dxfId="328" priority="353">
+    <cfRule type="expression" dxfId="192" priority="353">
       <formula>AND(TODAY()&gt;=BY$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="354" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="354" stopIfTrue="1">
       <formula>AND(task_end&gt;=BY$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ44:BZ46">
-    <cfRule type="expression" dxfId="326" priority="351">
+    <cfRule type="expression" dxfId="190" priority="351">
       <formula>AND(TODAY()&gt;=BZ$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="352" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="352" stopIfTrue="1">
       <formula>AND(task_end&gt;=BZ$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MW44:MW46 MP44:MP46 MI44:MI46 MB44:MB46 LU44:LU46 LN44:LN46 LG44:LG46 KZ44:KZ46 KS44:KS46 KL44:KL46 KE44:KE46 JX44:JX46 JQ44:JQ46 JJ44:JJ46 JC44:JC46 IV44:IV46 IO44:IO46 IH44:IH46 IA44:IA46 HT44:HT46 HM44:HM46 HF44:HF46 GY44:GY46 GR44:GR46 GK44:GK46 GD44:GD46 FW44:FW46 FP44:FP46 FI44:FI46 FB44:FB46 EU44:EU46 EN44:EN46 EG44:EG46 DZ44:DZ46">
-    <cfRule type="expression" dxfId="324" priority="359">
+    <cfRule type="expression" dxfId="188" priority="359">
       <formula>AND(TODAY()&gt;=DZ$5,TODAY()&lt;MX$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MW44:MW46 MP44:MP46 MI44:MI46 MB44:MB46 LU44:LU46 LN44:LN46 LG44:LG46 KZ44:KZ46 KS44:KS46 KL44:KL46 KE44:KE46 JX44:JX46 JQ44:JQ46 JJ44:JJ46 JC44:JC46 IV44:IV46 IO44:IO46 IH44:IH46 IA44:IA46 HT44:HT46 HM44:HM46 HF44:HF46 GY44:GY46 GR44:GR46 GK44:GK46 GD44:GD46 FW44:FW46 FP44:FP46 FI44:FI46 FB44:FB46 EU44:EU46 EN44:EN46 EG44:EG46 DZ44:DZ46">
-    <cfRule type="expression" dxfId="323" priority="360" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="360" stopIfTrue="1">
       <formula>AND(task_end&gt;=DZ$5,task_start&lt;MX$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58360,83 +56828,83 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MQ98:MV101 MJ98:MO101 MC98:MH101 LV98:MA101 LO98:LT101 LH98:LM101 LA98:LF101 KT98:KY101 KM98:KR101 KF98:KK101 JY98:KD101 JR98:JW101 JK98:JP101 JD98:JI101 IW98:JB101 IP98:IU101 II98:IN101 IB98:IG101 HU98:HZ101 HN98:HS101 HG98:HL101 GZ98:HE101 GS98:GX101 GL98:GQ101 GE98:GJ101 FX98:GC101 FQ98:FV101 FJ98:FO101 FC98:FH101 EV98:FA101 EO98:ET101 EH98:EM101 EA98:EF101 CA98:DY101 BI98:BN101 BU98:BV101 L98:BG101">
-    <cfRule type="expression" dxfId="322" priority="329">
+    <cfRule type="expression" dxfId="186" priority="329">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L98:MW101">
-    <cfRule type="expression" dxfId="321" priority="325">
+    <cfRule type="expression" dxfId="185" priority="325">
       <formula>AND(task_start&lt;=L$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH98:BH101">
-    <cfRule type="expression" dxfId="320" priority="331">
+    <cfRule type="expression" dxfId="184" priority="331">
       <formula>AND(TODAY()&gt;=BH$5,TODAY()&lt;CD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH98:BH101">
-    <cfRule type="expression" dxfId="319" priority="332" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="332" stopIfTrue="1">
       <formula>AND(task_end&gt;=BH$5,task_start&lt;CD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MQ98:MV101 MJ98:MO101 MC98:MH101 LV98:MA101 LO98:LT101 LH98:LM101 LA98:LF101 KT98:KY101 KM98:KR101 KF98:KK101 JY98:KD101 JR98:JW101 JK98:JP101 JD98:JI101 IW98:JB101 IP98:IU101 II98:IN101 IB98:IG101 HU98:HZ101 HN98:HS101 HG98:HL101 GZ98:HE101 GS98:GX101 GL98:GQ101 GE98:GJ101 FX98:GC101 FQ98:FV101 FJ98:FO101 FC98:FH101 EV98:FA101 EO98:ET101 EH98:EM101 EA98:EF101 CA98:DY101 BU98:BV101 L98:BG101 BI98:BN101">
-    <cfRule type="expression" dxfId="318" priority="326" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="326" stopIfTrue="1">
       <formula>AND(task_end&gt;=L$5,task_start&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO98:BO101">
-    <cfRule type="expression" dxfId="317" priority="327">
+    <cfRule type="expression" dxfId="181" priority="327">
       <formula>AND(TODAY()&gt;=BO$5,TODAY()&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO98:BO101">
-    <cfRule type="expression" dxfId="316" priority="328" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="328" stopIfTrue="1">
       <formula>AND(task_end&gt;=BO$5,task_start&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP98:BT101">
-    <cfRule type="expression" dxfId="315" priority="337">
+    <cfRule type="expression" dxfId="179" priority="337">
       <formula>AND(TODAY()&gt;=BP$5,TODAY()&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP98:BT101">
-    <cfRule type="expression" dxfId="314" priority="338" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="338" stopIfTrue="1">
       <formula>AND(task_end&gt;=BP$5,task_start&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW98:BX101">
-    <cfRule type="expression" dxfId="313" priority="340" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="340" stopIfTrue="1">
       <formula>AND(task_end&gt;=BW$5,task_start&lt;CA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW98:BX101">
-    <cfRule type="expression" dxfId="312" priority="339">
+    <cfRule type="expression" dxfId="176" priority="339">
       <formula>AND(TODAY()&gt;=BW$5,TODAY()&lt;CA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY98:BY101">
-    <cfRule type="expression" dxfId="311" priority="335">
+    <cfRule type="expression" dxfId="175" priority="335">
       <formula>AND(TODAY()&gt;=BY$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="336" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="336" stopIfTrue="1">
       <formula>AND(task_end&gt;=BY$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ98:BZ101">
-    <cfRule type="expression" dxfId="309" priority="333">
+    <cfRule type="expression" dxfId="173" priority="333">
       <formula>AND(TODAY()&gt;=BZ$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="334" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="334" stopIfTrue="1">
       <formula>AND(task_end&gt;=BZ$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MW98:MW101 MP98:MP101 MI98:MI101 MB98:MB101 LU98:LU101 LN98:LN101 LG98:LG101 KZ98:KZ101 KS98:KS101 KL98:KL101 KE98:KE101 JX98:JX101 JQ98:JQ101 JJ98:JJ101 JC98:JC101 IV98:IV101 IO98:IO101 IH98:IH101 IA98:IA101 HT98:HT101 HM98:HM101 HF98:HF101 GY98:GY101 GR98:GR101 GK98:GK101 GD98:GD101 FW98:FW101 FP98:FP101 FI98:FI101 FB98:FB101 EU98:EU101 EN98:EN101 EG98:EG101 DZ98:DZ101">
-    <cfRule type="expression" dxfId="307" priority="341">
+    <cfRule type="expression" dxfId="171" priority="341">
       <formula>AND(TODAY()&gt;=DZ$5,TODAY()&lt;MX$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MW98:MW101 MP98:MP101 MI98:MI101 MB98:MB101 LU98:LU101 LN98:LN101 LG98:LG101 KZ98:KZ101 KS98:KS101 KL98:KL101 KE98:KE101 JX98:JX101 JQ98:JQ101 JJ98:JJ101 JC98:JC101 IV98:IV101 IO98:IO101 IH98:IH101 IA98:IA101 HT98:HT101 HM98:HM101 HF98:HF101 GY98:GY101 GR98:GR101 GK98:GK101 GD98:GD101 FW98:FW101 FP98:FP101 FI98:FI101 FB98:FB101 EU98:EU101 EN98:EN101 EG98:EG101 DZ98:DZ101">
-    <cfRule type="expression" dxfId="306" priority="342" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="342" stopIfTrue="1">
       <formula>AND(task_end&gt;=DZ$5,task_start&lt;MX$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58455,83 +56923,83 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MQ104:MV105 MJ104:MO105 MC104:MH105 LV104:MA105 LO104:LT105 LH104:LM105 LA104:LF105 KT104:KY105 KM104:KR105 KF104:KK105 JY104:KD105 JR104:JW105 JK104:JP105 JD104:JI105 IW104:JB105 IP104:IU105 II104:IN105 IB104:IG105 HU104:HZ105 HN104:HS105 HG104:HL105 GZ104:HE105 GS104:GX105 GL104:GQ105 GE104:GJ105 FX104:GC105 FQ104:FV105 FJ104:FO105 FC104:FH105 EV104:FA105 EO104:ET105 EH104:EM105 EA104:EF105 CA104:DY105 BI104:BN105 BU104:BV105 L104:BG105">
-    <cfRule type="expression" dxfId="305" priority="311">
+    <cfRule type="expression" dxfId="169" priority="311">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L104:MW105">
-    <cfRule type="expression" dxfId="304" priority="307">
+    <cfRule type="expression" dxfId="168" priority="307">
       <formula>AND(task_start&lt;=L$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH104:BH105">
-    <cfRule type="expression" dxfId="303" priority="313">
+    <cfRule type="expression" dxfId="167" priority="313">
       <formula>AND(TODAY()&gt;=BH$5,TODAY()&lt;CD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH104:BH105">
-    <cfRule type="expression" dxfId="302" priority="314" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="314" stopIfTrue="1">
       <formula>AND(task_end&gt;=BH$5,task_start&lt;CD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MQ104:MV105 MJ104:MO105 MC104:MH105 LV104:MA105 LO104:LT105 LH104:LM105 LA104:LF105 KT104:KY105 KM104:KR105 KF104:KK105 JY104:KD105 JR104:JW105 JK104:JP105 JD104:JI105 IW104:JB105 IP104:IU105 II104:IN105 IB104:IG105 HU104:HZ105 HN104:HS105 HG104:HL105 GZ104:HE105 GS104:GX105 GL104:GQ105 GE104:GJ105 FX104:GC105 FQ104:FV105 FJ104:FO105 FC104:FH105 EV104:FA105 EO104:ET105 EH104:EM105 EA104:EF105 CA104:DY105 BU104:BV105 L104:BG105 BI104:BN105">
-    <cfRule type="expression" dxfId="301" priority="308" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="308" stopIfTrue="1">
       <formula>AND(task_end&gt;=L$5,task_start&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO104:BO105">
-    <cfRule type="expression" dxfId="300" priority="309">
+    <cfRule type="expression" dxfId="164" priority="309">
       <formula>AND(TODAY()&gt;=BO$5,TODAY()&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO104:BO105">
-    <cfRule type="expression" dxfId="299" priority="310" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="310" stopIfTrue="1">
       <formula>AND(task_end&gt;=BO$5,task_start&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP104:BT105">
-    <cfRule type="expression" dxfId="298" priority="319">
+    <cfRule type="expression" dxfId="162" priority="319">
       <formula>AND(TODAY()&gt;=BP$5,TODAY()&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP104:BT105">
-    <cfRule type="expression" dxfId="297" priority="320" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="320" stopIfTrue="1">
       <formula>AND(task_end&gt;=BP$5,task_start&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW104:BX105">
-    <cfRule type="expression" dxfId="296" priority="322" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="322" stopIfTrue="1">
       <formula>AND(task_end&gt;=BW$5,task_start&lt;CA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW104:BX105">
-    <cfRule type="expression" dxfId="295" priority="321">
+    <cfRule type="expression" dxfId="159" priority="321">
       <formula>AND(TODAY()&gt;=BW$5,TODAY()&lt;CA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY104:BY105">
-    <cfRule type="expression" dxfId="294" priority="317">
+    <cfRule type="expression" dxfId="158" priority="317">
       <formula>AND(TODAY()&gt;=BY$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="318" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="318" stopIfTrue="1">
       <formula>AND(task_end&gt;=BY$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ104:BZ105">
-    <cfRule type="expression" dxfId="292" priority="315">
+    <cfRule type="expression" dxfId="156" priority="315">
       <formula>AND(TODAY()&gt;=BZ$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="316" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="316" stopIfTrue="1">
       <formula>AND(task_end&gt;=BZ$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MW104:MW105 MP104:MP105 MI104:MI105 MB104:MB105 LU104:LU105 LN104:LN105 LG104:LG105 KZ104:KZ105 KS104:KS105 KL104:KL105 KE104:KE105 JX104:JX105 JQ104:JQ105 JJ104:JJ105 JC104:JC105 IV104:IV105 IO104:IO105 IH104:IH105 IA104:IA105 HT104:HT105 HM104:HM105 HF104:HF105 GY104:GY105 GR104:GR105 GK104:GK105 GD104:GD105 FW104:FW105 FP104:FP105 FI104:FI105 FB104:FB105 EU104:EU105 EN104:EN105 EG104:EG105 DZ104:DZ105">
-    <cfRule type="expression" dxfId="290" priority="323">
+    <cfRule type="expression" dxfId="154" priority="323">
       <formula>AND(TODAY()&gt;=DZ$5,TODAY()&lt;MX$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MW104:MW105 MP104:MP105 MI104:MI105 MB104:MB105 LU104:LU105 LN104:LN105 LG104:LG105 KZ104:KZ105 KS104:KS105 KL104:KL105 KE104:KE105 JX104:JX105 JQ104:JQ105 JJ104:JJ105 JC104:JC105 IV104:IV105 IO104:IO105 IH104:IH105 IA104:IA105 HT104:HT105 HM104:HM105 HF104:HF105 GY104:GY105 GR104:GR105 GK104:GK105 GD104:GD105 FW104:FW105 FP104:FP105 FI104:FI105 FB104:FB105 EU104:EU105 EN104:EN105 EG104:EG105 DZ104:DZ105">
-    <cfRule type="expression" dxfId="289" priority="324" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="324" stopIfTrue="1">
       <formula>AND(task_end&gt;=DZ$5,task_start&lt;MX$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58550,83 +57018,83 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MQ106:MV107 MJ106:MO107 MC106:MH107 LV106:MA107 LO106:LT107 LH106:LM107 LA106:LF107 KT106:KY107 KM106:KR107 KF106:KK107 JY106:KD107 JR106:JW107 JK106:JP107 JD106:JI107 IW106:JB107 IP106:IU107 II106:IN107 IB106:IG107 HU106:HZ107 HN106:HS107 HG106:HL107 GZ106:HE107 GS106:GX107 GL106:GQ107 GE106:GJ107 FX106:GC107 FQ106:FV107 FJ106:FO107 FC106:FH107 EV106:FA107 EO106:ET107 EH106:EM107 EA106:EF107 CA106:DY107 BI106:BN107 BU106:BV107 L106:BG107">
-    <cfRule type="expression" dxfId="288" priority="293">
+    <cfRule type="expression" dxfId="152" priority="293">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L106:MW107">
-    <cfRule type="expression" dxfId="287" priority="289">
+    <cfRule type="expression" dxfId="151" priority="289">
       <formula>AND(task_start&lt;=L$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH106:BH107">
-    <cfRule type="expression" dxfId="286" priority="295">
+    <cfRule type="expression" dxfId="150" priority="295">
       <formula>AND(TODAY()&gt;=BH$5,TODAY()&lt;CD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH106:BH107">
-    <cfRule type="expression" dxfId="285" priority="296" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="296" stopIfTrue="1">
       <formula>AND(task_end&gt;=BH$5,task_start&lt;CD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MQ106:MV107 MJ106:MO107 MC106:MH107 LV106:MA107 LO106:LT107 LH106:LM107 LA106:LF107 KT106:KY107 KM106:KR107 KF106:KK107 JY106:KD107 JR106:JW107 JK106:JP107 JD106:JI107 IW106:JB107 IP106:IU107 II106:IN107 IB106:IG107 HU106:HZ107 HN106:HS107 HG106:HL107 GZ106:HE107 GS106:GX107 GL106:GQ107 GE106:GJ107 FX106:GC107 FQ106:FV107 FJ106:FO107 FC106:FH107 EV106:FA107 EO106:ET107 EH106:EM107 EA106:EF107 CA106:DY107 BU106:BV107 L106:BG107 BI106:BN107">
-    <cfRule type="expression" dxfId="284" priority="290" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="290" stopIfTrue="1">
       <formula>AND(task_end&gt;=L$5,task_start&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO106:BO107">
-    <cfRule type="expression" dxfId="283" priority="291">
+    <cfRule type="expression" dxfId="147" priority="291">
       <formula>AND(TODAY()&gt;=BO$5,TODAY()&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO106:BO107">
-    <cfRule type="expression" dxfId="282" priority="292" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="292" stopIfTrue="1">
       <formula>AND(task_end&gt;=BO$5,task_start&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP106:BT107">
-    <cfRule type="expression" dxfId="281" priority="301">
+    <cfRule type="expression" dxfId="145" priority="301">
       <formula>AND(TODAY()&gt;=BP$5,TODAY()&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP106:BT107">
-    <cfRule type="expression" dxfId="280" priority="302" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="302" stopIfTrue="1">
       <formula>AND(task_end&gt;=BP$5,task_start&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW106:BX107">
-    <cfRule type="expression" dxfId="279" priority="304" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="304" stopIfTrue="1">
       <formula>AND(task_end&gt;=BW$5,task_start&lt;CA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW106:BX107">
-    <cfRule type="expression" dxfId="278" priority="303">
+    <cfRule type="expression" dxfId="142" priority="303">
       <formula>AND(TODAY()&gt;=BW$5,TODAY()&lt;CA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY106:BY107">
-    <cfRule type="expression" dxfId="277" priority="299">
+    <cfRule type="expression" dxfId="141" priority="299">
       <formula>AND(TODAY()&gt;=BY$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="300" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="300" stopIfTrue="1">
       <formula>AND(task_end&gt;=BY$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ106:BZ107">
-    <cfRule type="expression" dxfId="275" priority="297">
+    <cfRule type="expression" dxfId="139" priority="297">
       <formula>AND(TODAY()&gt;=BZ$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="298" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="298" stopIfTrue="1">
       <formula>AND(task_end&gt;=BZ$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MW106:MW107 MP106:MP107 MI106:MI107 MB106:MB107 LU106:LU107 LN106:LN107 LG106:LG107 KZ106:KZ107 KS106:KS107 KL106:KL107 KE106:KE107 JX106:JX107 JQ106:JQ107 JJ106:JJ107 JC106:JC107 IV106:IV107 IO106:IO107 IH106:IH107 IA106:IA107 HT106:HT107 HM106:HM107 HF106:HF107 GY106:GY107 GR106:GR107 GK106:GK107 GD106:GD107 FW106:FW107 FP106:FP107 FI106:FI107 FB106:FB107 EU106:EU107 EN106:EN107 EG106:EG107 DZ106:DZ107">
-    <cfRule type="expression" dxfId="273" priority="305">
+    <cfRule type="expression" dxfId="137" priority="305">
       <formula>AND(TODAY()&gt;=DZ$5,TODAY()&lt;MX$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MW106:MW107 MP106:MP107 MI106:MI107 MB106:MB107 LU106:LU107 LN106:LN107 LG106:LG107 KZ106:KZ107 KS106:KS107 KL106:KL107 KE106:KE107 JX106:JX107 JQ106:JQ107 JJ106:JJ107 JC106:JC107 IV106:IV107 IO106:IO107 IH106:IH107 IA106:IA107 HT106:HT107 HM106:HM107 HF106:HF107 GY106:GY107 GR106:GR107 GK106:GK107 GD106:GD107 FW106:FW107 FP106:FP107 FI106:FI107 FB106:FB107 EU106:EU107 EN106:EN107 EG106:EG107 DZ106:DZ107">
-    <cfRule type="expression" dxfId="272" priority="306" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="306" stopIfTrue="1">
       <formula>AND(task_end&gt;=DZ$5,task_start&lt;MX$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58645,83 +57113,83 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MQ102:MV103 MJ102:MO103 MC102:MH103 LV102:MA103 LO102:LT103 LH102:LM103 LA102:LF103 KT102:KY103 KM102:KR103 KF102:KK103 JY102:KD103 JR102:JW103 JK102:JP103 JD102:JI103 IW102:JB103 IP102:IU103 II102:IN103 IB102:IG103 HU102:HZ103 HN102:HS103 HG102:HL103 GZ102:HE103 GS102:GX103 GL102:GQ103 GE102:GJ103 FX102:GC103 FQ102:FV103 FJ102:FO103 FC102:FH103 EV102:FA103 EO102:ET103 EH102:EM103 EA102:EF103 CA102:DY103 BI102:BN103 BU102:BV103 L102:BG103">
-    <cfRule type="expression" dxfId="271" priority="275">
+    <cfRule type="expression" dxfId="135" priority="275">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L102:MW103">
-    <cfRule type="expression" dxfId="270" priority="271">
+    <cfRule type="expression" dxfId="134" priority="271">
       <formula>AND(task_start&lt;=L$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH102:BH103">
-    <cfRule type="expression" dxfId="269" priority="277">
+    <cfRule type="expression" dxfId="133" priority="277">
       <formula>AND(TODAY()&gt;=BH$5,TODAY()&lt;CD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH102:BH103">
-    <cfRule type="expression" dxfId="268" priority="278" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="278" stopIfTrue="1">
       <formula>AND(task_end&gt;=BH$5,task_start&lt;CD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MQ102:MV103 MJ102:MO103 MC102:MH103 LV102:MA103 LO102:LT103 LH102:LM103 LA102:LF103 KT102:KY103 KM102:KR103 KF102:KK103 JY102:KD103 JR102:JW103 JK102:JP103 JD102:JI103 IW102:JB103 IP102:IU103 II102:IN103 IB102:IG103 HU102:HZ103 HN102:HS103 HG102:HL103 GZ102:HE103 GS102:GX103 GL102:GQ103 GE102:GJ103 FX102:GC103 FQ102:FV103 FJ102:FO103 FC102:FH103 EV102:FA103 EO102:ET103 EH102:EM103 EA102:EF103 CA102:DY103 BU102:BV103 L102:BG103 BI102:BN103">
-    <cfRule type="expression" dxfId="267" priority="272" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="272" stopIfTrue="1">
       <formula>AND(task_end&gt;=L$5,task_start&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO102:BO103">
-    <cfRule type="expression" dxfId="266" priority="273">
+    <cfRule type="expression" dxfId="130" priority="273">
       <formula>AND(TODAY()&gt;=BO$5,TODAY()&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO102:BO103">
-    <cfRule type="expression" dxfId="265" priority="274" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="274" stopIfTrue="1">
       <formula>AND(task_end&gt;=BO$5,task_start&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP102:BT103">
-    <cfRule type="expression" dxfId="264" priority="283">
+    <cfRule type="expression" dxfId="128" priority="283">
       <formula>AND(TODAY()&gt;=BP$5,TODAY()&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP102:BT103">
-    <cfRule type="expression" dxfId="263" priority="284" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="284" stopIfTrue="1">
       <formula>AND(task_end&gt;=BP$5,task_start&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW102:BX103">
-    <cfRule type="expression" dxfId="262" priority="286" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="286" stopIfTrue="1">
       <formula>AND(task_end&gt;=BW$5,task_start&lt;CA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW102:BX103">
-    <cfRule type="expression" dxfId="261" priority="285">
+    <cfRule type="expression" dxfId="125" priority="285">
       <formula>AND(TODAY()&gt;=BW$5,TODAY()&lt;CA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY102:BY103">
-    <cfRule type="expression" dxfId="260" priority="281">
+    <cfRule type="expression" dxfId="124" priority="281">
       <formula>AND(TODAY()&gt;=BY$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="282" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="282" stopIfTrue="1">
       <formula>AND(task_end&gt;=BY$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ102:BZ103">
-    <cfRule type="expression" dxfId="258" priority="279">
+    <cfRule type="expression" dxfId="122" priority="279">
       <formula>AND(TODAY()&gt;=BZ$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="257" priority="280" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="280" stopIfTrue="1">
       <formula>AND(task_end&gt;=BZ$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MW102:MW103 MP102:MP103 MI102:MI103 MB102:MB103 LU102:LU103 LN102:LN103 LG102:LG103 KZ102:KZ103 KS102:KS103 KL102:KL103 KE102:KE103 JX102:JX103 JQ102:JQ103 JJ102:JJ103 JC102:JC103 IV102:IV103 IO102:IO103 IH102:IH103 IA102:IA103 HT102:HT103 HM102:HM103 HF102:HF103 GY102:GY103 GR102:GR103 GK102:GK103 GD102:GD103 FW102:FW103 FP102:FP103 FI102:FI103 FB102:FB103 EU102:EU103 EN102:EN103 EG102:EG103 DZ102:DZ103">
-    <cfRule type="expression" dxfId="256" priority="287">
+    <cfRule type="expression" dxfId="120" priority="287">
       <formula>AND(TODAY()&gt;=DZ$5,TODAY()&lt;MX$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MW102:MW103 MP102:MP103 MI102:MI103 MB102:MB103 LU102:LU103 LN102:LN103 LG102:LG103 KZ102:KZ103 KS102:KS103 KL102:KL103 KE102:KE103 JX102:JX103 JQ102:JQ103 JJ102:JJ103 JC102:JC103 IV102:IV103 IO102:IO103 IH102:IH103 IA102:IA103 HT102:HT103 HM102:HM103 HF102:HF103 GY102:GY103 GR102:GR103 GK102:GK103 GD102:GD103 FW102:FW103 FP102:FP103 FI102:FI103 FB102:FB103 EU102:EU103 EN102:EN103 EG102:EG103 DZ102:DZ103">
-    <cfRule type="expression" dxfId="255" priority="288" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="288" stopIfTrue="1">
       <formula>AND(task_end&gt;=DZ$5,task_start&lt;MX$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58740,83 +57208,83 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MQ96:MV97 MJ96:MO97 MC96:MH97 LV96:MA97 LO96:LT97 LH96:LM97 LA96:LF97 KT96:KY97 KM96:KR97 KF96:KK97 JY96:KD97 JR96:JW97 JK96:JP97 JD96:JI97 IW96:JB97 IP96:IU97 II96:IN97 IB96:IG97 HU96:HZ97 HN96:HS97 HG96:HL97 GZ96:HE97 GS96:GX97 GL96:GQ97 GE96:GJ97 FX96:GC97 FQ96:FV97 FJ96:FO97 FC96:FH97 EV96:FA97 EO96:ET97 EH96:EM97 EA96:EF97 CA96:DY97 BI96:BN97 BU96:BV97 L96:BG97">
-    <cfRule type="expression" dxfId="203" priority="59">
+    <cfRule type="expression" dxfId="118" priority="59">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L96:MW97">
-    <cfRule type="expression" dxfId="202" priority="55">
+    <cfRule type="expression" dxfId="117" priority="55">
       <formula>AND(task_start&lt;=L$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH96:BH97">
-    <cfRule type="expression" dxfId="201" priority="61">
+    <cfRule type="expression" dxfId="116" priority="61">
       <formula>AND(TODAY()&gt;=BH$5,TODAY()&lt;CD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH96:BH97">
-    <cfRule type="expression" dxfId="200" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="62" stopIfTrue="1">
       <formula>AND(task_end&gt;=BH$5,task_start&lt;CD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MQ96:MV97 MJ96:MO97 MC96:MH97 LV96:MA97 LO96:LT97 LH96:LM97 LA96:LF97 KT96:KY97 KM96:KR97 KF96:KK97 JY96:KD97 JR96:JW97 JK96:JP97 JD96:JI97 IW96:JB97 IP96:IU97 II96:IN97 IB96:IG97 HU96:HZ97 HN96:HS97 HG96:HL97 GZ96:HE97 GS96:GX97 GL96:GQ97 GE96:GJ97 FX96:GC97 FQ96:FV97 FJ96:FO97 FC96:FH97 EV96:FA97 EO96:ET97 EH96:EM97 EA96:EF97 CA96:DY97 BU96:BV97 L96:BG97 BI96:BN97">
-    <cfRule type="expression" dxfId="199" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="56" stopIfTrue="1">
       <formula>AND(task_end&gt;=L$5,task_start&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO96:BO97">
-    <cfRule type="expression" dxfId="198" priority="57">
+    <cfRule type="expression" dxfId="113" priority="57">
       <formula>AND(TODAY()&gt;=BO$5,TODAY()&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO96:BO97">
-    <cfRule type="expression" dxfId="197" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="58" stopIfTrue="1">
       <formula>AND(task_end&gt;=BO$5,task_start&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP96:BT97">
-    <cfRule type="expression" dxfId="196" priority="67">
+    <cfRule type="expression" dxfId="111" priority="67">
       <formula>AND(TODAY()&gt;=BP$5,TODAY()&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP96:BT97">
-    <cfRule type="expression" dxfId="195" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="68" stopIfTrue="1">
       <formula>AND(task_end&gt;=BP$5,task_start&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW96:BX97">
-    <cfRule type="expression" dxfId="194" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="70" stopIfTrue="1">
       <formula>AND(task_end&gt;=BW$5,task_start&lt;CA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW96:BX97">
-    <cfRule type="expression" dxfId="193" priority="69">
+    <cfRule type="expression" dxfId="108" priority="69">
       <formula>AND(TODAY()&gt;=BW$5,TODAY()&lt;CA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY96:BY97">
-    <cfRule type="expression" dxfId="192" priority="65">
+    <cfRule type="expression" dxfId="107" priority="65">
       <formula>AND(TODAY()&gt;=BY$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="66" stopIfTrue="1">
       <formula>AND(task_end&gt;=BY$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ96:BZ97">
-    <cfRule type="expression" dxfId="190" priority="63">
+    <cfRule type="expression" dxfId="105" priority="63">
       <formula>AND(TODAY()&gt;=BZ$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="64" stopIfTrue="1">
       <formula>AND(task_end&gt;=BZ$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MW96:MW97 MP96:MP97 MI96:MI97 MB96:MB97 LU96:LU97 LN96:LN97 LG96:LG97 KZ96:KZ97 KS96:KS97 KL96:KL97 KE96:KE97 JX96:JX97 JQ96:JQ97 JJ96:JJ97 JC96:JC97 IV96:IV97 IO96:IO97 IH96:IH97 IA96:IA97 HT96:HT97 HM96:HM97 HF96:HF97 GY96:GY97 GR96:GR97 GK96:GK97 GD96:GD97 FW96:FW97 FP96:FP97 FI96:FI97 FB96:FB97 EU96:EU97 EN96:EN97 EG96:EG97 DZ96:DZ97">
-    <cfRule type="expression" dxfId="188" priority="71">
+    <cfRule type="expression" dxfId="103" priority="71">
       <formula>AND(TODAY()&gt;=DZ$5,TODAY()&lt;MX$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MW96:MW97 MP96:MP97 MI96:MI97 MB96:MB97 LU96:LU97 LN96:LN97 LG96:LG97 KZ96:KZ97 KS96:KS97 KL96:KL97 KE96:KE97 JX96:JX97 JQ96:JQ97 JJ96:JJ97 JC96:JC97 IV96:IV97 IO96:IO97 IH96:IH97 IA96:IA97 HT96:HT97 HM96:HM97 HF96:HF97 GY96:GY97 GR96:GR97 GK96:GK97 GD96:GD97 FW96:FW97 FP96:FP97 FI96:FI97 FB96:FB97 EU96:EU97 EN96:EN97 EG96:EG97 DZ96:DZ97">
-    <cfRule type="expression" dxfId="187" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="72" stopIfTrue="1">
       <formula>AND(task_end&gt;=DZ$5,task_start&lt;MX$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58835,83 +57303,83 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MQ92:MV93 MJ92:MO93 MC92:MH93 LV92:MA93 LO92:LT93 LH92:LM93 LA92:LF93 KT92:KY93 KM92:KR93 KF92:KK93 JY92:KD93 JR92:JW93 JK92:JP93 JD92:JI93 IW92:JB93 IP92:IU93 II92:IN93 IB92:IG93 HU92:HZ93 HN92:HS93 HG92:HL93 GZ92:HE93 GS92:GX93 GL92:GQ93 GE92:GJ93 FX92:GC93 FQ92:FV93 FJ92:FO93 FC92:FH93 EV92:FA93 EO92:ET93 EH92:EM93 EA92:EF93 CA92:DY93 BI92:BN93 BU92:BV93 L92:BG93">
-    <cfRule type="expression" dxfId="186" priority="95">
+    <cfRule type="expression" dxfId="101" priority="95">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L92:MW93">
-    <cfRule type="expression" dxfId="185" priority="91">
+    <cfRule type="expression" dxfId="100" priority="91">
       <formula>AND(task_start&lt;=L$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH92:BH93">
-    <cfRule type="expression" dxfId="184" priority="97">
+    <cfRule type="expression" dxfId="99" priority="97">
       <formula>AND(TODAY()&gt;=BH$5,TODAY()&lt;CD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH92:BH93">
-    <cfRule type="expression" dxfId="183" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="98" stopIfTrue="1">
       <formula>AND(task_end&gt;=BH$5,task_start&lt;CD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MQ92:MV93 MJ92:MO93 MC92:MH93 LV92:MA93 LO92:LT93 LH92:LM93 LA92:LF93 KT92:KY93 KM92:KR93 KF92:KK93 JY92:KD93 JR92:JW93 JK92:JP93 JD92:JI93 IW92:JB93 IP92:IU93 II92:IN93 IB92:IG93 HU92:HZ93 HN92:HS93 HG92:HL93 GZ92:HE93 GS92:GX93 GL92:GQ93 GE92:GJ93 FX92:GC93 FQ92:FV93 FJ92:FO93 FC92:FH93 EV92:FA93 EO92:ET93 EH92:EM93 EA92:EF93 CA92:DY93 BU92:BV93 L92:BG93 BI92:BN93">
-    <cfRule type="expression" dxfId="182" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="92" stopIfTrue="1">
       <formula>AND(task_end&gt;=L$5,task_start&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO92:BO93">
-    <cfRule type="expression" dxfId="181" priority="93">
+    <cfRule type="expression" dxfId="96" priority="93">
       <formula>AND(TODAY()&gt;=BO$5,TODAY()&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO92:BO93">
-    <cfRule type="expression" dxfId="180" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="94" stopIfTrue="1">
       <formula>AND(task_end&gt;=BO$5,task_start&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP92:BT93">
-    <cfRule type="expression" dxfId="179" priority="103">
+    <cfRule type="expression" dxfId="94" priority="103">
       <formula>AND(TODAY()&gt;=BP$5,TODAY()&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP92:BT93">
-    <cfRule type="expression" dxfId="178" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="104" stopIfTrue="1">
       <formula>AND(task_end&gt;=BP$5,task_start&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW92:BX93">
-    <cfRule type="expression" dxfId="177" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="106" stopIfTrue="1">
       <formula>AND(task_end&gt;=BW$5,task_start&lt;CA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW92:BX93">
-    <cfRule type="expression" dxfId="176" priority="105">
+    <cfRule type="expression" dxfId="91" priority="105">
       <formula>AND(TODAY()&gt;=BW$5,TODAY()&lt;CA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY92:BY93">
-    <cfRule type="expression" dxfId="175" priority="101">
+    <cfRule type="expression" dxfId="90" priority="101">
       <formula>AND(TODAY()&gt;=BY$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="102" stopIfTrue="1">
       <formula>AND(task_end&gt;=BY$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ92:BZ93">
-    <cfRule type="expression" dxfId="173" priority="99">
+    <cfRule type="expression" dxfId="88" priority="99">
       <formula>AND(TODAY()&gt;=BZ$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="100" stopIfTrue="1">
       <formula>AND(task_end&gt;=BZ$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MW92:MW93 MP92:MP93 MI92:MI93 MB92:MB93 LU92:LU93 LN92:LN93 LG92:LG93 KZ92:KZ93 KS92:KS93 KL92:KL93 KE92:KE93 JX92:JX93 JQ92:JQ93 JJ92:JJ93 JC92:JC93 IV92:IV93 IO92:IO93 IH92:IH93 IA92:IA93 HT92:HT93 HM92:HM93 HF92:HF93 GY92:GY93 GR92:GR93 GK92:GK93 GD92:GD93 FW92:FW93 FP92:FP93 FI92:FI93 FB92:FB93 EU92:EU93 EN92:EN93 EG92:EG93 DZ92:DZ93">
-    <cfRule type="expression" dxfId="171" priority="107">
+    <cfRule type="expression" dxfId="86" priority="107">
       <formula>AND(TODAY()&gt;=DZ$5,TODAY()&lt;MX$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MW92:MW93 MP92:MP93 MI92:MI93 MB92:MB93 LU92:LU93 LN92:LN93 LG92:LG93 KZ92:KZ93 KS92:KS93 KL92:KL93 KE92:KE93 JX92:JX93 JQ92:JQ93 JJ92:JJ93 JC92:JC93 IV92:IV93 IO92:IO93 IH92:IH93 IA92:IA93 HT92:HT93 HM92:HM93 HF92:HF93 GY92:GY93 GR92:GR93 GK92:GK93 GD92:GD93 FW92:FW93 FP92:FP93 FI92:FI93 FB92:FB93 EU92:EU93 EN92:EN93 EG92:EG93 DZ92:DZ93">
-    <cfRule type="expression" dxfId="170" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="108" stopIfTrue="1">
       <formula>AND(task_end&gt;=DZ$5,task_start&lt;MX$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58930,88 +57398,88 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MQ89:MV91 MJ89:MO91 MC89:MH91 LV89:MA91 LO89:LT91 LH89:LM91 LA89:LF91 KT89:KY91 KM89:KR91 KF89:KK91 JY89:KD91 JR89:JW91 JK89:JP91 JD89:JI91 IW89:JB91 IP89:IU91 II89:IN91 IB89:IG91 HU89:HZ91 HN89:HS91 HG89:HL91 GZ89:HE91 GS89:GX91 GL89:GQ91 GE89:GJ91 FX89:GC91 FQ89:FV91 FJ89:FO91 FC89:FH91 EV89:FA91 EO89:ET91 EH89:EM91 EA89:EF91 CA89:DY91 BI89:BN91 BU89:BV91 L89:BG91">
-    <cfRule type="expression" dxfId="169" priority="131">
+    <cfRule type="expression" dxfId="84" priority="131">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L89:MW91">
-    <cfRule type="expression" dxfId="168" priority="127">
+    <cfRule type="expression" dxfId="83" priority="127">
       <formula>AND(task_start&lt;=L$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH89:BH91">
-    <cfRule type="expression" dxfId="167" priority="133">
+    <cfRule type="expression" dxfId="82" priority="133">
       <formula>AND(TODAY()&gt;=BH$5,TODAY()&lt;CD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH89:BH91">
-    <cfRule type="expression" dxfId="166" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="134" stopIfTrue="1">
       <formula>AND(task_end&gt;=BH$5,task_start&lt;CD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MQ89:MV91 MJ89:MO91 MC89:MH91 LV89:MA91 LO89:LT91 LH89:LM91 LA89:LF91 KT89:KY91 KM89:KR91 KF89:KK91 JY89:KD91 JR89:JW91 JK89:JP91 JD89:JI91 IW89:JB91 IP89:IU91 II89:IN91 IB89:IG91 HU89:HZ91 HN89:HS91 HG89:HL91 GZ89:HE91 GS89:GX91 GL89:GQ91 GE89:GJ91 FX89:GC91 FQ89:FV91 FJ89:FO91 FC89:FH91 EV89:FA91 EO89:ET91 EH89:EM91 EA89:EF91 CA89:DY91 BU89:BV91 L89:BG91 BI89:BN91">
-    <cfRule type="expression" dxfId="165" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="128" stopIfTrue="1">
       <formula>AND(task_end&gt;=L$5,task_start&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO89:BO91">
-    <cfRule type="expression" dxfId="164" priority="129">
+    <cfRule type="expression" dxfId="79" priority="129">
       <formula>AND(TODAY()&gt;=BO$5,TODAY()&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO89:BO91">
-    <cfRule type="expression" dxfId="163" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="130" stopIfTrue="1">
       <formula>AND(task_end&gt;=BO$5,task_start&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP89:BT91">
-    <cfRule type="expression" dxfId="162" priority="139">
+    <cfRule type="expression" dxfId="77" priority="139">
       <formula>AND(TODAY()&gt;=BP$5,TODAY()&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP89:BT91">
-    <cfRule type="expression" dxfId="161" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="140" stopIfTrue="1">
       <formula>AND(task_end&gt;=BP$5,task_start&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW89:BX91">
-    <cfRule type="expression" dxfId="160" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="142" stopIfTrue="1">
       <formula>AND(task_end&gt;=BW$5,task_start&lt;CA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW89:BX91">
-    <cfRule type="expression" dxfId="159" priority="141">
+    <cfRule type="expression" dxfId="74" priority="141">
       <formula>AND(TODAY()&gt;=BW$5,TODAY()&lt;CA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY89:BY91">
-    <cfRule type="expression" dxfId="158" priority="137">
+    <cfRule type="expression" dxfId="73" priority="137">
       <formula>AND(TODAY()&gt;=BY$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="138" stopIfTrue="1">
       <formula>AND(task_end&gt;=BY$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ89:BZ91">
-    <cfRule type="expression" dxfId="156" priority="135">
+    <cfRule type="expression" dxfId="71" priority="135">
       <formula>AND(TODAY()&gt;=BZ$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="136" stopIfTrue="1">
       <formula>AND(task_end&gt;=BZ$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MW89:MW91 MP89:MP91 MI89:MI91 MB89:MB91 LU89:LU91 LN89:LN91 LG89:LG91 KZ89:KZ91 KS89:KS91 KL89:KL91 KE89:KE91 JX89:JX91 JQ89:JQ91 JJ89:JJ91 JC89:JC91 IV89:IV91 IO89:IO91 IH89:IH91 IA89:IA91 HT89:HT91 HM89:HM91 HF89:HF91 GY89:GY91 GR89:GR91 GK89:GK91 GD89:GD91 FW89:FW91 FP89:FP91 FI89:FI91 FB89:FB91 EU89:EU91 EN89:EN91 EG89:EG91 DZ89:DZ91">
-    <cfRule type="expression" dxfId="154" priority="143">
+    <cfRule type="expression" dxfId="69" priority="143">
       <formula>AND(TODAY()&gt;=DZ$5,TODAY()&lt;MX$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MW89:MW91 MP89:MP91 MI89:MI91 MB89:MB91 LU89:LU91 LN89:LN91 LG89:LG91 KZ89:KZ91 KS89:KS91 KL89:KL91 KE89:KE91 JX89:JX91 JQ89:JQ91 JJ89:JJ91 JC89:JC91 IV89:IV91 IO89:IO91 IH89:IH91 IA89:IA91 HT89:HT91 HM89:HM91 HF89:HF91 GY89:GY91 GR89:GR91 GK89:GK91 GD89:GD91 FW89:FW91 FP89:FP91 FI89:FI91 FB89:FB91 EU89:EU91 EN89:EN91 EG89:EG91 DZ89:DZ91">
-    <cfRule type="expression" dxfId="153" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="144" stopIfTrue="1">
       <formula>AND(task_end&gt;=DZ$5,task_start&lt;MX$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L95:MW95">
-    <cfRule type="expression" dxfId="151" priority="37">
+    <cfRule type="expression" dxfId="67" priority="37">
       <formula>AND(task_start&lt;=L$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=L$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59030,83 +57498,83 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MQ95:MV95 MJ95:MO95 MC95:MH95 LV95:MA95 LO95:LT95 LH95:LM95 LA95:LF95 KT95:KY95 KM95:KR95 KF95:KK95 JY95:KD95 JR95:JW95 JK95:JP95 JD95:JI95 IW95:JB95 IP95:IU95 II95:IN95 IB95:IG95 HU95:HZ95 HN95:HS95 HG95:HL95 GZ95:HE95 GS95:GX95 GL95:GQ95 GE95:GJ95 FX95:GC95 FQ95:FV95 FJ95:FO95 FC95:FH95 EV95:FA95 EO95:ET95 EH95:EM95 EA95:EF95 CA95:DY95 BI95:BN95 BU95:BV95 L95:BG95">
-    <cfRule type="expression" dxfId="118" priority="41">
+    <cfRule type="expression" dxfId="66" priority="41">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L108:MW109">
-    <cfRule type="expression" dxfId="117" priority="19">
+    <cfRule type="expression" dxfId="65" priority="19">
       <formula>AND(task_start&lt;=L$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH95">
-    <cfRule type="expression" dxfId="116" priority="43">
+    <cfRule type="expression" dxfId="64" priority="43">
       <formula>AND(TODAY()&gt;=BH$5,TODAY()&lt;CD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH95">
-    <cfRule type="expression" dxfId="115" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="44" stopIfTrue="1">
       <formula>AND(task_end&gt;=BH$5,task_start&lt;CD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MQ95:MV95 MJ95:MO95 MC95:MH95 LV95:MA95 LO95:LT95 LH95:LM95 LA95:LF95 KT95:KY95 KM95:KR95 KF95:KK95 JY95:KD95 JR95:JW95 JK95:JP95 JD95:JI95 IW95:JB95 IP95:IU95 II95:IN95 IB95:IG95 HU95:HZ95 HN95:HS95 HG95:HL95 GZ95:HE95 GS95:GX95 GL95:GQ95 GE95:GJ95 FX95:GC95 FQ95:FV95 FJ95:FO95 FC95:FH95 EV95:FA95 EO95:ET95 EH95:EM95 EA95:EF95 CA95:DY95 BU95:BV95 L95:BG95 BI95:BN95">
-    <cfRule type="expression" dxfId="114" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="38" stopIfTrue="1">
       <formula>AND(task_end&gt;=L$5,task_start&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO95">
-    <cfRule type="expression" dxfId="113" priority="39">
+    <cfRule type="expression" dxfId="61" priority="39">
       <formula>AND(TODAY()&gt;=BO$5,TODAY()&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO95">
-    <cfRule type="expression" dxfId="112" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="40" stopIfTrue="1">
       <formula>AND(task_end&gt;=BO$5,task_start&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP95:BT95">
-    <cfRule type="expression" dxfId="111" priority="49">
+    <cfRule type="expression" dxfId="59" priority="49">
       <formula>AND(TODAY()&gt;=BP$5,TODAY()&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP95:BT95">
-    <cfRule type="expression" dxfId="110" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="50" stopIfTrue="1">
       <formula>AND(task_end&gt;=BP$5,task_start&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW95:BX95">
-    <cfRule type="expression" dxfId="109" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="52" stopIfTrue="1">
       <formula>AND(task_end&gt;=BW$5,task_start&lt;CA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW95:BX95">
-    <cfRule type="expression" dxfId="108" priority="51">
+    <cfRule type="expression" dxfId="56" priority="51">
       <formula>AND(TODAY()&gt;=BW$5,TODAY()&lt;CA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY95">
-    <cfRule type="expression" dxfId="107" priority="47">
+    <cfRule type="expression" dxfId="55" priority="47">
       <formula>AND(TODAY()&gt;=BY$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="48" stopIfTrue="1">
       <formula>AND(task_end&gt;=BY$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ95">
-    <cfRule type="expression" dxfId="105" priority="45">
+    <cfRule type="expression" dxfId="53" priority="45">
       <formula>AND(TODAY()&gt;=BZ$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="46" stopIfTrue="1">
       <formula>AND(task_end&gt;=BZ$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MW95 MP95 MI95 MB95 LU95 LN95 LG95 KZ95 KS95 KL95 KE95 JX95 JQ95 JJ95 JC95 IV95 IO95 IH95 IA95 HT95 HM95 HF95 GY95 GR95 GK95 GD95 FW95 FP95 FI95 FB95 EU95 EN95 EG95 DZ95">
-    <cfRule type="expression" dxfId="103" priority="53">
+    <cfRule type="expression" dxfId="51" priority="53">
       <formula>AND(TODAY()&gt;=DZ$5,TODAY()&lt;MX$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MW95 MP95 MI95 MB95 LU95 LN95 LG95 KZ95 KS95 KL95 KE95 JX95 JQ95 JJ95 JC95 IV95 IO95 IH95 IA95 HT95 HM95 HF95 GY95 GR95 GK95 GD95 FW95 FP95 FI95 FB95 EU95 EN95 EG95 DZ95">
-    <cfRule type="expression" dxfId="102" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="54" stopIfTrue="1">
       <formula>AND(task_end&gt;=DZ$5,task_start&lt;MX$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59125,83 +57593,83 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MQ94:MV94 MJ94:MO94 MC94:MH94 LV94:MA94 LO94:LT94 LH94:LM94 LA94:LF94 KT94:KY94 KM94:KR94 KF94:KK94 JY94:KD94 JR94:JW94 JK94:JP94 JD94:JI94 IW94:JB94 IP94:IU94 II94:IN94 IB94:IG94 HU94:HZ94 HN94:HS94 HG94:HL94 GZ94:HE94 GS94:GX94 GL94:GQ94 GE94:GJ94 FX94:GC94 FQ94:FV94 FJ94:FO94 FC94:FH94 EV94:FA94 EO94:ET94 EH94:EM94 EA94:EF94 CA94:DY94 BI94:BN94 BU94:BV94 L94:BG94">
-    <cfRule type="expression" dxfId="101" priority="77">
+    <cfRule type="expression" dxfId="49" priority="77">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L94:MW94">
-    <cfRule type="expression" dxfId="100" priority="73">
+    <cfRule type="expression" dxfId="48" priority="73">
       <formula>AND(task_start&lt;=L$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH94">
-    <cfRule type="expression" dxfId="99" priority="79">
+    <cfRule type="expression" dxfId="47" priority="79">
       <formula>AND(TODAY()&gt;=BH$5,TODAY()&lt;CD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH94">
-    <cfRule type="expression" dxfId="98" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="80" stopIfTrue="1">
       <formula>AND(task_end&gt;=BH$5,task_start&lt;CD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MQ94:MV94 MJ94:MO94 MC94:MH94 LV94:MA94 LO94:LT94 LH94:LM94 LA94:LF94 KT94:KY94 KM94:KR94 KF94:KK94 JY94:KD94 JR94:JW94 JK94:JP94 JD94:JI94 IW94:JB94 IP94:IU94 II94:IN94 IB94:IG94 HU94:HZ94 HN94:HS94 HG94:HL94 GZ94:HE94 GS94:GX94 GL94:GQ94 GE94:GJ94 FX94:GC94 FQ94:FV94 FJ94:FO94 FC94:FH94 EV94:FA94 EO94:ET94 EH94:EM94 EA94:EF94 CA94:DY94 BU94:BV94 L94:BG94 BI94:BN94">
-    <cfRule type="expression" dxfId="97" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="74" stopIfTrue="1">
       <formula>AND(task_end&gt;=L$5,task_start&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO94">
-    <cfRule type="expression" dxfId="96" priority="75">
+    <cfRule type="expression" dxfId="44" priority="75">
       <formula>AND(TODAY()&gt;=BO$5,TODAY()&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO94">
-    <cfRule type="expression" dxfId="95" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="76" stopIfTrue="1">
       <formula>AND(task_end&gt;=BO$5,task_start&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP94:BT94">
-    <cfRule type="expression" dxfId="94" priority="85">
+    <cfRule type="expression" dxfId="42" priority="85">
       <formula>AND(TODAY()&gt;=BP$5,TODAY()&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP94:BT94">
-    <cfRule type="expression" dxfId="93" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="86" stopIfTrue="1">
       <formula>AND(task_end&gt;=BP$5,task_start&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW94:BX94">
-    <cfRule type="expression" dxfId="92" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="88" stopIfTrue="1">
       <formula>AND(task_end&gt;=BW$5,task_start&lt;CA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW94:BX94">
-    <cfRule type="expression" dxfId="91" priority="87">
+    <cfRule type="expression" dxfId="39" priority="87">
       <formula>AND(TODAY()&gt;=BW$5,TODAY()&lt;CA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY94">
-    <cfRule type="expression" dxfId="90" priority="83">
+    <cfRule type="expression" dxfId="38" priority="83">
       <formula>AND(TODAY()&gt;=BY$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="84" stopIfTrue="1">
       <formula>AND(task_end&gt;=BY$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ94">
-    <cfRule type="expression" dxfId="88" priority="81">
+    <cfRule type="expression" dxfId="36" priority="81">
       <formula>AND(TODAY()&gt;=BZ$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="82" stopIfTrue="1">
       <formula>AND(task_end&gt;=BZ$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MW94 MP94 MI94 MB94 LU94 LN94 LG94 KZ94 KS94 KL94 KE94 JX94 JQ94 JJ94 JC94 IV94 IO94 IH94 IA94 HT94 HM94 HF94 GY94 GR94 GK94 GD94 FW94 FP94 FI94 FB94 EU94 EN94 EG94 DZ94">
-    <cfRule type="expression" dxfId="86" priority="89">
+    <cfRule type="expression" dxfId="34" priority="89">
       <formula>AND(TODAY()&gt;=DZ$5,TODAY()&lt;MX$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MW94 MP94 MI94 MB94 LU94 LN94 LG94 KZ94 KS94 KL94 KE94 JX94 JQ94 JJ94 JC94 IV94 IO94 IH94 IA94 HT94 HM94 HF94 GY94 GR94 GK94 GD94 FW94 FP94 FI94 FB94 EU94 EN94 EG94 DZ94">
-    <cfRule type="expression" dxfId="85" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="90" stopIfTrue="1">
       <formula>AND(task_end&gt;=DZ$5,task_start&lt;MX$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59220,78 +57688,78 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MQ108:MV109 MJ108:MO109 MC108:MH109 LV108:MA109 LO108:LT109 LH108:LM109 LA108:LF109 KT108:KY109 KM108:KR109 KF108:KK109 JY108:KD109 JR108:JW109 JK108:JP109 JD108:JI109 IW108:JB109 IP108:IU109 II108:IN109 IB108:IG109 HU108:HZ109 HN108:HS109 HG108:HL109 GZ108:HE109 GS108:GX109 GL108:GQ109 GE108:GJ109 FX108:GC109 FQ108:FV109 FJ108:FO109 FC108:FH109 EV108:FA109 EO108:ET109 EH108:EM109 EA108:EF109 CA108:DY109 BI108:BN109 BU108:BV109 L108:BG109">
-    <cfRule type="expression" dxfId="50" priority="23">
+    <cfRule type="expression" dxfId="32" priority="23">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH108:BH109">
-    <cfRule type="expression" dxfId="48" priority="25">
+    <cfRule type="expression" dxfId="31" priority="25">
       <formula>AND(TODAY()&gt;=BH$5,TODAY()&lt;CD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH108:BH109">
-    <cfRule type="expression" dxfId="47" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="26" stopIfTrue="1">
       <formula>AND(task_end&gt;=BH$5,task_start&lt;CD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MQ108:MV109 MJ108:MO109 MC108:MH109 LV108:MA109 LO108:LT109 LH108:LM109 LA108:LF109 KT108:KY109 KM108:KR109 KF108:KK109 JY108:KD109 JR108:JW109 JK108:JP109 JD108:JI109 IW108:JB109 IP108:IU109 II108:IN109 IB108:IG109 HU108:HZ109 HN108:HS109 HG108:HL109 GZ108:HE109 GS108:GX109 GL108:GQ109 GE108:GJ109 FX108:GC109 FQ108:FV109 FJ108:FO109 FC108:FH109 EV108:FA109 EO108:ET109 EH108:EM109 EA108:EF109 CA108:DY109 BU108:BV109 L108:BG109 BI108:BN109">
-    <cfRule type="expression" dxfId="46" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="20" stopIfTrue="1">
       <formula>AND(task_end&gt;=L$5,task_start&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO108:BO109">
-    <cfRule type="expression" dxfId="45" priority="21">
+    <cfRule type="expression" dxfId="28" priority="21">
       <formula>AND(TODAY()&gt;=BO$5,TODAY()&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO108:BO109">
-    <cfRule type="expression" dxfId="44" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="22" stopIfTrue="1">
       <formula>AND(task_end&gt;=BO$5,task_start&lt;CY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP108:BT109">
-    <cfRule type="expression" dxfId="43" priority="31">
+    <cfRule type="expression" dxfId="26" priority="31">
       <formula>AND(TODAY()&gt;=BP$5,TODAY()&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP108:BT109">
-    <cfRule type="expression" dxfId="42" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="32" stopIfTrue="1">
       <formula>AND(task_end&gt;=BP$5,task_start&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW108:BX109">
-    <cfRule type="expression" dxfId="41" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="34" stopIfTrue="1">
       <formula>AND(task_end&gt;=BW$5,task_start&lt;CA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW108:BX109">
-    <cfRule type="expression" dxfId="40" priority="33">
+    <cfRule type="expression" dxfId="23" priority="33">
       <formula>AND(TODAY()&gt;=BW$5,TODAY()&lt;CA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY108:BY109">
-    <cfRule type="expression" dxfId="39" priority="29">
+    <cfRule type="expression" dxfId="22" priority="29">
       <formula>AND(TODAY()&gt;=BY$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="30" stopIfTrue="1">
       <formula>AND(task_end&gt;=BY$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ108:BZ109">
-    <cfRule type="expression" dxfId="37" priority="27">
+    <cfRule type="expression" dxfId="20" priority="27">
       <formula>AND(TODAY()&gt;=BZ$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="28" stopIfTrue="1">
       <formula>AND(task_end&gt;=BZ$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MW108:MW109 MP108:MP109 MI108:MI109 MB108:MB109 LU108:LU109 LN108:LN109 LG108:LG109 KZ108:KZ109 KS108:KS109 KL108:KL109 KE108:KE109 JX108:JX109 JQ108:JQ109 JJ108:JJ109 JC108:JC109 IV108:IV109 IO108:IO109 IH108:IH109 IA108:IA109 HT108:HT109 HM108:HM109 HF108:HF109 GY108:GY109 GR108:GR109 GK108:GK109 GD108:GD109 FW108:FW109 FP108:FP109 FI108:FI109 FB108:FB109 EU108:EU109 EN108:EN109 EG108:EG109 DZ108:DZ109">
-    <cfRule type="expression" dxfId="35" priority="35">
+    <cfRule type="expression" dxfId="18" priority="35">
       <formula>AND(TODAY()&gt;=DZ$5,TODAY()&lt;MX$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MW108:MW109 MP108:MP109 MI108:MI109 MB108:MB109 LU108:LU109 LN108:LN109 LG108:LG109 KZ108:KZ109 KS108:KS109 KL108:KL109 KE108:KE109 JX108:JX109 JQ108:JQ109 JJ108:JJ109 JC108:JC109 IV108:IV109 IO108:IO109 IH108:IH109 IA108:IA109 HT108:HT109 HM108:HM109 HF108:HF109 GY108:GY109 GR108:GR109 GK108:GK109 GD108:GD109 FW108:FW109 FP108:FP109 FI108:FI109 FB108:FB109 EU108:EU109 EN108:EN109 EG108:EG109 DZ108:DZ109">
-    <cfRule type="expression" dxfId="34" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="36" stopIfTrue="1">
       <formula>AND(task_end&gt;=DZ$5,task_start&lt;MX$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59817,35 +58285,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -60133,34 +58572,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -60179,4 +58620,31 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Diagrama de Gantt IAVE.xlsx
+++ b/Diagrama de Gantt IAVE.xlsx
@@ -2838,9 +2838,6 @@
     <xf numFmtId="171" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2855,6 +2852,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -10400,10 +10400,10 @@
   <dimension ref="A1:MW115"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="7" topLeftCell="I87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="7" topLeftCell="I98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F91" sqref="F91:G91"/>
+      <selection pane="bottomRight" activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10449,10 +10449,10 @@
   <sheetData>
     <row r="1" spans="1:361" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1"/>
-      <c r="B1" s="236" t="s">
+      <c r="B1" s="235" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="236"/>
+      <c r="C1" s="235"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
       <c r="F1" s="4"/>
@@ -10466,38 +10466,38 @@
       <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="237" t="s">
+      <c r="B2" s="236" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="237"/>
+      <c r="C2" s="236"/>
       <c r="L2" s="39"/>
     </row>
     <row r="3" spans="1:361" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="238" t="s">
+      <c r="B3" s="237" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="238"/>
-      <c r="D3" s="239" t="s">
+      <c r="C3" s="237"/>
+      <c r="D3" s="238" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="240"/>
-      <c r="F3" s="235">
+      <c r="E3" s="239"/>
+      <c r="F3" s="240">
         <v>45714</v>
       </c>
-      <c r="G3" s="235"/>
+      <c r="G3" s="240"/>
     </row>
     <row r="4" spans="1:361" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="53"/>
-      <c r="D4" s="239" t="s">
+      <c r="D4" s="238" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="240"/>
+      <c r="E4" s="239"/>
       <c r="F4" s="6">
         <v>49</v>
       </c>
@@ -45125,7 +45125,7 @@
         <v>271</v>
       </c>
       <c r="E91" s="214">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="F91" s="215">
         <v>27</v>
@@ -49557,7 +49557,7 @@
         <v>264</v>
       </c>
       <c r="E103" s="214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" s="226">
         <v>46051</v>
@@ -54372,50 +54372,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="MC4:MI4"/>
-    <mergeCell ref="MJ4:MP4"/>
-    <mergeCell ref="MQ4:MW4"/>
-    <mergeCell ref="KT4:KZ4"/>
-    <mergeCell ref="LA4:LG4"/>
-    <mergeCell ref="LH4:LN4"/>
-    <mergeCell ref="LO4:LU4"/>
-    <mergeCell ref="LV4:MB4"/>
-    <mergeCell ref="JK4:JQ4"/>
-    <mergeCell ref="JR4:JX4"/>
-    <mergeCell ref="JY4:KE4"/>
-    <mergeCell ref="KF4:KL4"/>
-    <mergeCell ref="KM4:KS4"/>
-    <mergeCell ref="IB4:IH4"/>
-    <mergeCell ref="II4:IO4"/>
-    <mergeCell ref="IP4:IV4"/>
-    <mergeCell ref="IW4:JC4"/>
-    <mergeCell ref="JD4:JJ4"/>
-    <mergeCell ref="GS4:GY4"/>
-    <mergeCell ref="GZ4:HF4"/>
-    <mergeCell ref="HG4:HM4"/>
-    <mergeCell ref="HN4:HT4"/>
-    <mergeCell ref="HU4:IA4"/>
-    <mergeCell ref="FJ4:FP4"/>
-    <mergeCell ref="FQ4:FW4"/>
-    <mergeCell ref="FX4:GD4"/>
-    <mergeCell ref="GE4:GK4"/>
-    <mergeCell ref="GL4:GR4"/>
-    <mergeCell ref="EA4:EG4"/>
-    <mergeCell ref="EH4:EN4"/>
-    <mergeCell ref="EO4:EU4"/>
-    <mergeCell ref="EV4:FB4"/>
-    <mergeCell ref="FC4:FI4"/>
-    <mergeCell ref="DT4:DZ4"/>
-    <mergeCell ref="CK4:CQ4"/>
-    <mergeCell ref="CR4:CX4"/>
-    <mergeCell ref="CY4:DE4"/>
-    <mergeCell ref="DF4:DL4"/>
-    <mergeCell ref="DM4:DS4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
     <mergeCell ref="CD4:CJ4"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="L4:R4"/>
@@ -54428,6 +54384,50 @@
     <mergeCell ref="BI4:BO4"/>
     <mergeCell ref="BP4:BV4"/>
     <mergeCell ref="BW4:CC4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="DT4:DZ4"/>
+    <mergeCell ref="CK4:CQ4"/>
+    <mergeCell ref="CR4:CX4"/>
+    <mergeCell ref="CY4:DE4"/>
+    <mergeCell ref="DF4:DL4"/>
+    <mergeCell ref="DM4:DS4"/>
+    <mergeCell ref="EA4:EG4"/>
+    <mergeCell ref="EH4:EN4"/>
+    <mergeCell ref="EO4:EU4"/>
+    <mergeCell ref="EV4:FB4"/>
+    <mergeCell ref="FC4:FI4"/>
+    <mergeCell ref="FJ4:FP4"/>
+    <mergeCell ref="FQ4:FW4"/>
+    <mergeCell ref="FX4:GD4"/>
+    <mergeCell ref="GE4:GK4"/>
+    <mergeCell ref="GL4:GR4"/>
+    <mergeCell ref="GS4:GY4"/>
+    <mergeCell ref="GZ4:HF4"/>
+    <mergeCell ref="HG4:HM4"/>
+    <mergeCell ref="HN4:HT4"/>
+    <mergeCell ref="HU4:IA4"/>
+    <mergeCell ref="IB4:IH4"/>
+    <mergeCell ref="II4:IO4"/>
+    <mergeCell ref="IP4:IV4"/>
+    <mergeCell ref="IW4:JC4"/>
+    <mergeCell ref="JD4:JJ4"/>
+    <mergeCell ref="JK4:JQ4"/>
+    <mergeCell ref="JR4:JX4"/>
+    <mergeCell ref="JY4:KE4"/>
+    <mergeCell ref="KF4:KL4"/>
+    <mergeCell ref="KM4:KS4"/>
+    <mergeCell ref="MC4:MI4"/>
+    <mergeCell ref="MJ4:MP4"/>
+    <mergeCell ref="MQ4:MW4"/>
+    <mergeCell ref="KT4:KZ4"/>
+    <mergeCell ref="LA4:LG4"/>
+    <mergeCell ref="LH4:LN4"/>
+    <mergeCell ref="LO4:LU4"/>
+    <mergeCell ref="LV4:MB4"/>
   </mergeCells>
   <conditionalFormatting sqref="E114:E115 E24:E28 E31:E33 E7:E22 E38 E36 E41:E43 E61:E86 E47:E58">
     <cfRule type="dataBar" priority="982">
@@ -58285,6 +58285,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -58572,36 +58601,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -58620,31 +58647,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>